--- a/data/static_tables/metric_structure.xlsx
+++ b/data/static_tables/metric_structure.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\projects\eGrid\production_model\users\russelle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\projects\eGrid\production_model\users\russelle\egrid\data\static_tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A77499-6EE8-4062-8C15-787FA8F9C63C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B485BE9F-0D55-4169-A240-F001A6109FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="16440" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UNT21" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6155" uniqueCount="2906">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6165" uniqueCount="2906">
   <si>
     <t>Name</t>
   </si>
@@ -9682,7 +9682,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
     </sheetView>
@@ -12962,8 +12962,8 @@
   <dimension ref="A1:IN248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -13140,7 +13140,9 @@
       <c r="D11" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="E11" s="144"/>
+      <c r="E11" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
@@ -13170,7 +13172,9 @@
       <c r="D13" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="E13" s="144"/>
+      <c r="E13" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="59" t="s">
@@ -16870,8 +16874,8 @@
   <dimension ref="A1:IN248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -17047,7 +17051,9 @@
       <c r="D11" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="E11" s="144"/>
+      <c r="E11" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
@@ -17077,7 +17083,9 @@
       <c r="D13" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="E13" s="144"/>
+      <c r="E13" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="59" t="s">
@@ -20778,7 +20786,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -20954,7 +20962,9 @@
       <c r="D11" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="E11" s="144"/>
+      <c r="E11" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="109" t="s">
@@ -20984,7 +20994,9 @@
       <c r="D13" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="E13" s="144"/>
+      <c r="E13" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="109" t="s">
@@ -24685,7 +24697,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -24862,7 +24874,9 @@
       <c r="D11" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="E11" s="144"/>
+      <c r="E11" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
@@ -24892,7 +24906,9 @@
       <c r="D13" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="E13" s="144"/>
+      <c r="E13" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="59" t="s">
@@ -28593,7 +28609,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -28748,7 +28764,9 @@
       <c r="D9" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="E9" s="144"/>
+      <c r="E9" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
@@ -28778,7 +28796,9 @@
       <c r="D11" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="E11" s="144"/>
+      <c r="E11" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
@@ -32477,8 +32497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>

--- a/data/static_tables/metric_structure.xlsx
+++ b/data/static_tables/metric_structure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\projects\eGrid\production_model\users\russelle\egrid\data\static_tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B485BE9F-0D55-4169-A240-F001A6109FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A78D40C-E631-4B9D-9E13-4FC91691AD46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="16440" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6165" uniqueCount="2906">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6165" uniqueCount="2907">
   <si>
     <t>Name</t>
   </si>
@@ -8775,6 +8775,9 @@
   </si>
   <si>
     <t>GGRSLOSS</t>
+  </si>
+  <si>
+    <t>DIRCTUSE2</t>
   </si>
 </sst>
 </file>
@@ -32499,7 +32502,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -32632,7 +32635,7 @@
         <v>2903</v>
       </c>
       <c r="B9" s="56" t="s">
-        <v>2902</v>
+        <v>2906</v>
       </c>
       <c r="C9" s="56" t="s">
         <v>34</v>
@@ -32666,6 +32669,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="6c854b04-c9c6-4391-adbe-2e73191270e7" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="059b9c67-646b-4b4e-9ab1-2b1c805d0390">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AD6200282E8E804DB7E47654D11346C2" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="334b3f607926cb22599f187b4c015ce1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="059b9c67-646b-4b4e-9ab1-2b1c805d0390" xmlns:ns3="c05e7bd6-26a7-41a1-805c-893279a3732f" xmlns:ns4="6c854b04-c9c6-4391-adbe-2e73191270e7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0fe548b9ff7492f3109b4e0b4a8efc8f" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="059b9c67-646b-4b4e-9ab1-2b1c805d0390"/>
@@ -32925,27 +32948,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="6c854b04-c9c6-4391-adbe-2e73191270e7" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="059b9c67-646b-4b4e-9ab1-2b1c805d0390">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCA6965B-A23A-4F60-9CAE-00FD555BD4D8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A2EA77E-CA9B-4563-9A5E-2F50B3C8BA13}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6c854b04-c9c6-4391-adbe-2e73191270e7"/>
+    <ds:schemaRef ds:uri="059b9c67-646b-4b4e-9ab1-2b1c805d0390"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FE51207-01AF-400E-9D05-58F426138751}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -32963,23 +32985,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A2EA77E-CA9B-4563-9A5E-2F50B3C8BA13}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6c854b04-c9c6-4391-adbe-2e73191270e7"/>
-    <ds:schemaRef ds:uri="059b9c67-646b-4b4e-9ab1-2b1c805d0390"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCA6965B-A23A-4F60-9CAE-00FD555BD4D8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/static_tables/metric_structure.xlsx
+++ b/data/static_tables/metric_structure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\projects\eGrid\production_model\users\russelle\egrid\data\static_tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A78D40C-E631-4B9D-9E13-4FC91691AD46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3DB7BF-89D3-4A78-87EF-2D3443013D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="16440" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UNT21" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6165" uniqueCount="2907">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6177" uniqueCount="2913">
   <si>
     <t>Name</t>
   </si>
@@ -8778,6 +8778,24 @@
   </si>
   <si>
     <t>DIRCTUSE2</t>
+  </si>
+  <si>
+    <t>Plant annual CH4 input emission rate (kg/GJ)</t>
+  </si>
+  <si>
+    <t>Plant annual N2O input emission rate (kg/GJ)</t>
+  </si>
+  <si>
+    <t>Plant annual CO2 equivalent input emission rate (kg/GJ)</t>
+  </si>
+  <si>
+    <t>PLCH4RA</t>
+  </si>
+  <si>
+    <t>PLN2ORA</t>
+  </si>
+  <si>
+    <t>PLC2ERA</t>
   </si>
 </sst>
 </file>
@@ -10393,11 +10411,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:FQ173"/>
+  <dimension ref="A1:IN176"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -11301,7 +11319,7 @@
       </c>
       <c r="E64" s="144"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:248" x14ac:dyDescent="0.2">
       <c r="A65" s="62" t="s">
         <v>225</v>
       </c>
@@ -11318,7 +11336,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:248" x14ac:dyDescent="0.2">
       <c r="A66" s="62" t="s">
         <v>227</v>
       </c>
@@ -11333,7 +11351,7 @@
       </c>
       <c r="E66" s="144"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:248" x14ac:dyDescent="0.2">
       <c r="A67" s="62" t="s">
         <v>229</v>
       </c>
@@ -11350,7 +11368,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:248" x14ac:dyDescent="0.2">
       <c r="A68" s="62" t="s">
         <v>231</v>
       </c>
@@ -11365,7 +11383,7 @@
       </c>
       <c r="E68" s="144"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:248" x14ac:dyDescent="0.2">
       <c r="A69" s="62" t="s">
         <v>233</v>
       </c>
@@ -11382,7 +11400,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:248" x14ac:dyDescent="0.2">
       <c r="A70" s="64" t="s">
         <v>235</v>
       </c>
@@ -11397,7 +11415,7 @@
       </c>
       <c r="E70" s="144"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:248" x14ac:dyDescent="0.2">
       <c r="A71" s="64" t="s">
         <v>238</v>
       </c>
@@ -11412,7 +11430,7 @@
       </c>
       <c r="E71" s="144"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:248" x14ac:dyDescent="0.2">
       <c r="A72" s="64" t="s">
         <v>240</v>
       </c>
@@ -11427,7 +11445,7 @@
       </c>
       <c r="E72" s="144"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:248" x14ac:dyDescent="0.2">
       <c r="A73" s="64" t="s">
         <v>242</v>
       </c>
@@ -11442,12 +11460,12 @@
       </c>
       <c r="E73" s="144"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:248" x14ac:dyDescent="0.2">
       <c r="A74" s="64" t="s">
-        <v>244</v>
-      </c>
-      <c r="B74" s="65" t="s">
-        <v>245</v>
+        <v>2907</v>
+      </c>
+      <c r="B74" s="17" t="s">
+        <v>2910</v>
       </c>
       <c r="C74" s="129" t="s">
         <v>206</v>
@@ -11456,314 +11474,935 @@
         <v>237</v>
       </c>
       <c r="E74" s="144"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="66" t="s">
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="10"/>
+      <c r="K74" s="10"/>
+      <c r="L74" s="10"/>
+      <c r="M74" s="10"/>
+      <c r="N74" s="10"/>
+      <c r="O74" s="10"/>
+      <c r="P74" s="10"/>
+      <c r="Q74" s="10"/>
+      <c r="R74" s="10"/>
+      <c r="S74" s="10"/>
+      <c r="T74" s="10"/>
+      <c r="U74" s="10"/>
+      <c r="V74" s="13"/>
+      <c r="W74" s="13"/>
+      <c r="X74" s="13"/>
+      <c r="Y74" s="13"/>
+      <c r="Z74" s="13"/>
+      <c r="AA74" s="13"/>
+      <c r="AB74" s="13"/>
+      <c r="AC74" s="13"/>
+      <c r="AD74" s="13"/>
+      <c r="AE74" s="13"/>
+      <c r="AF74" s="13"/>
+      <c r="AG74" s="13"/>
+      <c r="AH74" s="13"/>
+      <c r="AJ74" s="13"/>
+      <c r="AK74" s="13"/>
+      <c r="AL74" s="13"/>
+      <c r="AM74" s="13"/>
+      <c r="AN74" s="13"/>
+      <c r="AO74" s="13"/>
+      <c r="AP74" s="13"/>
+      <c r="AQ74" s="13"/>
+      <c r="AR74" s="13"/>
+      <c r="AS74" s="13"/>
+      <c r="AT74" s="13"/>
+      <c r="AU74" s="13"/>
+      <c r="AV74" s="13"/>
+      <c r="AW74" s="13"/>
+      <c r="AX74" s="13"/>
+      <c r="AY74" s="13"/>
+      <c r="AZ74" s="13"/>
+      <c r="BA74" s="13"/>
+      <c r="CK74" s="13"/>
+      <c r="CL74" s="13"/>
+      <c r="CM74" s="13"/>
+      <c r="CN74" s="13"/>
+      <c r="CO74" s="13"/>
+      <c r="CP74" s="12"/>
+      <c r="CQ74" s="12"/>
+      <c r="CR74" s="12"/>
+      <c r="CS74" s="12"/>
+      <c r="CT74" s="12"/>
+      <c r="CU74" s="12"/>
+      <c r="CV74" s="12"/>
+      <c r="CW74" s="12"/>
+      <c r="CX74" s="12"/>
+      <c r="CY74" s="12"/>
+      <c r="CZ74" s="12"/>
+      <c r="DA74" s="12"/>
+      <c r="DB74" s="12"/>
+      <c r="DC74" s="12"/>
+      <c r="DD74" s="12"/>
+      <c r="DE74" s="12"/>
+      <c r="DF74" s="13"/>
+      <c r="DG74" s="13"/>
+      <c r="DH74" s="13"/>
+      <c r="DI74" s="13"/>
+      <c r="DJ74" s="13"/>
+      <c r="DK74" s="13"/>
+      <c r="DL74" s="13"/>
+      <c r="DM74" s="13"/>
+      <c r="DN74" s="13"/>
+      <c r="DO74" s="13"/>
+      <c r="DP74" s="13"/>
+      <c r="DQ74" s="13"/>
+      <c r="DR74" s="13"/>
+      <c r="DS74" s="13"/>
+      <c r="DT74" s="13"/>
+      <c r="DU74" s="13"/>
+      <c r="DV74" s="13"/>
+      <c r="DW74" s="13"/>
+      <c r="DX74" s="13"/>
+      <c r="DY74" s="13"/>
+      <c r="DZ74" s="13"/>
+      <c r="EA74" s="13"/>
+      <c r="EB74" s="13"/>
+      <c r="EC74" s="13"/>
+      <c r="ED74" s="13"/>
+      <c r="EE74" s="13"/>
+      <c r="EF74" s="13"/>
+      <c r="EG74" s="13"/>
+      <c r="EH74" s="12"/>
+      <c r="EI74" s="12"/>
+      <c r="EJ74" s="12"/>
+      <c r="EK74" s="12"/>
+      <c r="EL74" s="12"/>
+      <c r="EM74" s="12"/>
+      <c r="EN74" s="12"/>
+      <c r="EO74" s="12"/>
+      <c r="EP74" s="13"/>
+      <c r="EQ74" s="13"/>
+      <c r="ER74" s="13"/>
+      <c r="ES74" s="13"/>
+      <c r="ET74" s="13"/>
+      <c r="EU74" s="13"/>
+      <c r="EV74" s="13"/>
+      <c r="EW74" s="13"/>
+      <c r="EX74" s="13"/>
+      <c r="EY74" s="13"/>
+      <c r="EZ74" s="13"/>
+      <c r="FA74" s="13"/>
+      <c r="FB74" s="13"/>
+      <c r="FC74" s="13"/>
+      <c r="FD74" s="13"/>
+      <c r="FE74" s="13"/>
+      <c r="FF74" s="13"/>
+      <c r="FG74" s="13"/>
+      <c r="FH74" s="13"/>
+      <c r="FI74" s="13"/>
+      <c r="FJ74" s="13"/>
+      <c r="FK74" s="13"/>
+      <c r="FL74" s="10"/>
+      <c r="FM74" s="10"/>
+      <c r="FN74" s="10"/>
+      <c r="FO74" s="10"/>
+      <c r="FP74" s="10"/>
+      <c r="FQ74" s="10"/>
+      <c r="FR74" s="10"/>
+      <c r="FS74" s="10"/>
+      <c r="FT74" s="10"/>
+      <c r="FU74" s="10"/>
+      <c r="FV74" s="10"/>
+      <c r="FW74" s="10"/>
+      <c r="FX74" s="10"/>
+      <c r="FY74" s="10"/>
+      <c r="FZ74" s="10"/>
+      <c r="GA74" s="10"/>
+      <c r="GB74" s="10"/>
+      <c r="GC74" s="10"/>
+      <c r="GD74" s="10"/>
+      <c r="GE74" s="10"/>
+      <c r="GF74" s="10"/>
+      <c r="GG74" s="10"/>
+      <c r="GH74" s="10"/>
+      <c r="GI74" s="10"/>
+      <c r="GJ74" s="10"/>
+      <c r="GK74" s="10"/>
+      <c r="GL74" s="10"/>
+      <c r="GM74" s="10"/>
+      <c r="GN74" s="10"/>
+      <c r="GO74" s="10"/>
+      <c r="GP74" s="10"/>
+      <c r="GQ74" s="10"/>
+      <c r="GR74" s="14"/>
+      <c r="GS74" s="14"/>
+      <c r="GT74" s="14"/>
+      <c r="GU74" s="14"/>
+      <c r="GV74" s="14"/>
+      <c r="GW74" s="14"/>
+      <c r="GX74" s="14"/>
+      <c r="GY74" s="14"/>
+      <c r="GZ74" s="14"/>
+      <c r="HA74" s="14"/>
+      <c r="HB74" s="14"/>
+      <c r="HC74" s="14"/>
+      <c r="HD74" s="14"/>
+      <c r="HE74" s="14"/>
+      <c r="HF74" s="14"/>
+      <c r="HG74" s="14"/>
+      <c r="HH74" s="10"/>
+      <c r="HI74" s="10"/>
+      <c r="HJ74" s="10"/>
+      <c r="HK74" s="10"/>
+      <c r="HL74" s="10"/>
+      <c r="HM74" s="10"/>
+      <c r="HN74" s="10"/>
+      <c r="HO74" s="10"/>
+      <c r="HP74" s="10"/>
+      <c r="HQ74" s="10"/>
+      <c r="HR74" s="10"/>
+      <c r="HS74" s="10"/>
+      <c r="HT74" s="10"/>
+      <c r="HU74" s="10"/>
+      <c r="HV74" s="10"/>
+      <c r="HW74" s="10"/>
+      <c r="HX74" s="10"/>
+      <c r="HY74" s="10"/>
+      <c r="HZ74" s="10"/>
+      <c r="IA74" s="10"/>
+      <c r="IB74" s="10"/>
+      <c r="IC74" s="10"/>
+      <c r="ID74" s="14"/>
+      <c r="IE74" s="14"/>
+      <c r="IF74" s="14"/>
+      <c r="IG74" s="14"/>
+      <c r="IH74" s="14"/>
+      <c r="II74" s="14"/>
+      <c r="IJ74" s="14"/>
+      <c r="IK74" s="14"/>
+      <c r="IL74" s="14"/>
+      <c r="IM74" s="14"/>
+      <c r="IN74" s="14"/>
+    </row>
+    <row r="75" spans="1:248" x14ac:dyDescent="0.2">
+      <c r="A75" s="64" t="s">
+        <v>2908</v>
+      </c>
+      <c r="B75" s="17" t="s">
+        <v>2911</v>
+      </c>
+      <c r="C75" s="129" t="s">
+        <v>206</v>
+      </c>
+      <c r="D75" s="129" t="s">
+        <v>237</v>
+      </c>
+      <c r="E75" s="144"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="10"/>
+      <c r="J75" s="10"/>
+      <c r="K75" s="10"/>
+      <c r="L75" s="10"/>
+      <c r="M75" s="10"/>
+      <c r="N75" s="10"/>
+      <c r="O75" s="10"/>
+      <c r="P75" s="10"/>
+      <c r="Q75" s="10"/>
+      <c r="R75" s="10"/>
+      <c r="S75" s="10"/>
+      <c r="T75" s="10"/>
+      <c r="U75" s="10"/>
+      <c r="V75" s="13"/>
+      <c r="W75" s="13"/>
+      <c r="X75" s="13"/>
+      <c r="Y75" s="13"/>
+      <c r="Z75" s="13"/>
+      <c r="AA75" s="13"/>
+      <c r="AB75" s="13"/>
+      <c r="AC75" s="13"/>
+      <c r="AD75" s="13"/>
+      <c r="AE75" s="13"/>
+      <c r="AF75" s="13"/>
+      <c r="AG75" s="13"/>
+      <c r="AH75" s="13"/>
+      <c r="AJ75" s="13"/>
+      <c r="AK75" s="13"/>
+      <c r="AL75" s="13"/>
+      <c r="AM75" s="13"/>
+      <c r="AN75" s="13"/>
+      <c r="AO75" s="13"/>
+      <c r="AP75" s="13"/>
+      <c r="AQ75" s="13"/>
+      <c r="AR75" s="13"/>
+      <c r="AS75" s="13"/>
+      <c r="AT75" s="13"/>
+      <c r="AU75" s="13"/>
+      <c r="AV75" s="13"/>
+      <c r="AW75" s="13"/>
+      <c r="AX75" s="13"/>
+      <c r="AY75" s="13"/>
+      <c r="AZ75" s="13"/>
+      <c r="BA75" s="13"/>
+      <c r="CK75" s="13"/>
+      <c r="CL75" s="13"/>
+      <c r="CM75" s="13"/>
+      <c r="CN75" s="13"/>
+      <c r="CO75" s="13"/>
+      <c r="CP75" s="12"/>
+      <c r="CQ75" s="12"/>
+      <c r="CR75" s="12"/>
+      <c r="CS75" s="12"/>
+      <c r="CT75" s="12"/>
+      <c r="CU75" s="12"/>
+      <c r="CV75" s="12"/>
+      <c r="CW75" s="12"/>
+      <c r="CX75" s="12"/>
+      <c r="CY75" s="12"/>
+      <c r="CZ75" s="12"/>
+      <c r="DA75" s="12"/>
+      <c r="DB75" s="12"/>
+      <c r="DC75" s="12"/>
+      <c r="DD75" s="12"/>
+      <c r="DE75" s="12"/>
+      <c r="DF75" s="13"/>
+      <c r="DG75" s="13"/>
+      <c r="DH75" s="13"/>
+      <c r="DI75" s="13"/>
+      <c r="DJ75" s="13"/>
+      <c r="DK75" s="13"/>
+      <c r="DL75" s="13"/>
+      <c r="DM75" s="13"/>
+      <c r="DN75" s="13"/>
+      <c r="DO75" s="13"/>
+      <c r="DP75" s="13"/>
+      <c r="DQ75" s="13"/>
+      <c r="DR75" s="13"/>
+      <c r="DS75" s="13"/>
+      <c r="DT75" s="13"/>
+      <c r="DU75" s="13"/>
+      <c r="DV75" s="13"/>
+      <c r="DW75" s="13"/>
+      <c r="DX75" s="13"/>
+      <c r="DY75" s="13"/>
+      <c r="DZ75" s="13"/>
+      <c r="EA75" s="13"/>
+      <c r="EB75" s="13"/>
+      <c r="EC75" s="13"/>
+      <c r="ED75" s="13"/>
+      <c r="EE75" s="13"/>
+      <c r="EF75" s="13"/>
+      <c r="EG75" s="13"/>
+      <c r="EH75" s="12"/>
+      <c r="EI75" s="12"/>
+      <c r="EJ75" s="12"/>
+      <c r="EK75" s="12"/>
+      <c r="EL75" s="12"/>
+      <c r="EM75" s="12"/>
+      <c r="EN75" s="12"/>
+      <c r="EO75" s="12"/>
+      <c r="EP75" s="13"/>
+      <c r="EQ75" s="13"/>
+      <c r="ER75" s="13"/>
+      <c r="ES75" s="13"/>
+      <c r="ET75" s="13"/>
+      <c r="EU75" s="13"/>
+      <c r="EV75" s="13"/>
+      <c r="EW75" s="13"/>
+      <c r="EX75" s="13"/>
+      <c r="EY75" s="13"/>
+      <c r="EZ75" s="13"/>
+      <c r="FA75" s="13"/>
+      <c r="FB75" s="13"/>
+      <c r="FC75" s="13"/>
+      <c r="FD75" s="13"/>
+      <c r="FE75" s="13"/>
+      <c r="FF75" s="13"/>
+      <c r="FG75" s="13"/>
+      <c r="FH75" s="13"/>
+      <c r="FI75" s="13"/>
+      <c r="FJ75" s="13"/>
+      <c r="FK75" s="13"/>
+      <c r="FL75" s="10"/>
+      <c r="FM75" s="10"/>
+      <c r="FN75" s="10"/>
+      <c r="FO75" s="10"/>
+      <c r="FP75" s="10"/>
+      <c r="FQ75" s="10"/>
+      <c r="FR75" s="10"/>
+      <c r="FS75" s="10"/>
+      <c r="FT75" s="10"/>
+      <c r="FU75" s="10"/>
+      <c r="FV75" s="10"/>
+      <c r="FW75" s="10"/>
+      <c r="FX75" s="10"/>
+      <c r="FY75" s="10"/>
+      <c r="FZ75" s="10"/>
+      <c r="GA75" s="10"/>
+      <c r="GB75" s="10"/>
+      <c r="GC75" s="10"/>
+      <c r="GD75" s="10"/>
+      <c r="GE75" s="10"/>
+      <c r="GF75" s="10"/>
+      <c r="GG75" s="10"/>
+      <c r="GH75" s="10"/>
+      <c r="GI75" s="10"/>
+      <c r="GJ75" s="10"/>
+      <c r="GK75" s="10"/>
+      <c r="GL75" s="10"/>
+      <c r="GM75" s="10"/>
+      <c r="GN75" s="10"/>
+      <c r="GO75" s="10"/>
+      <c r="GP75" s="10"/>
+      <c r="GQ75" s="10"/>
+      <c r="GR75" s="14"/>
+      <c r="GS75" s="14"/>
+      <c r="GT75" s="14"/>
+      <c r="GU75" s="14"/>
+      <c r="GV75" s="14"/>
+      <c r="GW75" s="14"/>
+      <c r="GX75" s="14"/>
+      <c r="GY75" s="14"/>
+      <c r="GZ75" s="14"/>
+      <c r="HA75" s="14"/>
+      <c r="HB75" s="14"/>
+      <c r="HC75" s="14"/>
+      <c r="HD75" s="14"/>
+      <c r="HE75" s="14"/>
+      <c r="HF75" s="14"/>
+      <c r="HG75" s="14"/>
+      <c r="HH75" s="10"/>
+      <c r="HI75" s="10"/>
+      <c r="HJ75" s="10"/>
+      <c r="HK75" s="10"/>
+      <c r="HL75" s="10"/>
+      <c r="HM75" s="10"/>
+      <c r="HN75" s="10"/>
+      <c r="HO75" s="10"/>
+      <c r="HP75" s="10"/>
+      <c r="HQ75" s="10"/>
+      <c r="HR75" s="10"/>
+      <c r="HS75" s="10"/>
+      <c r="HT75" s="10"/>
+      <c r="HU75" s="10"/>
+      <c r="HV75" s="10"/>
+      <c r="HW75" s="10"/>
+      <c r="HX75" s="10"/>
+      <c r="HY75" s="10"/>
+      <c r="HZ75" s="10"/>
+      <c r="IA75" s="10"/>
+      <c r="IB75" s="10"/>
+      <c r="IC75" s="10"/>
+      <c r="ID75" s="14"/>
+      <c r="IE75" s="14"/>
+      <c r="IF75" s="14"/>
+      <c r="IG75" s="14"/>
+      <c r="IH75" s="14"/>
+      <c r="II75" s="14"/>
+      <c r="IJ75" s="14"/>
+      <c r="IK75" s="14"/>
+      <c r="IL75" s="14"/>
+      <c r="IM75" s="14"/>
+      <c r="IN75" s="14"/>
+    </row>
+    <row r="76" spans="1:248" x14ac:dyDescent="0.2">
+      <c r="A76" s="64" t="s">
+        <v>2909</v>
+      </c>
+      <c r="B76" s="17" t="s">
+        <v>2912</v>
+      </c>
+      <c r="C76" s="129" t="s">
+        <v>206</v>
+      </c>
+      <c r="D76" s="129" t="s">
+        <v>237</v>
+      </c>
+      <c r="E76" s="144"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="10"/>
+      <c r="J76" s="10"/>
+      <c r="K76" s="10"/>
+      <c r="L76" s="10"/>
+      <c r="M76" s="10"/>
+      <c r="N76" s="10"/>
+      <c r="O76" s="10"/>
+      <c r="P76" s="10"/>
+      <c r="Q76" s="10"/>
+      <c r="R76" s="10"/>
+      <c r="S76" s="10"/>
+      <c r="T76" s="10"/>
+      <c r="U76" s="10"/>
+      <c r="V76" s="13"/>
+      <c r="W76" s="13"/>
+      <c r="X76" s="13"/>
+      <c r="Y76" s="13"/>
+      <c r="Z76" s="13"/>
+      <c r="AA76" s="13"/>
+      <c r="AB76" s="13"/>
+      <c r="AC76" s="13"/>
+      <c r="AD76" s="13"/>
+      <c r="AE76" s="13"/>
+      <c r="AF76" s="13"/>
+      <c r="AG76" s="13"/>
+      <c r="AH76" s="13"/>
+      <c r="AJ76" s="13"/>
+      <c r="AK76" s="13"/>
+      <c r="AL76" s="13"/>
+      <c r="AM76" s="13"/>
+      <c r="AN76" s="13"/>
+      <c r="AO76" s="13"/>
+      <c r="AP76" s="13"/>
+      <c r="AQ76" s="13"/>
+      <c r="AR76" s="13"/>
+      <c r="AS76" s="13"/>
+      <c r="AT76" s="13"/>
+      <c r="AU76" s="13"/>
+      <c r="AV76" s="13"/>
+      <c r="AW76" s="13"/>
+      <c r="AX76" s="13"/>
+      <c r="AY76" s="13"/>
+      <c r="AZ76" s="13"/>
+      <c r="BA76" s="13"/>
+      <c r="CK76" s="13"/>
+      <c r="CL76" s="13"/>
+      <c r="CM76" s="13"/>
+      <c r="CN76" s="13"/>
+      <c r="CO76" s="13"/>
+      <c r="CP76" s="12"/>
+      <c r="CQ76" s="12"/>
+      <c r="CR76" s="12"/>
+      <c r="CS76" s="12"/>
+      <c r="CT76" s="12"/>
+      <c r="CU76" s="12"/>
+      <c r="CV76" s="12"/>
+      <c r="CW76" s="12"/>
+      <c r="CX76" s="12"/>
+      <c r="CY76" s="12"/>
+      <c r="CZ76" s="12"/>
+      <c r="DA76" s="12"/>
+      <c r="DB76" s="12"/>
+      <c r="DC76" s="12"/>
+      <c r="DD76" s="12"/>
+      <c r="DE76" s="12"/>
+      <c r="DF76" s="13"/>
+      <c r="DG76" s="13"/>
+      <c r="DH76" s="13"/>
+      <c r="DI76" s="13"/>
+      <c r="DJ76" s="13"/>
+      <c r="DK76" s="13"/>
+      <c r="DL76" s="13"/>
+      <c r="DM76" s="13"/>
+      <c r="DN76" s="13"/>
+      <c r="DO76" s="13"/>
+      <c r="DP76" s="13"/>
+      <c r="DQ76" s="13"/>
+      <c r="DR76" s="13"/>
+      <c r="DS76" s="13"/>
+      <c r="DT76" s="13"/>
+      <c r="DU76" s="13"/>
+      <c r="DV76" s="13"/>
+      <c r="DW76" s="13"/>
+      <c r="DX76" s="13"/>
+      <c r="DY76" s="13"/>
+      <c r="DZ76" s="13"/>
+      <c r="EA76" s="13"/>
+      <c r="EB76" s="13"/>
+      <c r="EC76" s="13"/>
+      <c r="ED76" s="13"/>
+      <c r="EE76" s="13"/>
+      <c r="EF76" s="13"/>
+      <c r="EG76" s="13"/>
+      <c r="EH76" s="12"/>
+      <c r="EI76" s="12"/>
+      <c r="EJ76" s="12"/>
+      <c r="EK76" s="12"/>
+      <c r="EL76" s="12"/>
+      <c r="EM76" s="12"/>
+      <c r="EN76" s="12"/>
+      <c r="EO76" s="12"/>
+      <c r="EP76" s="13"/>
+      <c r="EQ76" s="13"/>
+      <c r="ER76" s="13"/>
+      <c r="ES76" s="13"/>
+      <c r="ET76" s="13"/>
+      <c r="EU76" s="13"/>
+      <c r="EV76" s="13"/>
+      <c r="EW76" s="13"/>
+      <c r="EX76" s="13"/>
+      <c r="EY76" s="13"/>
+      <c r="EZ76" s="13"/>
+      <c r="FA76" s="13"/>
+      <c r="FB76" s="13"/>
+      <c r="FC76" s="13"/>
+      <c r="FD76" s="13"/>
+      <c r="FE76" s="13"/>
+      <c r="FF76" s="13"/>
+      <c r="FG76" s="13"/>
+      <c r="FH76" s="13"/>
+      <c r="FI76" s="13"/>
+      <c r="FJ76" s="13"/>
+      <c r="FK76" s="13"/>
+      <c r="FL76" s="10"/>
+      <c r="FM76" s="10"/>
+      <c r="FN76" s="10"/>
+      <c r="FO76" s="10"/>
+      <c r="FP76" s="10"/>
+      <c r="FQ76" s="10"/>
+      <c r="FR76" s="10"/>
+      <c r="FS76" s="10"/>
+      <c r="FT76" s="10"/>
+      <c r="FU76" s="10"/>
+      <c r="FV76" s="10"/>
+      <c r="FW76" s="10"/>
+      <c r="FX76" s="10"/>
+      <c r="FY76" s="10"/>
+      <c r="FZ76" s="10"/>
+      <c r="GA76" s="10"/>
+      <c r="GB76" s="10"/>
+      <c r="GC76" s="10"/>
+      <c r="GD76" s="10"/>
+      <c r="GE76" s="10"/>
+      <c r="GF76" s="10"/>
+      <c r="GG76" s="10"/>
+      <c r="GH76" s="10"/>
+      <c r="GI76" s="10"/>
+      <c r="GJ76" s="10"/>
+      <c r="GK76" s="10"/>
+      <c r="GL76" s="10"/>
+      <c r="GM76" s="10"/>
+      <c r="GN76" s="10"/>
+      <c r="GO76" s="10"/>
+      <c r="GP76" s="10"/>
+      <c r="GQ76" s="10"/>
+      <c r="GR76" s="14"/>
+      <c r="GS76" s="14"/>
+      <c r="GT76" s="14"/>
+      <c r="GU76" s="14"/>
+      <c r="GV76" s="14"/>
+      <c r="GW76" s="14"/>
+      <c r="GX76" s="14"/>
+      <c r="GY76" s="14"/>
+      <c r="GZ76" s="14"/>
+      <c r="HA76" s="14"/>
+      <c r="HB76" s="14"/>
+      <c r="HC76" s="14"/>
+      <c r="HD76" s="14"/>
+      <c r="HE76" s="14"/>
+      <c r="HF76" s="14"/>
+      <c r="HG76" s="14"/>
+      <c r="HH76" s="10"/>
+      <c r="HI76" s="10"/>
+      <c r="HJ76" s="10"/>
+      <c r="HK76" s="10"/>
+      <c r="HL76" s="10"/>
+      <c r="HM76" s="10"/>
+      <c r="HN76" s="10"/>
+      <c r="HO76" s="10"/>
+      <c r="HP76" s="10"/>
+      <c r="HQ76" s="10"/>
+      <c r="HR76" s="10"/>
+      <c r="HS76" s="10"/>
+      <c r="HT76" s="10"/>
+      <c r="HU76" s="10"/>
+      <c r="HV76" s="10"/>
+      <c r="HW76" s="10"/>
+      <c r="HX76" s="10"/>
+      <c r="HY76" s="10"/>
+      <c r="HZ76" s="10"/>
+      <c r="IA76" s="10"/>
+      <c r="IB76" s="10"/>
+      <c r="IC76" s="10"/>
+      <c r="ID76" s="14"/>
+      <c r="IE76" s="14"/>
+      <c r="IF76" s="14"/>
+      <c r="IG76" s="14"/>
+      <c r="IH76" s="14"/>
+      <c r="II76" s="14"/>
+      <c r="IJ76" s="14"/>
+      <c r="IK76" s="14"/>
+      <c r="IL76" s="14"/>
+      <c r="IM76" s="14"/>
+      <c r="IN76" s="14"/>
+    </row>
+    <row r="77" spans="1:248" x14ac:dyDescent="0.2">
+      <c r="A77" s="64" t="s">
+        <v>244</v>
+      </c>
+      <c r="B77" s="65" t="s">
+        <v>245</v>
+      </c>
+      <c r="C77" s="129" t="s">
+        <v>206</v>
+      </c>
+      <c r="D77" s="129" t="s">
+        <v>237</v>
+      </c>
+      <c r="E77" s="144"/>
+    </row>
+    <row r="78" spans="1:248" x14ac:dyDescent="0.2">
+      <c r="A78" s="66" t="s">
         <v>246</v>
       </c>
-      <c r="B75" s="67" t="s">
+      <c r="B78" s="67" t="s">
         <v>247</v>
       </c>
-      <c r="C75" s="149" t="s">
+      <c r="C78" s="149" t="s">
         <v>202</v>
       </c>
-      <c r="D75" s="149" t="s">
-        <v>203</v>
-      </c>
-      <c r="E75" s="144"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="66" t="s">
+      <c r="D78" s="149" t="s">
+        <v>203</v>
+      </c>
+      <c r="E78" s="144"/>
+    </row>
+    <row r="79" spans="1:248" x14ac:dyDescent="0.2">
+      <c r="A79" s="66" t="s">
         <v>248</v>
       </c>
-      <c r="B76" s="67" t="s">
+      <c r="B79" s="67" t="s">
         <v>249</v>
       </c>
-      <c r="C76" s="149" t="s">
-        <v>206</v>
-      </c>
-      <c r="D76" s="149" t="s">
-        <v>203</v>
-      </c>
-      <c r="E76" s="144" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="66" t="s">
+      <c r="C79" s="149" t="s">
+        <v>206</v>
+      </c>
+      <c r="D79" s="149" t="s">
+        <v>203</v>
+      </c>
+      <c r="E79" s="144" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="80" spans="1:248" x14ac:dyDescent="0.2">
+      <c r="A80" s="66" t="s">
         <v>250</v>
       </c>
-      <c r="B77" s="67" t="s">
+      <c r="B80" s="67" t="s">
         <v>251</v>
       </c>
-      <c r="C77" s="149" t="s">
+      <c r="C80" s="149" t="s">
         <v>202</v>
       </c>
-      <c r="D77" s="149" t="s">
-        <v>203</v>
-      </c>
-      <c r="E77" s="144"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="66" t="s">
-        <v>252</v>
-      </c>
-      <c r="B78" s="67" t="s">
-        <v>253</v>
-      </c>
-      <c r="C78" s="149" t="s">
-        <v>206</v>
-      </c>
-      <c r="D78" s="149" t="s">
-        <v>203</v>
-      </c>
-      <c r="E78" s="144" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" s="66" t="s">
-        <v>254</v>
-      </c>
-      <c r="B79" s="67" t="s">
-        <v>255</v>
-      </c>
-      <c r="C79" s="149" t="s">
-        <v>202</v>
-      </c>
-      <c r="D79" s="149" t="s">
-        <v>203</v>
-      </c>
-      <c r="E79" s="144"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" s="66" t="s">
-        <v>256</v>
-      </c>
-      <c r="B80" s="67" t="s">
-        <v>257</v>
-      </c>
-      <c r="C80" s="149" t="s">
-        <v>206</v>
-      </c>
       <c r="D80" s="149" t="s">
         <v>203</v>
       </c>
-      <c r="E80" s="144" t="s">
-        <v>179</v>
-      </c>
+      <c r="E80" s="144"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="66" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B81" s="67" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C81" s="149" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D81" s="149" t="s">
         <v>203</v>
       </c>
-      <c r="E81" s="144"/>
+      <c r="E81" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="66" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B82" s="67" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C82" s="149" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D82" s="149" t="s">
         <v>203</v>
       </c>
-      <c r="E82" s="144" t="s">
-        <v>179</v>
-      </c>
+      <c r="E82" s="144"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="66" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B83" s="67" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C83" s="149" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D83" s="149" t="s">
         <v>203</v>
       </c>
-      <c r="E83" s="144"/>
+      <c r="E83" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="66" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B84" s="67" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C84" s="149" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D84" s="149" t="s">
         <v>203</v>
       </c>
-      <c r="E84" s="144" t="s">
-        <v>179</v>
-      </c>
+      <c r="E84" s="144"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="66" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B85" s="67" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C85" s="149" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D85" s="149" t="s">
         <v>203</v>
       </c>
-      <c r="E85" s="144"/>
+      <c r="E85" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="66" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B86" s="67" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C86" s="149" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D86" s="149" t="s">
         <v>203</v>
       </c>
-      <c r="E86" s="144" t="s">
-        <v>179</v>
-      </c>
+      <c r="E86" s="144"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="66" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B87" s="67" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C87" s="149" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D87" s="149" t="s">
         <v>203</v>
       </c>
-      <c r="E87" s="144"/>
+      <c r="E87" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="66" t="s">
+        <v>266</v>
+      </c>
+      <c r="B88" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="C88" s="149" t="s">
+        <v>202</v>
+      </c>
+      <c r="D88" s="149" t="s">
+        <v>203</v>
+      </c>
+      <c r="E88" s="144"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="66" t="s">
+        <v>268</v>
+      </c>
+      <c r="B89" s="67" t="s">
+        <v>269</v>
+      </c>
+      <c r="C89" s="149" t="s">
+        <v>206</v>
+      </c>
+      <c r="D89" s="149" t="s">
+        <v>203</v>
+      </c>
+      <c r="E89" s="144" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="66" t="s">
+        <v>270</v>
+      </c>
+      <c r="B90" s="67" t="s">
+        <v>271</v>
+      </c>
+      <c r="C90" s="149" t="s">
+        <v>202</v>
+      </c>
+      <c r="D90" s="149" t="s">
+        <v>203</v>
+      </c>
+      <c r="E90" s="144"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="66" t="s">
         <v>272</v>
       </c>
-      <c r="B88" s="67" t="s">
+      <c r="B91" s="67" t="s">
         <v>273</v>
       </c>
-      <c r="C88" s="149" t="s">
-        <v>206</v>
-      </c>
-      <c r="D88" s="149" t="s">
-        <v>203</v>
-      </c>
-      <c r="E88" s="144" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89" s="68" t="s">
+      <c r="C91" s="149" t="s">
+        <v>206</v>
+      </c>
+      <c r="D91" s="149" t="s">
+        <v>203</v>
+      </c>
+      <c r="E91" s="144" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="68" t="s">
         <v>274</v>
       </c>
-      <c r="B89" s="69" t="s">
+      <c r="B92" s="69" t="s">
         <v>275</v>
       </c>
-      <c r="C89" s="149" t="s">
+      <c r="C92" s="149" t="s">
         <v>202</v>
       </c>
-      <c r="D89" s="149" t="s">
-        <v>203</v>
-      </c>
-      <c r="E89" s="144"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" s="68" t="s">
+      <c r="D92" s="149" t="s">
+        <v>203</v>
+      </c>
+      <c r="E92" s="144"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="68" t="s">
         <v>276</v>
       </c>
-      <c r="B90" s="69" t="s">
+      <c r="B93" s="69" t="s">
         <v>277</v>
       </c>
-      <c r="C90" s="149" t="s">
-        <v>206</v>
-      </c>
-      <c r="D90" s="149" t="s">
-        <v>203</v>
-      </c>
-      <c r="E90" s="144" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" s="38" t="s">
-        <v>278</v>
-      </c>
-      <c r="B91" s="70" t="s">
-        <v>279</v>
-      </c>
-      <c r="C91" s="130" t="s">
-        <v>40</v>
-      </c>
-      <c r="D91" s="130" t="s">
-        <v>41</v>
-      </c>
-      <c r="E91" s="144"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92" s="38" t="s">
-        <v>280</v>
-      </c>
-      <c r="B92" s="70" t="s">
-        <v>281</v>
-      </c>
-      <c r="C92" s="130" t="s">
-        <v>40</v>
-      </c>
-      <c r="D92" s="130" t="s">
-        <v>41</v>
-      </c>
-      <c r="E92" s="144"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" s="38" t="s">
-        <v>282</v>
-      </c>
-      <c r="B93" s="70" t="s">
-        <v>283</v>
-      </c>
-      <c r="C93" s="130" t="s">
-        <v>40</v>
-      </c>
-      <c r="D93" s="130" t="s">
-        <v>41</v>
-      </c>
-      <c r="E93" s="144"/>
+      <c r="C93" s="149" t="s">
+        <v>206</v>
+      </c>
+      <c r="D93" s="149" t="s">
+        <v>203</v>
+      </c>
+      <c r="E93" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="38" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B94" s="70" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C94" s="130" t="s">
         <v>40</v>
@@ -11775,58 +12414,58 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="38" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B95" s="70" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C95" s="130" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D95" s="130" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E95" s="144"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="38" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B96" s="70" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C96" s="130" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D96" s="130" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E96" s="144"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="38" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B97" s="70" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C97" s="130" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D97" s="130" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E97" s="144"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="38" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B98" s="70" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C98" s="130" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D98" s="130" t="s">
         <v>51</v>
@@ -11835,88 +12474,100 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="38" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B99" s="70" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C99" s="130" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D99" s="130" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="E99" s="144"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="38" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B100" s="70" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C100" s="130" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D100" s="130" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="E100" s="144"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="38" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B101" s="70" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C101" s="130" t="s">
         <v>34</v>
       </c>
       <c r="D101" s="130" t="s">
+        <v>51</v>
+      </c>
+      <c r="E101" s="144"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="38" t="s">
+        <v>294</v>
+      </c>
+      <c r="B102" s="70" t="s">
+        <v>295</v>
+      </c>
+      <c r="C102" s="130" t="s">
+        <v>34</v>
+      </c>
+      <c r="D102" s="130" t="s">
         <v>35</v>
       </c>
-      <c r="E101" s="144"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A102" s="40" t="s">
-        <v>300</v>
-      </c>
-      <c r="B102" s="71" t="s">
-        <v>301</v>
-      </c>
-      <c r="C102" s="130"/>
-      <c r="D102" s="130"/>
       <c r="E102" s="144"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103" s="40" t="s">
-        <v>302</v>
-      </c>
-      <c r="B103" s="71" t="s">
-        <v>303</v>
-      </c>
-      <c r="C103" s="130"/>
-      <c r="D103" s="130"/>
+      <c r="A103" s="38" t="s">
+        <v>296</v>
+      </c>
+      <c r="B103" s="70" t="s">
+        <v>297</v>
+      </c>
+      <c r="C103" s="130" t="s">
+        <v>34</v>
+      </c>
+      <c r="D103" s="130" t="s">
+        <v>35</v>
+      </c>
       <c r="E103" s="144"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A104" s="40" t="s">
-        <v>304</v>
-      </c>
-      <c r="B104" s="71" t="s">
-        <v>305</v>
-      </c>
-      <c r="C104" s="130"/>
-      <c r="D104" s="130"/>
+      <c r="A104" s="38" t="s">
+        <v>298</v>
+      </c>
+      <c r="B104" s="70" t="s">
+        <v>299</v>
+      </c>
+      <c r="C104" s="130" t="s">
+        <v>34</v>
+      </c>
+      <c r="D104" s="130" t="s">
+        <v>35</v>
+      </c>
       <c r="E104" s="144"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="40" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B105" s="71" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C105" s="130"/>
       <c r="D105" s="130"/>
@@ -11924,10 +12575,10 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="40" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B106" s="71" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C106" s="130"/>
       <c r="D106" s="130"/>
@@ -11935,10 +12586,10 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="40" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B107" s="71" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C107" s="130"/>
       <c r="D107" s="130"/>
@@ -11946,10 +12597,10 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="40" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B108" s="71" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C108" s="130"/>
       <c r="D108" s="130"/>
@@ -11957,10 +12608,10 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="40" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B109" s="71" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C109" s="130"/>
       <c r="D109" s="130"/>
@@ -11968,66 +12619,54 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="40" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B110" s="71" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C110" s="130"/>
       <c r="D110" s="130"/>
       <c r="E110" s="144"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A111" s="72" t="s">
-        <v>318</v>
-      </c>
-      <c r="B111" s="73" t="s">
-        <v>319</v>
-      </c>
-      <c r="C111" s="131" t="s">
-        <v>40</v>
-      </c>
-      <c r="D111" s="131" t="s">
-        <v>41</v>
-      </c>
+      <c r="A111" s="40" t="s">
+        <v>312</v>
+      </c>
+      <c r="B111" s="71" t="s">
+        <v>313</v>
+      </c>
+      <c r="C111" s="130"/>
+      <c r="D111" s="130"/>
       <c r="E111" s="144"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A112" s="72" t="s">
-        <v>320</v>
-      </c>
-      <c r="B112" s="73" t="s">
-        <v>321</v>
-      </c>
-      <c r="C112" s="131" t="s">
-        <v>40</v>
-      </c>
-      <c r="D112" s="131" t="s">
-        <v>41</v>
-      </c>
+      <c r="A112" s="40" t="s">
+        <v>314</v>
+      </c>
+      <c r="B112" s="71" t="s">
+        <v>315</v>
+      </c>
+      <c r="C112" s="130"/>
+      <c r="D112" s="130"/>
       <c r="E112" s="144"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A113" s="72" t="s">
-        <v>322</v>
-      </c>
-      <c r="B113" s="73" t="s">
-        <v>323</v>
-      </c>
-      <c r="C113" s="131" t="s">
-        <v>40</v>
-      </c>
-      <c r="D113" s="131" t="s">
-        <v>41</v>
-      </c>
+      <c r="A113" s="40" t="s">
+        <v>316</v>
+      </c>
+      <c r="B113" s="71" t="s">
+        <v>317</v>
+      </c>
+      <c r="C113" s="130"/>
+      <c r="D113" s="130"/>
       <c r="E113" s="144"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="72" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B114" s="73" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C114" s="131" t="s">
         <v>40</v>
@@ -12039,115 +12678,115 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="72" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B115" s="73" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C115" s="131" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D115" s="131" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E115" s="144"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="72" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B116" s="73" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C116" s="131" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D116" s="131" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E116" s="144"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="72" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B117" s="73" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C117" s="131" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D117" s="131" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E117" s="144"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="72" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B118" s="73" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C118" s="131" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D118" s="131" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="E118" s="144"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="72" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B119" s="73" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C119" s="131" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D119" s="131" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E119" s="144"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="72" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B120" s="73" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C120" s="131" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D120" s="131" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E120" s="144"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="72" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B121" s="73" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C121" s="131" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D121" s="131" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E121" s="144"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="72" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B122" s="73" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C122" s="131" t="s">
         <v>40</v>
@@ -12159,612 +12798,612 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="72" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B123" s="73" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C123" s="131" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D123" s="131" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E123" s="144"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="72" t="s">
+        <v>338</v>
+      </c>
+      <c r="B124" s="73" t="s">
+        <v>339</v>
+      </c>
+      <c r="C124" s="131" t="s">
+        <v>40</v>
+      </c>
+      <c r="D124" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="E124" s="144"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" s="72" t="s">
+        <v>340</v>
+      </c>
+      <c r="B125" s="73" t="s">
+        <v>341</v>
+      </c>
+      <c r="C125" s="131" t="s">
+        <v>40</v>
+      </c>
+      <c r="D125" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="E125" s="144"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" s="72" t="s">
+        <v>342</v>
+      </c>
+      <c r="B126" s="73" t="s">
+        <v>343</v>
+      </c>
+      <c r="C126" s="131" t="s">
+        <v>50</v>
+      </c>
+      <c r="D126" s="131" t="s">
+        <v>51</v>
+      </c>
+      <c r="E126" s="144"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" s="72" t="s">
         <v>344</v>
       </c>
-      <c r="B124" s="73" t="s">
+      <c r="B127" s="73" t="s">
         <v>345</v>
       </c>
-      <c r="C124" s="131" t="s">
+      <c r="C127" s="131" t="s">
         <v>50</v>
       </c>
-      <c r="D124" s="131" t="s">
+      <c r="D127" s="131" t="s">
         <v>51</v>
       </c>
-      <c r="E124" s="144"/>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A125" s="74" t="s">
+      <c r="E127" s="144"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" s="74" t="s">
         <v>346</v>
       </c>
-      <c r="B125" s="50" t="s">
+      <c r="B128" s="50" t="s">
         <v>347</v>
       </c>
-      <c r="C125" s="122" t="s">
+      <c r="C128" s="122" t="s">
         <v>348</v>
       </c>
-      <c r="D125" s="122" t="s">
+      <c r="D128" s="122" t="s">
         <v>348</v>
-      </c>
-      <c r="E125" s="144"/>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A126" s="75" t="s">
-        <v>349</v>
-      </c>
-      <c r="B126" s="76" t="s">
-        <v>350</v>
-      </c>
-      <c r="C126" s="76" t="s">
-        <v>93</v>
-      </c>
-      <c r="D126" s="76" t="s">
-        <v>93</v>
-      </c>
-      <c r="E126" s="144"/>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A127" s="75" t="s">
-        <v>351</v>
-      </c>
-      <c r="B127" s="76" t="s">
-        <v>352</v>
-      </c>
-      <c r="C127" s="76" t="s">
-        <v>34</v>
-      </c>
-      <c r="D127" s="76" t="s">
-        <v>93</v>
-      </c>
-      <c r="E127" s="144" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A128" s="75" t="s">
-        <v>353</v>
-      </c>
-      <c r="B128" s="76" t="s">
-        <v>354</v>
-      </c>
-      <c r="C128" s="76" t="s">
-        <v>93</v>
-      </c>
-      <c r="D128" s="76" t="s">
-        <v>93</v>
       </c>
       <c r="E128" s="144"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="75" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="B129" s="76" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C129" s="76" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="D129" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="E129" s="144" t="s">
-        <v>179</v>
-      </c>
+      <c r="E129" s="144"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="75" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B130" s="76" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C130" s="76" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="D130" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="E130" s="144"/>
+      <c r="E130" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="75" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B131" s="76" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C131" s="76" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="D131" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="E131" s="144" t="s">
-        <v>179</v>
-      </c>
+      <c r="E131" s="144"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="75" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B132" s="76" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C132" s="76" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="D132" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="E132" s="144"/>
+      <c r="E132" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="75" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B133" s="76" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C133" s="76" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="D133" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="E133" s="144" t="s">
-        <v>179</v>
-      </c>
+      <c r="E133" s="144"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="75" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="B134" s="76" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C134" s="76" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="D134" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="E134" s="144"/>
+      <c r="E134" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="75" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B135" s="76" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C135" s="76" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="D135" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="E135" s="144" t="s">
-        <v>179</v>
-      </c>
+      <c r="E135" s="144"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="75" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="B136" s="76" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="C136" s="76" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="D136" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="E136" s="144"/>
+      <c r="E136" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="75" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B137" s="76" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="C137" s="76" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="D137" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="E137" s="144" t="s">
-        <v>179</v>
-      </c>
+      <c r="E137" s="144"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="75" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B138" s="76" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C138" s="76" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="D138" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="E138" s="144"/>
+      <c r="E138" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="75" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="B139" s="76" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C139" s="76" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="D139" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="E139" s="144" t="s">
-        <v>179</v>
-      </c>
+      <c r="E139" s="144"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="75" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="B140" s="76" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C140" s="76" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="D140" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="E140" s="144"/>
+      <c r="E140" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="75" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="B141" s="76" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C141" s="76" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="D141" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="E141" s="144" t="s">
-        <v>179</v>
-      </c>
+      <c r="E141" s="144"/>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="75" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B142" s="76" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C142" s="76" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="D142" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="E142" s="144"/>
+      <c r="E142" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="75" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="B143" s="76" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C143" s="76" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="D143" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="E143" s="144" t="s">
-        <v>179</v>
-      </c>
+      <c r="E143" s="144"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="75" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B144" s="76" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="C144" s="76" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="D144" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="E144" s="144"/>
+      <c r="E144" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="75" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="B145" s="76" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="C145" s="76" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="D145" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="E145" s="144" t="s">
-        <v>179</v>
-      </c>
+      <c r="E145" s="144"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="75" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="B146" s="76" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C146" s="76" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="D146" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="E146" s="144"/>
+      <c r="E146" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="75" t="s">
+        <v>385</v>
+      </c>
+      <c r="B147" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="C147" s="76" t="s">
+        <v>93</v>
+      </c>
+      <c r="D147" s="76" t="s">
+        <v>93</v>
+      </c>
+      <c r="E147" s="144"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148" s="75" t="s">
+        <v>387</v>
+      </c>
+      <c r="B148" s="76" t="s">
+        <v>388</v>
+      </c>
+      <c r="C148" s="76" t="s">
+        <v>34</v>
+      </c>
+      <c r="D148" s="76" t="s">
+        <v>93</v>
+      </c>
+      <c r="E148" s="144" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149" s="75" t="s">
+        <v>389</v>
+      </c>
+      <c r="B149" s="76" t="s">
+        <v>390</v>
+      </c>
+      <c r="C149" s="76" t="s">
+        <v>93</v>
+      </c>
+      <c r="D149" s="76" t="s">
+        <v>93</v>
+      </c>
+      <c r="E149" s="144"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150" s="75" t="s">
         <v>391</v>
       </c>
-      <c r="B147" s="76" t="s">
+      <c r="B150" s="76" t="s">
         <v>392</v>
       </c>
-      <c r="C147" s="76" t="s">
+      <c r="C150" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="D147" s="76" t="s">
-        <v>93</v>
-      </c>
-      <c r="E147" s="144" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A148" s="77" t="s">
-        <v>393</v>
-      </c>
-      <c r="B148" s="78" t="s">
-        <v>394</v>
-      </c>
-      <c r="C148" s="78" t="s">
-        <v>93</v>
-      </c>
-      <c r="D148" s="78" t="s">
-        <v>93</v>
-      </c>
-      <c r="E148" s="144"/>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A149" s="77" t="s">
-        <v>395</v>
-      </c>
-      <c r="B149" s="78" t="s">
-        <v>396</v>
-      </c>
-      <c r="C149" s="78" t="s">
-        <v>34</v>
-      </c>
-      <c r="D149" s="78" t="s">
-        <v>93</v>
-      </c>
-      <c r="E149" s="144" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A150" s="77" t="s">
-        <v>397</v>
-      </c>
-      <c r="B150" s="78" t="s">
-        <v>398</v>
-      </c>
-      <c r="C150" s="78" t="s">
-        <v>93</v>
-      </c>
-      <c r="D150" s="78" t="s">
-        <v>93</v>
-      </c>
-      <c r="E150" s="144"/>
+      <c r="D150" s="76" t="s">
+        <v>93</v>
+      </c>
+      <c r="E150" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="77" t="s">
+        <v>393</v>
+      </c>
+      <c r="B151" s="78" t="s">
+        <v>394</v>
+      </c>
+      <c r="C151" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="D151" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="E151" s="144"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152" s="77" t="s">
+        <v>395</v>
+      </c>
+      <c r="B152" s="78" t="s">
+        <v>396</v>
+      </c>
+      <c r="C152" s="78" t="s">
+        <v>34</v>
+      </c>
+      <c r="D152" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="E152" s="144" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153" s="77" t="s">
+        <v>397</v>
+      </c>
+      <c r="B153" s="78" t="s">
+        <v>398</v>
+      </c>
+      <c r="C153" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="D153" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="E153" s="144"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154" s="77" t="s">
         <v>399</v>
       </c>
-      <c r="B151" s="78" t="s">
+      <c r="B154" s="78" t="s">
         <v>400</v>
       </c>
-      <c r="C151" s="78" t="s">
+      <c r="C154" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="D151" s="78" t="s">
-        <v>93</v>
-      </c>
-      <c r="E151" s="144" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A152" s="79" t="s">
+      <c r="D154" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="E154" s="144" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155" s="79" t="s">
         <v>401</v>
       </c>
-      <c r="B152" s="80" t="s">
+      <c r="B155" s="80" t="s">
         <v>402</v>
       </c>
-      <c r="C152" s="80" t="s">
-        <v>93</v>
-      </c>
-      <c r="D152" s="80" t="s">
-        <v>93</v>
-      </c>
-      <c r="E152" s="144"/>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A153" s="79" t="s">
+      <c r="C155" s="80" t="s">
+        <v>93</v>
+      </c>
+      <c r="D155" s="80" t="s">
+        <v>93</v>
+      </c>
+      <c r="E155" s="144"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156" s="79" t="s">
         <v>403</v>
       </c>
-      <c r="B153" s="80" t="s">
+      <c r="B156" s="80" t="s">
         <v>404</v>
       </c>
-      <c r="C153" s="80" t="s">
+      <c r="C156" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="D153" s="80" t="s">
-        <v>93</v>
-      </c>
-      <c r="E153" s="144" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A154" s="81" t="s">
-        <v>405</v>
-      </c>
-      <c r="B154" s="82" t="s">
-        <v>406</v>
-      </c>
-      <c r="C154" s="148" t="s">
-        <v>93</v>
-      </c>
-      <c r="D154" s="148" t="s">
-        <v>93</v>
-      </c>
-      <c r="E154" s="144"/>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A155" s="81" t="s">
-        <v>407</v>
-      </c>
-      <c r="B155" s="82" t="s">
-        <v>408</v>
-      </c>
-      <c r="C155" s="148" t="s">
-        <v>34</v>
-      </c>
-      <c r="D155" s="148" t="s">
-        <v>93</v>
-      </c>
-      <c r="E155" s="144" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A156" s="81" t="s">
-        <v>409</v>
-      </c>
-      <c r="B156" s="82" t="s">
-        <v>410</v>
-      </c>
-      <c r="C156" s="148" t="s">
-        <v>93</v>
-      </c>
-      <c r="D156" s="148" t="s">
-        <v>93</v>
-      </c>
-      <c r="E156" s="144"/>
+      <c r="D156" s="80" t="s">
+        <v>93</v>
+      </c>
+      <c r="E156" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="81" t="s">
+        <v>405</v>
+      </c>
+      <c r="B157" s="82" t="s">
+        <v>406</v>
+      </c>
+      <c r="C157" s="148" t="s">
+        <v>93</v>
+      </c>
+      <c r="D157" s="148" t="s">
+        <v>93</v>
+      </c>
+      <c r="E157" s="144"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" s="81" t="s">
+        <v>407</v>
+      </c>
+      <c r="B158" s="82" t="s">
+        <v>408</v>
+      </c>
+      <c r="C158" s="148" t="s">
+        <v>34</v>
+      </c>
+      <c r="D158" s="148" t="s">
+        <v>93</v>
+      </c>
+      <c r="E158" s="144" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" s="81" t="s">
+        <v>409</v>
+      </c>
+      <c r="B159" s="82" t="s">
+        <v>410</v>
+      </c>
+      <c r="C159" s="148" t="s">
+        <v>93</v>
+      </c>
+      <c r="D159" s="148" t="s">
+        <v>93</v>
+      </c>
+      <c r="E159" s="144"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160" s="81" t="s">
         <v>411</v>
       </c>
-      <c r="B157" s="82" t="s">
+      <c r="B160" s="82" t="s">
         <v>412</v>
       </c>
-      <c r="C157" s="148" t="s">
+      <c r="C160" s="148" t="s">
         <v>34</v>
       </c>
-      <c r="D157" s="148" t="s">
-        <v>93</v>
-      </c>
-      <c r="E157" s="144" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A158" s="83" t="s">
-        <v>413</v>
-      </c>
-      <c r="B158" s="84" t="s">
-        <v>414</v>
-      </c>
-      <c r="C158" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="D158" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="E158" s="144"/>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A159" s="83" t="s">
-        <v>416</v>
-      </c>
-      <c r="B159" s="84" t="s">
-        <v>417</v>
-      </c>
-      <c r="C159" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="D159" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="E159" s="144"/>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A160" s="83" t="s">
-        <v>418</v>
-      </c>
-      <c r="B160" s="84" t="s">
-        <v>419</v>
-      </c>
-      <c r="C160" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="D160" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="E160" s="144"/>
+      <c r="D160" s="148" t="s">
+        <v>93</v>
+      </c>
+      <c r="E160" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="83" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B161" s="84" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="C161" s="132" t="s">
         <v>415</v>
@@ -12776,10 +13415,10 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="83" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B162" s="84" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C162" s="132" t="s">
         <v>415</v>
@@ -12791,10 +13430,10 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="83" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B163" s="84" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="C163" s="132" t="s">
         <v>415</v>
@@ -12806,10 +13445,10 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="83" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="B164" s="84" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="C164" s="132" t="s">
         <v>415</v>
@@ -12821,10 +13460,10 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="83" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="B165" s="84" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C165" s="132" t="s">
         <v>415</v>
@@ -12836,10 +13475,10 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="83" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="B166" s="84" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C166" s="132" t="s">
         <v>415</v>
@@ -12851,10 +13490,10 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="83" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="B167" s="84" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="C167" s="132" t="s">
         <v>415</v>
@@ -12866,10 +13505,10 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="83" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="B168" s="84" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C168" s="132" t="s">
         <v>415</v>
@@ -12880,79 +13519,124 @@
       <c r="E168" s="144"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A169" s="85" t="s">
+      <c r="A169" s="83" t="s">
+        <v>430</v>
+      </c>
+      <c r="B169" s="84" t="s">
+        <v>431</v>
+      </c>
+      <c r="C169" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="D169" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="E169" s="144"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A170" s="83" t="s">
+        <v>432</v>
+      </c>
+      <c r="B170" s="84" t="s">
+        <v>433</v>
+      </c>
+      <c r="C170" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="D170" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="E170" s="144"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A171" s="83" t="s">
+        <v>434</v>
+      </c>
+      <c r="B171" s="84" t="s">
+        <v>435</v>
+      </c>
+      <c r="C171" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="D171" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="E171" s="144"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A172" s="85" t="s">
         <v>436</v>
       </c>
-      <c r="B169" s="86" t="s">
+      <c r="B172" s="86" t="s">
         <v>437</v>
       </c>
-      <c r="C169" s="133" t="s">
+      <c r="C172" s="133" t="s">
         <v>415</v>
       </c>
-      <c r="D169" s="133" t="s">
+      <c r="D172" s="133" t="s">
         <v>415</v>
       </c>
-      <c r="E169" s="144"/>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A170" s="85" t="s">
+      <c r="E172" s="144"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A173" s="85" t="s">
         <v>438</v>
       </c>
-      <c r="B170" s="86" t="s">
+      <c r="B173" s="86" t="s">
         <v>439</v>
       </c>
-      <c r="C170" s="133" t="s">
+      <c r="C173" s="133" t="s">
         <v>415</v>
       </c>
-      <c r="D170" s="133" t="s">
+      <c r="D173" s="133" t="s">
         <v>415</v>
       </c>
-      <c r="E170" s="144"/>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A171" s="87" t="s">
+      <c r="E173" s="144"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A174" s="87" t="s">
         <v>440</v>
       </c>
-      <c r="B171" s="88" t="s">
+      <c r="B174" s="88" t="s">
         <v>441</v>
       </c>
-      <c r="C171" s="134" t="s">
+      <c r="C174" s="134" t="s">
         <v>415</v>
       </c>
-      <c r="D171" s="134" t="s">
+      <c r="D174" s="134" t="s">
         <v>415</v>
       </c>
-      <c r="E171" s="144"/>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A172" s="89" t="s">
+      <c r="E174" s="144"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A175" s="89" t="s">
         <v>442</v>
       </c>
-      <c r="B172" s="90" t="s">
+      <c r="B175" s="90" t="s">
         <v>443</v>
       </c>
-      <c r="C172" s="135" t="s">
+      <c r="C175" s="135" t="s">
         <v>415</v>
       </c>
-      <c r="D172" s="135" t="s">
+      <c r="D175" s="135" t="s">
         <v>415</v>
       </c>
-      <c r="E172" s="144"/>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A173" s="89" t="s">
+      <c r="E175" s="144"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A176" s="89" t="s">
         <v>444</v>
       </c>
-      <c r="B173" s="90" t="s">
+      <c r="B176" s="90" t="s">
         <v>445</v>
       </c>
-      <c r="C173" s="135" t="s">
+      <c r="C176" s="135" t="s">
         <v>415</v>
       </c>
-      <c r="D173" s="135" t="s">
+      <c r="D176" s="135" t="s">
         <v>415</v>
       </c>
-      <c r="E173" s="144"/>
+      <c r="E176" s="144"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12966,7 +13650,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="A44" activeCellId="2" sqref="A42:XFD42 A43:XFD43 A44:XFD44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -32500,7 +33184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
@@ -32669,26 +33353,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="6c854b04-c9c6-4391-adbe-2e73191270e7" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="059b9c67-646b-4b4e-9ab1-2b1c805d0390">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AD6200282E8E804DB7E47654D11346C2" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="334b3f607926cb22599f187b4c015ce1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="059b9c67-646b-4b4e-9ab1-2b1c805d0390" xmlns:ns3="c05e7bd6-26a7-41a1-805c-893279a3732f" xmlns:ns4="6c854b04-c9c6-4391-adbe-2e73191270e7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0fe548b9ff7492f3109b4e0b4a8efc8f" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="059b9c67-646b-4b4e-9ab1-2b1c805d0390"/>
@@ -32948,26 +33612,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCA6965B-A23A-4F60-9CAE-00FD555BD4D8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="6c854b04-c9c6-4391-adbe-2e73191270e7" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="059b9c67-646b-4b4e-9ab1-2b1c805d0390">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A2EA77E-CA9B-4563-9A5E-2F50B3C8BA13}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6c854b04-c9c6-4391-adbe-2e73191270e7"/>
-    <ds:schemaRef ds:uri="059b9c67-646b-4b4e-9ab1-2b1c805d0390"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FE51207-01AF-400E-9D05-58F426138751}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -32985,4 +33650,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A2EA77E-CA9B-4563-9A5E-2F50B3C8BA13}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6c854b04-c9c6-4391-adbe-2e73191270e7"/>
+    <ds:schemaRef ds:uri="059b9c67-646b-4b4e-9ab1-2b1c805d0390"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCA6965B-A23A-4F60-9CAE-00FD555BD4D8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/static_tables/metric_structure.xlsx
+++ b/data/static_tables/metric_structure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\projects\eGrid\production_model\users\russelle\egrid\data\static_tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3DB7BF-89D3-4A78-87EF-2D3443013D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095FAA27-2BEC-4AF5-A524-8BA1851BFEEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10136,7 +10136,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E20"/>
+      <selection pane="bottomLeft" activeCell="D43" sqref="D43:D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -10414,8 +10414,8 @@
   <dimension ref="A1:IN176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G76" sqref="G76"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -12513,7 +12513,7 @@
         <v>34</v>
       </c>
       <c r="D101" s="130" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="E101" s="144"/>
     </row>
@@ -33353,6 +33353,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="6c854b04-c9c6-4391-adbe-2e73191270e7" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="059b9c67-646b-4b4e-9ab1-2b1c805d0390">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AD6200282E8E804DB7E47654D11346C2" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="334b3f607926cb22599f187b4c015ce1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="059b9c67-646b-4b4e-9ab1-2b1c805d0390" xmlns:ns3="c05e7bd6-26a7-41a1-805c-893279a3732f" xmlns:ns4="6c854b04-c9c6-4391-adbe-2e73191270e7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0fe548b9ff7492f3109b4e0b4a8efc8f" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="059b9c67-646b-4b4e-9ab1-2b1c805d0390"/>
@@ -33612,27 +33632,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="6c854b04-c9c6-4391-adbe-2e73191270e7" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="059b9c67-646b-4b4e-9ab1-2b1c805d0390">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCA6965B-A23A-4F60-9CAE-00FD555BD4D8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A2EA77E-CA9B-4563-9A5E-2F50B3C8BA13}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6c854b04-c9c6-4391-adbe-2e73191270e7"/>
+    <ds:schemaRef ds:uri="059b9c67-646b-4b4e-9ab1-2b1c805d0390"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FE51207-01AF-400E-9D05-58F426138751}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -33650,23 +33669,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A2EA77E-CA9B-4563-9A5E-2F50B3C8BA13}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6c854b04-c9c6-4391-adbe-2e73191270e7"/>
-    <ds:schemaRef ds:uri="059b9c67-646b-4b4e-9ab1-2b1c805d0390"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCA6965B-A23A-4F60-9CAE-00FD555BD4D8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/static_tables/metric_structure.xlsx
+++ b/data/static_tables/metric_structure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\projects\eGrid\production_model\users\russelle\egrid\data\static_tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095FAA27-2BEC-4AF5-A524-8BA1851BFEEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9C8439-C617-4B7D-BB5B-B03179125382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6555" yWindow="780" windowWidth="20580" windowHeight="13365" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UNT21" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6177" uniqueCount="2913">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6350" uniqueCount="2996">
   <si>
     <t>Name</t>
   </si>
@@ -8796,6 +8796,255 @@
   </si>
   <si>
     <t>PLC2ERA</t>
+  </si>
+  <si>
+    <t>Stack Flue Status</t>
+  </si>
+  <si>
+    <t>Stack Height</t>
+  </si>
+  <si>
+    <t>feet</t>
+  </si>
+  <si>
+    <t>meters</t>
+  </si>
+  <si>
+    <t>Plant unadjusted annual CO2 equivalent emissions (metric tons)</t>
+  </si>
+  <si>
+    <t>UNCO2E</t>
+  </si>
+  <si>
+    <t>Plant annual CO2 equivalent biomass emission (metric tons)</t>
+  </si>
+  <si>
+    <t>BIOCO2E</t>
+  </si>
+  <si>
+    <t>Plant annual CO2 equivalent emissions CHP adjustment value (metric tons)</t>
+  </si>
+  <si>
+    <t>CHPCO2E</t>
+  </si>
+  <si>
+    <t>STACKHT</t>
+  </si>
+  <si>
+    <t>PLGENATO</t>
+  </si>
+  <si>
+    <t>PLGENATO2</t>
+  </si>
+  <si>
+    <t>PLGENACO</t>
+  </si>
+  <si>
+    <t>PLGENACO2</t>
+  </si>
+  <si>
+    <t>PLCOPR</t>
+  </si>
+  <si>
+    <t>STGENATO</t>
+  </si>
+  <si>
+    <t>STGENATO2</t>
+  </si>
+  <si>
+    <t>STGENACO</t>
+  </si>
+  <si>
+    <t>STGENACO2</t>
+  </si>
+  <si>
+    <t>PLTOPR</t>
+  </si>
+  <si>
+    <t>STTOPR</t>
+  </si>
+  <si>
+    <t>STCOPR</t>
+  </si>
+  <si>
+    <t>BAGENATO</t>
+  </si>
+  <si>
+    <t>BAGENATO2</t>
+  </si>
+  <si>
+    <t>BATOPR</t>
+  </si>
+  <si>
+    <t>BACOPR</t>
+  </si>
+  <si>
+    <t>BAGENACO</t>
+  </si>
+  <si>
+    <t>BAGENACO2</t>
+  </si>
+  <si>
+    <t>SRGENATO</t>
+  </si>
+  <si>
+    <t>SRGENATO2</t>
+  </si>
+  <si>
+    <t>SRGENACO</t>
+  </si>
+  <si>
+    <t>SRGENACO2</t>
+  </si>
+  <si>
+    <t>SRTOPR</t>
+  </si>
+  <si>
+    <t>SRCOPR</t>
+  </si>
+  <si>
+    <t>NRGENATO</t>
+  </si>
+  <si>
+    <t>NRGENATO2</t>
+  </si>
+  <si>
+    <t>NRGENACO</t>
+  </si>
+  <si>
+    <t>NRGENACO2</t>
+  </si>
+  <si>
+    <t>NRTOPR</t>
+  </si>
+  <si>
+    <t>NRCOPR</t>
+  </si>
+  <si>
+    <t>USGENATO</t>
+  </si>
+  <si>
+    <t>USGENATO2</t>
+  </si>
+  <si>
+    <t>USGENACO</t>
+  </si>
+  <si>
+    <t>USGENACO2</t>
+  </si>
+  <si>
+    <t>USTOPR</t>
+  </si>
+  <si>
+    <t>USCOPR</t>
+  </si>
+  <si>
+    <t>U.S. total other nonrenewables generation percent (resource mix)</t>
+  </si>
+  <si>
+    <t>U.S. total other noncombustion generation percent (resource mix)</t>
+  </si>
+  <si>
+    <t>U.S. annual total other noncombustion net generation (MWh)</t>
+  </si>
+  <si>
+    <t>U.S. annual total other noncombustion net generation (GJ)</t>
+  </si>
+  <si>
+    <t>U.S. annual total other nonrenewables net generation (MWh)</t>
+  </si>
+  <si>
+    <t>U.S. annual total other nonrenewables net generation (GJ)</t>
+  </si>
+  <si>
+    <t>Plant annual total other nonrenewables net generation (MWh)</t>
+  </si>
+  <si>
+    <t>Plant annual total other nonrenewables net generation (GJ)</t>
+  </si>
+  <si>
+    <t>Plant annual total other noncombustion net generation (MWh)</t>
+  </si>
+  <si>
+    <t>Plant annual total other noncombustion net generation (GJ)</t>
+  </si>
+  <si>
+    <t>Plant total other noncombustion generation percent (resource mix)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plant total other nonrenewables generation percent (resource mix) </t>
+  </si>
+  <si>
+    <t>State annual total other nonrenewables net generation (MWh)</t>
+  </si>
+  <si>
+    <t>State annual total other nonrenewables net generation (GJ)</t>
+  </si>
+  <si>
+    <t>State annual total other noncombustion net generation (MWh)</t>
+  </si>
+  <si>
+    <t>State annual total other noncombustion net generation (GJ)</t>
+  </si>
+  <si>
+    <t>State total other noncombustion generation percent (resource mix)</t>
+  </si>
+  <si>
+    <t>State total other nonrenewables generation percent (resource mix)</t>
+  </si>
+  <si>
+    <t>BA annual total other nonrenewables net generation (MWh)</t>
+  </si>
+  <si>
+    <t>BA annual total other nonrenewables net generation (GJ)</t>
+  </si>
+  <si>
+    <t>BA annual total other noncombustion net generation (MWh)</t>
+  </si>
+  <si>
+    <t>BA annual total other noncombustion net generation (GJ)</t>
+  </si>
+  <si>
+    <t>BA total other nonrenewables generation percent (resource mix)</t>
+  </si>
+  <si>
+    <t>BA total other noncombustion generation percent (resource mix)</t>
+  </si>
+  <si>
+    <t>eGRID subregion annual total other nonrenewables net generation (MWh)</t>
+  </si>
+  <si>
+    <t>eGRID subregion annual total other nonrenewables net generation (GJ)</t>
+  </si>
+  <si>
+    <t>eGRID subregion annual total other noncombustion net generation (MWh)</t>
+  </si>
+  <si>
+    <t>eGRID subregion annual total other noncombustion net generation (GJ)</t>
+  </si>
+  <si>
+    <t>eGRID subregion total other nonrenewables generation percent (resource mix)</t>
+  </si>
+  <si>
+    <t>eGRID subregion total other noncombustion generation percent (resource mix)</t>
+  </si>
+  <si>
+    <t>NERC region total other noncombustion generation percent (resource mix)</t>
+  </si>
+  <si>
+    <t>NERC region total other nonrenewables generation percent (resource mix)</t>
+  </si>
+  <si>
+    <t>NERC region annual total other noncombustion net generation (MWh)</t>
+  </si>
+  <si>
+    <t>NERC region annual total other noncombustion net generation (GJ)</t>
+  </si>
+  <si>
+    <t>NERC region annual total other nonrenewables net generation (MWh)</t>
+  </si>
+  <si>
+    <t>NERC region annual total other nonrenewables net generation (GJ)</t>
   </si>
 </sst>
 </file>
@@ -8859,7 +9108,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8986,6 +9235,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -9016,7 +9271,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -9395,6 +9650,26 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{9F9254EC-5057-4E77-BD50-329829D88EBE}"/>
@@ -9701,11 +9976,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T33"/>
+  <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -9943,7 +10218,7 @@
       </c>
       <c r="E18" s="139"/>
     </row>
-    <row r="19" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="39" t="s">
         <v>42</v>
       </c>
@@ -10123,6 +10398,30 @@
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
       <c r="E33" s="139"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="36" t="s">
+        <v>2913</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="139"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="152" t="s">
+        <v>2914</v>
+      </c>
+      <c r="B35" s="153" t="s">
+        <v>2923</v>
+      </c>
+      <c r="C35" s="154" t="s">
+        <v>2916</v>
+      </c>
+      <c r="D35" s="154" t="s">
+        <v>2915</v>
+      </c>
+      <c r="E35" s="139"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10411,11 +10710,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:IN176"/>
+  <dimension ref="A1:IN185"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D101" sqref="D101"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A181" sqref="A181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -12489,40 +12788,40 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="38" t="s">
-        <v>290</v>
+        <v>2917</v>
       </c>
       <c r="B100" s="70" t="s">
-        <v>291</v>
+        <v>2918</v>
       </c>
       <c r="C100" s="130" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D100" s="130" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E100" s="144"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="38" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B101" s="70" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C101" s="130" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D101" s="130" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="E101" s="144"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="38" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B102" s="70" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C102" s="130" t="s">
         <v>34</v>
@@ -12534,10 +12833,10 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="38" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B103" s="70" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C103" s="130" t="s">
         <v>34</v>
@@ -12549,10 +12848,10 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="38" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B104" s="70" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C104" s="130" t="s">
         <v>34</v>
@@ -12563,22 +12862,26 @@
       <c r="E104" s="144"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A105" s="40" t="s">
-        <v>300</v>
-      </c>
-      <c r="B105" s="71" t="s">
-        <v>301</v>
-      </c>
-      <c r="C105" s="130"/>
-      <c r="D105" s="130"/>
+      <c r="A105" s="38" t="s">
+        <v>298</v>
+      </c>
+      <c r="B105" s="70" t="s">
+        <v>299</v>
+      </c>
+      <c r="C105" s="130" t="s">
+        <v>34</v>
+      </c>
+      <c r="D105" s="130" t="s">
+        <v>35</v>
+      </c>
       <c r="E105" s="144"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="40" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B106" s="71" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C106" s="130"/>
       <c r="D106" s="130"/>
@@ -12586,10 +12889,10 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="40" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B107" s="71" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C107" s="130"/>
       <c r="D107" s="130"/>
@@ -12597,10 +12900,10 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="40" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B108" s="71" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C108" s="130"/>
       <c r="D108" s="130"/>
@@ -12608,10 +12911,10 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="40" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B109" s="71" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C109" s="130"/>
       <c r="D109" s="130"/>
@@ -12619,10 +12922,10 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="40" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B110" s="71" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C110" s="130"/>
       <c r="D110" s="130"/>
@@ -12630,10 +12933,10 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="40" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B111" s="71" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C111" s="130"/>
       <c r="D111" s="130"/>
@@ -12641,10 +12944,10 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="40" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B112" s="71" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C112" s="130"/>
       <c r="D112" s="130"/>
@@ -12652,36 +12955,32 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="40" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B113" s="71" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C113" s="130"/>
       <c r="D113" s="130"/>
       <c r="E113" s="144"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A114" s="72" t="s">
-        <v>318</v>
-      </c>
-      <c r="B114" s="73" t="s">
-        <v>319</v>
-      </c>
-      <c r="C114" s="131" t="s">
-        <v>40</v>
-      </c>
-      <c r="D114" s="131" t="s">
-        <v>41</v>
-      </c>
+      <c r="A114" s="40" t="s">
+        <v>316</v>
+      </c>
+      <c r="B114" s="71" t="s">
+        <v>317</v>
+      </c>
+      <c r="C114" s="130"/>
+      <c r="D114" s="130"/>
       <c r="E114" s="144"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="72" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B115" s="73" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C115" s="131" t="s">
         <v>40</v>
@@ -12693,10 +12992,10 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="72" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B116" s="73" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C116" s="131" t="s">
         <v>40</v>
@@ -12708,10 +13007,10 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="72" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B117" s="73" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C117" s="131" t="s">
         <v>40</v>
@@ -12723,25 +13022,25 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="72" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B118" s="73" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C118" s="131" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D118" s="131" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E118" s="144"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="72" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B119" s="73" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C119" s="131" t="s">
         <v>50</v>
@@ -12753,70 +13052,70 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="72" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B120" s="73" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C120" s="131" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D120" s="131" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="E120" s="144"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="72" t="s">
-        <v>332</v>
+        <v>2919</v>
       </c>
       <c r="B121" s="73" t="s">
-        <v>333</v>
+        <v>2920</v>
       </c>
       <c r="C121" s="131" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D121" s="131" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E121" s="144"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="72" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B122" s="73" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C122" s="131" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D122" s="131" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E122" s="144"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="72" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B123" s="73" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C123" s="131" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D123" s="131" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E123" s="144"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="72" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B124" s="73" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C124" s="131" t="s">
         <v>40</v>
@@ -12828,10 +13127,10 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="72" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B125" s="73" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C125" s="131" t="s">
         <v>40</v>
@@ -12843,672 +13142,676 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="72" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B126" s="73" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C126" s="131" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D126" s="131" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E126" s="144"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="72" t="s">
+        <v>340</v>
+      </c>
+      <c r="B127" s="73" t="s">
+        <v>341</v>
+      </c>
+      <c r="C127" s="131" t="s">
+        <v>40</v>
+      </c>
+      <c r="D127" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="E127" s="144"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" s="72" t="s">
+        <v>342</v>
+      </c>
+      <c r="B128" s="73" t="s">
+        <v>343</v>
+      </c>
+      <c r="C128" s="131" t="s">
+        <v>50</v>
+      </c>
+      <c r="D128" s="131" t="s">
+        <v>51</v>
+      </c>
+      <c r="E128" s="144"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" s="72" t="s">
         <v>344</v>
       </c>
-      <c r="B127" s="73" t="s">
+      <c r="B129" s="73" t="s">
         <v>345</v>
       </c>
-      <c r="C127" s="131" t="s">
+      <c r="C129" s="131" t="s">
         <v>50</v>
       </c>
-      <c r="D127" s="131" t="s">
+      <c r="D129" s="131" t="s">
         <v>51</v>
       </c>
-      <c r="E127" s="144"/>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A128" s="74" t="s">
+      <c r="E129" s="144"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" s="155" t="s">
+        <v>2921</v>
+      </c>
+      <c r="B130" s="73" t="s">
+        <v>2922</v>
+      </c>
+      <c r="C130" s="131" t="s">
+        <v>40</v>
+      </c>
+      <c r="D130" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="E130" s="144"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" s="74" t="s">
         <v>346</v>
       </c>
-      <c r="B128" s="50" t="s">
+      <c r="B131" s="50" t="s">
         <v>347</v>
       </c>
-      <c r="C128" s="122" t="s">
+      <c r="C131" s="122" t="s">
         <v>348</v>
       </c>
-      <c r="D128" s="122" t="s">
+      <c r="D131" s="122" t="s">
         <v>348</v>
-      </c>
-      <c r="E128" s="144"/>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A129" s="75" t="s">
-        <v>349</v>
-      </c>
-      <c r="B129" s="76" t="s">
-        <v>350</v>
-      </c>
-      <c r="C129" s="76" t="s">
-        <v>93</v>
-      </c>
-      <c r="D129" s="76" t="s">
-        <v>93</v>
-      </c>
-      <c r="E129" s="144"/>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A130" s="75" t="s">
-        <v>351</v>
-      </c>
-      <c r="B130" s="76" t="s">
-        <v>352</v>
-      </c>
-      <c r="C130" s="76" t="s">
-        <v>34</v>
-      </c>
-      <c r="D130" s="76" t="s">
-        <v>93</v>
-      </c>
-      <c r="E130" s="144" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A131" s="75" t="s">
-        <v>353</v>
-      </c>
-      <c r="B131" s="76" t="s">
-        <v>354</v>
-      </c>
-      <c r="C131" s="76" t="s">
-        <v>93</v>
-      </c>
-      <c r="D131" s="76" t="s">
-        <v>93</v>
       </c>
       <c r="E131" s="144"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="75" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="B132" s="76" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C132" s="76" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="D132" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="E132" s="144" t="s">
-        <v>179</v>
-      </c>
+      <c r="E132" s="144"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="75" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B133" s="76" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C133" s="76" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="D133" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="E133" s="144"/>
+      <c r="E133" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="75" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B134" s="76" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C134" s="76" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="D134" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="E134" s="144" t="s">
-        <v>179</v>
-      </c>
+      <c r="E134" s="144"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="75" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B135" s="76" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C135" s="76" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="D135" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="E135" s="144"/>
+      <c r="E135" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="75" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B136" s="76" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C136" s="76" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="D136" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="E136" s="144" t="s">
-        <v>179</v>
-      </c>
+      <c r="E136" s="144"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="75" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="B137" s="76" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C137" s="76" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="D137" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="E137" s="144"/>
+      <c r="E137" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="75" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B138" s="76" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C138" s="76" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="D138" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="E138" s="144" t="s">
-        <v>179</v>
-      </c>
+      <c r="E138" s="144"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="75" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="B139" s="76" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="C139" s="76" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="D139" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="E139" s="144"/>
+      <c r="E139" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="75" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B140" s="76" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="C140" s="76" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="D140" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="E140" s="144" t="s">
-        <v>179</v>
-      </c>
+      <c r="E140" s="144"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="75" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B141" s="76" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C141" s="76" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="D141" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="E141" s="144"/>
+      <c r="E141" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="75" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="B142" s="76" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C142" s="76" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="D142" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="E142" s="144" t="s">
-        <v>179</v>
-      </c>
+      <c r="E142" s="144"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="75" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="B143" s="76" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C143" s="76" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="D143" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="E143" s="144"/>
+      <c r="E143" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="75" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="B144" s="76" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C144" s="76" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="D144" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="E144" s="144" t="s">
-        <v>179</v>
-      </c>
+      <c r="E144" s="144"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="75" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B145" s="76" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C145" s="76" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="D145" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="E145" s="144"/>
+      <c r="E145" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="75" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="B146" s="76" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C146" s="76" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="D146" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="E146" s="144" t="s">
-        <v>179</v>
-      </c>
+      <c r="E146" s="144"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="75" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B147" s="76" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="C147" s="76" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="D147" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="E147" s="144"/>
+      <c r="E147" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="75" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="B148" s="76" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="C148" s="76" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="D148" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="E148" s="144" t="s">
-        <v>179</v>
-      </c>
+      <c r="E148" s="144"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="75" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="B149" s="76" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C149" s="76" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="D149" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="E149" s="144"/>
+      <c r="E149" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="75" t="s">
+        <v>385</v>
+      </c>
+      <c r="B150" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="C150" s="76" t="s">
+        <v>93</v>
+      </c>
+      <c r="D150" s="76" t="s">
+        <v>93</v>
+      </c>
+      <c r="E150" s="144"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151" s="75" t="s">
+        <v>387</v>
+      </c>
+      <c r="B151" s="76" t="s">
+        <v>388</v>
+      </c>
+      <c r="C151" s="76" t="s">
+        <v>34</v>
+      </c>
+      <c r="D151" s="76" t="s">
+        <v>93</v>
+      </c>
+      <c r="E151" s="144" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152" s="75" t="s">
+        <v>389</v>
+      </c>
+      <c r="B152" s="76" t="s">
+        <v>390</v>
+      </c>
+      <c r="C152" s="76" t="s">
+        <v>93</v>
+      </c>
+      <c r="D152" s="76" t="s">
+        <v>93</v>
+      </c>
+      <c r="E152" s="144"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153" s="75" t="s">
         <v>391</v>
       </c>
-      <c r="B150" s="76" t="s">
+      <c r="B153" s="76" t="s">
         <v>392</v>
       </c>
-      <c r="C150" s="76" t="s">
+      <c r="C153" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="D150" s="76" t="s">
-        <v>93</v>
-      </c>
-      <c r="E150" s="144" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A151" s="77" t="s">
-        <v>393</v>
-      </c>
-      <c r="B151" s="78" t="s">
-        <v>394</v>
-      </c>
-      <c r="C151" s="78" t="s">
-        <v>93</v>
-      </c>
-      <c r="D151" s="78" t="s">
-        <v>93</v>
-      </c>
-      <c r="E151" s="144"/>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A152" s="77" t="s">
-        <v>395</v>
-      </c>
-      <c r="B152" s="78" t="s">
-        <v>396</v>
-      </c>
-      <c r="C152" s="78" t="s">
-        <v>34</v>
-      </c>
-      <c r="D152" s="78" t="s">
-        <v>93</v>
-      </c>
-      <c r="E152" s="144" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A153" s="77" t="s">
-        <v>397</v>
-      </c>
-      <c r="B153" s="78" t="s">
-        <v>398</v>
-      </c>
-      <c r="C153" s="78" t="s">
-        <v>93</v>
-      </c>
-      <c r="D153" s="78" t="s">
-        <v>93</v>
-      </c>
-      <c r="E153" s="144"/>
+      <c r="D153" s="76" t="s">
+        <v>93</v>
+      </c>
+      <c r="E153" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="77" t="s">
+        <v>393</v>
+      </c>
+      <c r="B154" s="78" t="s">
+        <v>394</v>
+      </c>
+      <c r="C154" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="D154" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="E154" s="144"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155" s="77" t="s">
+        <v>395</v>
+      </c>
+      <c r="B155" s="78" t="s">
+        <v>396</v>
+      </c>
+      <c r="C155" s="78" t="s">
+        <v>34</v>
+      </c>
+      <c r="D155" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="E155" s="144" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156" s="77" t="s">
+        <v>2966</v>
+      </c>
+      <c r="B156" s="78" t="s">
+        <v>2924</v>
+      </c>
+      <c r="C156" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="D156" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="E156" s="144"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157" s="77" t="s">
+        <v>2967</v>
+      </c>
+      <c r="B157" s="78" t="s">
+        <v>2925</v>
+      </c>
+      <c r="C157" s="78" t="s">
+        <v>34</v>
+      </c>
+      <c r="D157" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="E157" s="144" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" s="77" t="s">
+        <v>397</v>
+      </c>
+      <c r="B158" s="78" t="s">
+        <v>398</v>
+      </c>
+      <c r="C158" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="D158" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="E158" s="144"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" s="77" t="s">
         <v>399</v>
       </c>
-      <c r="B154" s="78" t="s">
+      <c r="B159" s="78" t="s">
         <v>400</v>
       </c>
-      <c r="C154" s="78" t="s">
+      <c r="C159" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="D154" s="78" t="s">
-        <v>93</v>
-      </c>
-      <c r="E154" s="144" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A155" s="79" t="s">
+      <c r="D159" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="E159" s="144" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160" s="79" t="s">
         <v>401</v>
       </c>
-      <c r="B155" s="80" t="s">
+      <c r="B160" s="80" t="s">
         <v>402</v>
       </c>
-      <c r="C155" s="80" t="s">
-        <v>93</v>
-      </c>
-      <c r="D155" s="80" t="s">
-        <v>93</v>
-      </c>
-      <c r="E155" s="144"/>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A156" s="79" t="s">
+      <c r="C160" s="80" t="s">
+        <v>93</v>
+      </c>
+      <c r="D160" s="80" t="s">
+        <v>93</v>
+      </c>
+      <c r="E160" s="144"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" s="79" t="s">
         <v>403</v>
       </c>
-      <c r="B156" s="80" t="s">
+      <c r="B161" s="80" t="s">
         <v>404</v>
       </c>
-      <c r="C156" s="80" t="s">
+      <c r="C161" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="D156" s="80" t="s">
-        <v>93</v>
-      </c>
-      <c r="E156" s="144" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A157" s="81" t="s">
+      <c r="D161" s="80" t="s">
+        <v>93</v>
+      </c>
+      <c r="E161" s="144" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162" s="81" t="s">
         <v>405</v>
       </c>
-      <c r="B157" s="82" t="s">
+      <c r="B162" s="82" t="s">
         <v>406</v>
       </c>
-      <c r="C157" s="148" t="s">
-        <v>93</v>
-      </c>
-      <c r="D157" s="148" t="s">
-        <v>93</v>
-      </c>
-      <c r="E157" s="144"/>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A158" s="81" t="s">
+      <c r="C162" s="148" t="s">
+        <v>93</v>
+      </c>
+      <c r="D162" s="148" t="s">
+        <v>93</v>
+      </c>
+      <c r="E162" s="144"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163" s="81" t="s">
         <v>407</v>
       </c>
-      <c r="B158" s="82" t="s">
+      <c r="B163" s="82" t="s">
         <v>408</v>
       </c>
-      <c r="C158" s="148" t="s">
+      <c r="C163" s="148" t="s">
         <v>34</v>
       </c>
-      <c r="D158" s="148" t="s">
-        <v>93</v>
-      </c>
-      <c r="E158" s="144" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A159" s="81" t="s">
+      <c r="D163" s="148" t="s">
+        <v>93</v>
+      </c>
+      <c r="E163" s="144" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164" s="81" t="s">
         <v>409</v>
       </c>
-      <c r="B159" s="82" t="s">
+      <c r="B164" s="82" t="s">
         <v>410</v>
       </c>
-      <c r="C159" s="148" t="s">
-        <v>93</v>
-      </c>
-      <c r="D159" s="148" t="s">
-        <v>93</v>
-      </c>
-      <c r="E159" s="144"/>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A160" s="81" t="s">
+      <c r="C164" s="148" t="s">
+        <v>93</v>
+      </c>
+      <c r="D164" s="148" t="s">
+        <v>93</v>
+      </c>
+      <c r="E164" s="144"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165" s="81" t="s">
         <v>411</v>
       </c>
-      <c r="B160" s="82" t="s">
+      <c r="B165" s="82" t="s">
         <v>412</v>
       </c>
-      <c r="C160" s="148" t="s">
+      <c r="C165" s="148" t="s">
         <v>34</v>
       </c>
-      <c r="D160" s="148" t="s">
-        <v>93</v>
-      </c>
-      <c r="E160" s="144" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A161" s="83" t="s">
-        <v>413</v>
-      </c>
-      <c r="B161" s="84" t="s">
-        <v>414</v>
-      </c>
-      <c r="C161" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="D161" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="E161" s="144"/>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A162" s="83" t="s">
-        <v>416</v>
-      </c>
-      <c r="B162" s="84" t="s">
-        <v>417</v>
-      </c>
-      <c r="C162" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="D162" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="E162" s="144"/>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A163" s="83" t="s">
-        <v>418</v>
-      </c>
-      <c r="B163" s="84" t="s">
-        <v>419</v>
-      </c>
-      <c r="C163" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="D163" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="E163" s="144"/>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A164" s="83" t="s">
-        <v>420</v>
-      </c>
-      <c r="B164" s="84" t="s">
-        <v>421</v>
-      </c>
-      <c r="C164" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="D164" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="E164" s="144"/>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A165" s="83" t="s">
-        <v>422</v>
-      </c>
-      <c r="B165" s="84" t="s">
-        <v>423</v>
-      </c>
-      <c r="C165" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="D165" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="E165" s="144"/>
+      <c r="D165" s="148" t="s">
+        <v>93</v>
+      </c>
+      <c r="E165" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A166" s="83" t="s">
-        <v>424</v>
-      </c>
-      <c r="B166" s="84" t="s">
-        <v>425</v>
-      </c>
-      <c r="C166" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="D166" s="132" t="s">
-        <v>415</v>
+      <c r="A166" s="81" t="s">
+        <v>2968</v>
+      </c>
+      <c r="B166" s="82" t="s">
+        <v>2926</v>
+      </c>
+      <c r="C166" s="148" t="s">
+        <v>93</v>
+      </c>
+      <c r="D166" s="148" t="s">
+        <v>93</v>
       </c>
       <c r="E166" s="144"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A167" s="83" t="s">
-        <v>426</v>
-      </c>
-      <c r="B167" s="84" t="s">
-        <v>427</v>
-      </c>
-      <c r="C167" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="D167" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="E167" s="144"/>
+      <c r="A167" s="81" t="s">
+        <v>2969</v>
+      </c>
+      <c r="B167" s="82" t="s">
+        <v>2927</v>
+      </c>
+      <c r="C167" s="148" t="s">
+        <v>34</v>
+      </c>
+      <c r="D167" s="148" t="s">
+        <v>93</v>
+      </c>
+      <c r="E167" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="83" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="B168" s="84" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="C168" s="132" t="s">
         <v>415</v>
@@ -13520,10 +13823,10 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="83" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="B169" s="84" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="C169" s="132" t="s">
         <v>415</v>
@@ -13535,10 +13838,10 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="83" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="B170" s="84" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="C170" s="132" t="s">
         <v>415</v>
@@ -13550,10 +13853,10 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="83" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="B171" s="84" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="C171" s="132" t="s">
         <v>415</v>
@@ -13564,79 +13867,214 @@
       <c r="E171" s="144"/>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A172" s="85" t="s">
+      <c r="A172" s="83" t="s">
+        <v>422</v>
+      </c>
+      <c r="B172" s="84" t="s">
+        <v>423</v>
+      </c>
+      <c r="C172" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="D172" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="E172" s="144"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A173" s="83" t="s">
+        <v>424</v>
+      </c>
+      <c r="B173" s="84" t="s">
+        <v>425</v>
+      </c>
+      <c r="C173" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="D173" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="E173" s="144"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A174" s="83" t="s">
+        <v>426</v>
+      </c>
+      <c r="B174" s="84" t="s">
+        <v>427</v>
+      </c>
+      <c r="C174" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="D174" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="E174" s="144"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A175" s="83" t="s">
+        <v>428</v>
+      </c>
+      <c r="B175" s="84" t="s">
+        <v>429</v>
+      </c>
+      <c r="C175" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="D175" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="E175" s="144"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A176" s="83" t="s">
+        <v>430</v>
+      </c>
+      <c r="B176" s="84" t="s">
+        <v>431</v>
+      </c>
+      <c r="C176" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="D176" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="E176" s="144"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A177" s="83" t="s">
+        <v>432</v>
+      </c>
+      <c r="B177" s="84" t="s">
+        <v>433</v>
+      </c>
+      <c r="C177" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="D177" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="E177" s="144"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178" s="83" t="s">
+        <v>434</v>
+      </c>
+      <c r="B178" s="84" t="s">
+        <v>435</v>
+      </c>
+      <c r="C178" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="D178" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="E178" s="144"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A179" s="85" t="s">
         <v>436</v>
       </c>
-      <c r="B172" s="86" t="s">
+      <c r="B179" s="86" t="s">
         <v>437</v>
       </c>
-      <c r="C172" s="133" t="s">
+      <c r="C179" s="133" t="s">
         <v>415</v>
       </c>
-      <c r="D172" s="133" t="s">
+      <c r="D179" s="133" t="s">
         <v>415</v>
       </c>
-      <c r="E172" s="144"/>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A173" s="85" t="s">
+      <c r="E179" s="144"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A180" s="85" t="s">
+        <v>2971</v>
+      </c>
+      <c r="B180" s="86" t="s">
+        <v>2933</v>
+      </c>
+      <c r="C180" s="133" t="s">
+        <v>415</v>
+      </c>
+      <c r="D180" s="133" t="s">
+        <v>415</v>
+      </c>
+      <c r="E180" s="144"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A181" s="85" t="s">
         <v>438</v>
       </c>
-      <c r="B173" s="86" t="s">
+      <c r="B181" s="86" t="s">
         <v>439</v>
       </c>
-      <c r="C173" s="133" t="s">
+      <c r="C181" s="133" t="s">
         <v>415</v>
       </c>
-      <c r="D173" s="133" t="s">
+      <c r="D181" s="133" t="s">
         <v>415</v>
       </c>
-      <c r="E173" s="144"/>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A174" s="87" t="s">
+      <c r="E181" s="144"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A182" s="87" t="s">
         <v>440</v>
       </c>
-      <c r="B174" s="88" t="s">
+      <c r="B182" s="88" t="s">
         <v>441</v>
       </c>
-      <c r="C174" s="134" t="s">
+      <c r="C182" s="134" t="s">
         <v>415</v>
       </c>
-      <c r="D174" s="134" t="s">
+      <c r="D182" s="134" t="s">
         <v>415</v>
       </c>
-      <c r="E174" s="144"/>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A175" s="89" t="s">
+      <c r="E182" s="144"/>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A183" s="89" t="s">
         <v>442</v>
       </c>
-      <c r="B175" s="90" t="s">
+      <c r="B183" s="90" t="s">
         <v>443</v>
       </c>
-      <c r="C175" s="135" t="s">
+      <c r="C183" s="135" t="s">
         <v>415</v>
       </c>
-      <c r="D175" s="135" t="s">
+      <c r="D183" s="135" t="s">
         <v>415</v>
       </c>
-      <c r="E175" s="144"/>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A176" s="89" t="s">
+      <c r="E183" s="144"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A184" s="89" t="s">
         <v>444</v>
       </c>
-      <c r="B176" s="90" t="s">
+      <c r="B184" s="90" t="s">
         <v>445</v>
       </c>
-      <c r="C176" s="135" t="s">
+      <c r="C184" s="135" t="s">
         <v>415</v>
       </c>
-      <c r="D176" s="135" t="s">
+      <c r="D184" s="135" t="s">
         <v>415</v>
       </c>
-      <c r="E176" s="144"/>
+      <c r="E184" s="144"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A185" s="156" t="s">
+        <v>2970</v>
+      </c>
+      <c r="B185" s="157" t="s">
+        <v>2928</v>
+      </c>
+      <c r="C185" s="158" t="s">
+        <v>415</v>
+      </c>
+      <c r="D185" s="158" t="s">
+        <v>415</v>
+      </c>
+      <c r="E185" s="159"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13646,11 +14084,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:IN248"/>
+  <dimension ref="A1:IN254"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A44" activeCellId="2" sqref="A42:XFD42 A43:XFD43 A44:XFD44"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A252" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A217" sqref="A217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -16667,10 +17105,10 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="77" t="s">
-        <v>822</v>
+        <v>2972</v>
       </c>
       <c r="B192" s="20" t="s">
-        <v>823</v>
+        <v>2929</v>
       </c>
       <c r="C192" s="78" t="s">
         <v>93</v>
@@ -16682,10 +17120,10 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="77" t="s">
-        <v>824</v>
+        <v>2973</v>
       </c>
       <c r="B193" s="20" t="s">
-        <v>825</v>
+        <v>2930</v>
       </c>
       <c r="C193" s="78" t="s">
         <v>34</v>
@@ -16698,63 +17136,63 @@
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A194" s="79" t="s">
+      <c r="A194" s="77" t="s">
+        <v>822</v>
+      </c>
+      <c r="B194" s="20" t="s">
+        <v>823</v>
+      </c>
+      <c r="C194" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="D194" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="E194" s="144"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A195" s="77" t="s">
+        <v>824</v>
+      </c>
+      <c r="B195" s="20" t="s">
+        <v>825</v>
+      </c>
+      <c r="C195" s="78" t="s">
+        <v>34</v>
+      </c>
+      <c r="D195" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="E195" s="144" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A196" s="79" t="s">
         <v>826</v>
       </c>
-      <c r="B194" s="21" t="s">
+      <c r="B196" s="21" t="s">
         <v>827</v>
       </c>
-      <c r="C194" s="80" t="s">
-        <v>93</v>
-      </c>
-      <c r="D194" s="80" t="s">
-        <v>93</v>
-      </c>
-      <c r="E194" s="144"/>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A195" s="79" t="s">
+      <c r="C196" s="80" t="s">
+        <v>93</v>
+      </c>
+      <c r="D196" s="80" t="s">
+        <v>93</v>
+      </c>
+      <c r="E196" s="144"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A197" s="79" t="s">
         <v>828</v>
       </c>
-      <c r="B195" s="21" t="s">
+      <c r="B197" s="21" t="s">
         <v>829</v>
       </c>
-      <c r="C195" s="80" t="s">
+      <c r="C197" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="D195" s="80" t="s">
-        <v>93</v>
-      </c>
-      <c r="E195" s="144" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A196" s="81" t="s">
-        <v>830</v>
-      </c>
-      <c r="B196" s="22" t="s">
-        <v>831</v>
-      </c>
-      <c r="C196" s="148" t="s">
-        <v>93</v>
-      </c>
-      <c r="D196" s="148" t="s">
-        <v>93</v>
-      </c>
-      <c r="E196" s="144"/>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A197" s="81" t="s">
-        <v>832</v>
-      </c>
-      <c r="B197" s="22" t="s">
-        <v>833</v>
-      </c>
-      <c r="C197" s="148" t="s">
-        <v>34</v>
-      </c>
-      <c r="D197" s="148" t="s">
+      <c r="D197" s="80" t="s">
         <v>93</v>
       </c>
       <c r="E197" s="144" t="s">
@@ -16763,10 +17201,10 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="81" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="B198" s="22" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="C198" s="148" t="s">
         <v>93</v>
@@ -16778,10 +17216,10 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="81" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="B199" s="22" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="C199" s="148" t="s">
         <v>34</v>
@@ -16794,71 +17232,75 @@
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A200" s="83" t="s">
-        <v>838</v>
-      </c>
-      <c r="B200" s="23" t="s">
-        <v>839</v>
-      </c>
-      <c r="C200" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="D200" s="132" t="s">
-        <v>415</v>
+      <c r="A200" s="81" t="s">
+        <v>834</v>
+      </c>
+      <c r="B200" s="22" t="s">
+        <v>835</v>
+      </c>
+      <c r="C200" s="148" t="s">
+        <v>93</v>
+      </c>
+      <c r="D200" s="148" t="s">
+        <v>93</v>
       </c>
       <c r="E200" s="144"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A201" s="83" t="s">
-        <v>840</v>
-      </c>
-      <c r="B201" s="23" t="s">
-        <v>841</v>
-      </c>
-      <c r="C201" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="D201" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="E201" s="144"/>
+      <c r="A201" s="81" t="s">
+        <v>836</v>
+      </c>
+      <c r="B201" s="22" t="s">
+        <v>837</v>
+      </c>
+      <c r="C201" s="148" t="s">
+        <v>34</v>
+      </c>
+      <c r="D201" s="148" t="s">
+        <v>93</v>
+      </c>
+      <c r="E201" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A202" s="83" t="s">
-        <v>842</v>
-      </c>
-      <c r="B202" s="23" t="s">
-        <v>843</v>
-      </c>
-      <c r="C202" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="D202" s="132" t="s">
-        <v>415</v>
+      <c r="A202" s="81" t="s">
+        <v>2974</v>
+      </c>
+      <c r="B202" s="22" t="s">
+        <v>2931</v>
+      </c>
+      <c r="C202" s="148" t="s">
+        <v>93</v>
+      </c>
+      <c r="D202" s="148" t="s">
+        <v>93</v>
       </c>
       <c r="E202" s="144"/>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A203" s="83" t="s">
-        <v>844</v>
-      </c>
-      <c r="B203" s="23" t="s">
-        <v>845</v>
-      </c>
-      <c r="C203" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="D203" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="E203" s="144"/>
+      <c r="A203" s="81" t="s">
+        <v>2975</v>
+      </c>
+      <c r="B203" s="22" t="s">
+        <v>2932</v>
+      </c>
+      <c r="C203" s="148" t="s">
+        <v>34</v>
+      </c>
+      <c r="D203" s="148" t="s">
+        <v>93</v>
+      </c>
+      <c r="E203" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="83" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
       <c r="B204" s="23" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="C204" s="132" t="s">
         <v>415</v>
@@ -16870,10 +17312,10 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="83" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="B205" s="23" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="C205" s="132" t="s">
         <v>415</v>
@@ -16885,10 +17327,10 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="83" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="B206" s="23" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="C206" s="132" t="s">
         <v>415</v>
@@ -16900,10 +17342,10 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="83" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="B207" s="23" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="C207" s="132" t="s">
         <v>415</v>
@@ -16915,10 +17357,10 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="83" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="B208" s="23" t="s">
-        <v>855</v>
+        <v>847</v>
       </c>
       <c r="C208" s="132" t="s">
         <v>415</v>
@@ -16930,10 +17372,10 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="83" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
       <c r="B209" s="23" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="C209" s="132" t="s">
         <v>415</v>
@@ -16945,10 +17387,10 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="83" t="s">
-        <v>858</v>
+        <v>850</v>
       </c>
       <c r="B210" s="23" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="C210" s="132" t="s">
         <v>415</v>
@@ -16959,182 +17401,176 @@
       <c r="E210" s="144"/>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A211" s="85" t="s">
+      <c r="A211" s="83" t="s">
+        <v>852</v>
+      </c>
+      <c r="B211" s="23" t="s">
+        <v>853</v>
+      </c>
+      <c r="C211" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="D211" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="E211" s="144"/>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A212" s="83" t="s">
+        <v>854</v>
+      </c>
+      <c r="B212" s="23" t="s">
+        <v>855</v>
+      </c>
+      <c r="C212" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="D212" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="E212" s="144"/>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A213" s="83" t="s">
+        <v>856</v>
+      </c>
+      <c r="B213" s="23" t="s">
+        <v>857</v>
+      </c>
+      <c r="C213" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="D213" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="E213" s="144"/>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A214" s="83" t="s">
+        <v>858</v>
+      </c>
+      <c r="B214" s="23" t="s">
+        <v>859</v>
+      </c>
+      <c r="C214" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="D214" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="E214" s="144"/>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A215" s="85" t="s">
         <v>860</v>
       </c>
-      <c r="B211" s="24" t="s">
+      <c r="B215" s="24" t="s">
         <v>861</v>
       </c>
-      <c r="C211" s="133" t="s">
+      <c r="C215" s="133" t="s">
         <v>415</v>
       </c>
-      <c r="D211" s="133" t="s">
+      <c r="D215" s="133" t="s">
         <v>415</v>
       </c>
-      <c r="E211" s="144"/>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A212" s="85" t="s">
+      <c r="E215" s="144"/>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A216" s="85" t="s">
+        <v>2977</v>
+      </c>
+      <c r="B216" s="24" t="s">
+        <v>2934</v>
+      </c>
+      <c r="C216" s="133" t="s">
+        <v>415</v>
+      </c>
+      <c r="D216" s="133" t="s">
+        <v>415</v>
+      </c>
+      <c r="E216" s="144"/>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A217" s="85" t="s">
         <v>862</v>
       </c>
-      <c r="B212" s="24" t="s">
+      <c r="B217" s="24" t="s">
         <v>863</v>
       </c>
-      <c r="C212" s="133" t="s">
+      <c r="C217" s="133" t="s">
         <v>415</v>
       </c>
-      <c r="D212" s="133" t="s">
+      <c r="D217" s="133" t="s">
         <v>415</v>
       </c>
-      <c r="E212" s="144"/>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A213" s="87" t="s">
+      <c r="E217" s="144"/>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A218" s="87" t="s">
         <v>864</v>
       </c>
-      <c r="B213" s="25" t="s">
+      <c r="B218" s="25" t="s">
         <v>865</v>
       </c>
-      <c r="C213" s="134" t="s">
+      <c r="C218" s="134" t="s">
         <v>415</v>
       </c>
-      <c r="D213" s="134" t="s">
+      <c r="D218" s="134" t="s">
         <v>415</v>
       </c>
-      <c r="E213" s="144"/>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A214" s="89" t="s">
+      <c r="E218" s="144"/>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A219" s="89" t="s">
         <v>866</v>
       </c>
-      <c r="B214" s="26" t="s">
+      <c r="B219" s="26" t="s">
         <v>867</v>
       </c>
-      <c r="C214" s="135" t="s">
+      <c r="C219" s="135" t="s">
         <v>415</v>
       </c>
-      <c r="D214" s="135" t="s">
+      <c r="D219" s="135" t="s">
         <v>415</v>
       </c>
-      <c r="E214" s="144"/>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A215" s="89" t="s">
+      <c r="E219" s="144"/>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A220" s="89" t="s">
         <v>868</v>
       </c>
-      <c r="B215" s="26" t="s">
+      <c r="B220" s="26" t="s">
         <v>869</v>
       </c>
-      <c r="C215" s="135" t="s">
+      <c r="C220" s="135" t="s">
         <v>415</v>
       </c>
-      <c r="D215" s="135" t="s">
+      <c r="D220" s="135" t="s">
         <v>415</v>
       </c>
-      <c r="E215" s="144"/>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A216" s="96" t="s">
-        <v>870</v>
-      </c>
-      <c r="B216" s="33" t="s">
-        <v>871</v>
-      </c>
-      <c r="C216" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="D216" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="E216" s="144"/>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A217" s="96" t="s">
-        <v>872</v>
-      </c>
-      <c r="B217" s="33" t="s">
-        <v>873</v>
-      </c>
-      <c r="C217" s="107" t="s">
-        <v>34</v>
-      </c>
-      <c r="D217" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="E217" s="144" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A218" s="96" t="s">
-        <v>874</v>
-      </c>
-      <c r="B218" s="33" t="s">
-        <v>875</v>
-      </c>
-      <c r="C218" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="D218" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="E218" s="144"/>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A219" s="96" t="s">
-        <v>876</v>
-      </c>
-      <c r="B219" s="33" t="s">
-        <v>877</v>
-      </c>
-      <c r="C219" s="107" t="s">
-        <v>34</v>
-      </c>
-      <c r="D219" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="E219" s="144" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A220" s="96" t="s">
-        <v>878</v>
-      </c>
-      <c r="B220" s="33" t="s">
-        <v>879</v>
-      </c>
-      <c r="C220" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="D220" s="107" t="s">
-        <v>93</v>
-      </c>
       <c r="E220" s="144"/>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A221" s="96" t="s">
-        <v>880</v>
-      </c>
-      <c r="B221" s="33" t="s">
-        <v>881</v>
-      </c>
-      <c r="C221" s="107" t="s">
-        <v>34</v>
-      </c>
-      <c r="D221" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="E221" s="144" t="s">
-        <v>179</v>
-      </c>
+      <c r="A221" s="89" t="s">
+        <v>2976</v>
+      </c>
+      <c r="B221" s="26" t="s">
+        <v>2935</v>
+      </c>
+      <c r="C221" s="135" t="s">
+        <v>415</v>
+      </c>
+      <c r="D221" s="135" t="s">
+        <v>415</v>
+      </c>
+      <c r="E221" s="144"/>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="96" t="s">
-        <v>882</v>
+        <v>870</v>
       </c>
       <c r="B222" s="33" t="s">
-        <v>883</v>
+        <v>871</v>
       </c>
       <c r="C222" s="107" t="s">
         <v>93</v>
@@ -17146,10 +17582,10 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="96" t="s">
-        <v>884</v>
+        <v>872</v>
       </c>
       <c r="B223" s="33" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="C223" s="107" t="s">
         <v>34</v>
@@ -17163,10 +17599,10 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="96" t="s">
-        <v>886</v>
+        <v>874</v>
       </c>
       <c r="B224" s="33" t="s">
-        <v>887</v>
+        <v>875</v>
       </c>
       <c r="C224" s="107" t="s">
         <v>93</v>
@@ -17178,10 +17614,10 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="96" t="s">
-        <v>888</v>
+        <v>876</v>
       </c>
       <c r="B225" s="33" t="s">
-        <v>889</v>
+        <v>877</v>
       </c>
       <c r="C225" s="107" t="s">
         <v>34</v>
@@ -17195,10 +17631,10 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="96" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="B226" s="33" t="s">
-        <v>891</v>
+        <v>879</v>
       </c>
       <c r="C226" s="107" t="s">
         <v>93</v>
@@ -17210,10 +17646,10 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="96" t="s">
-        <v>892</v>
+        <v>880</v>
       </c>
       <c r="B227" s="33" t="s">
-        <v>893</v>
+        <v>881</v>
       </c>
       <c r="C227" s="107" t="s">
         <v>34</v>
@@ -17227,10 +17663,10 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="96" t="s">
-        <v>894</v>
+        <v>882</v>
       </c>
       <c r="B228" s="33" t="s">
-        <v>895</v>
+        <v>883</v>
       </c>
       <c r="C228" s="107" t="s">
         <v>93</v>
@@ -17242,10 +17678,10 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="96" t="s">
-        <v>896</v>
+        <v>884</v>
       </c>
       <c r="B229" s="33" t="s">
-        <v>897</v>
+        <v>885</v>
       </c>
       <c r="C229" s="107" t="s">
         <v>34</v>
@@ -17259,10 +17695,10 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="96" t="s">
-        <v>898</v>
+        <v>886</v>
       </c>
       <c r="B230" s="33" t="s">
-        <v>899</v>
+        <v>887</v>
       </c>
       <c r="C230" s="107" t="s">
         <v>93</v>
@@ -17274,10 +17710,10 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="96" t="s">
-        <v>900</v>
+        <v>888</v>
       </c>
       <c r="B231" s="33" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
       <c r="C231" s="107" t="s">
         <v>34</v>
@@ -17291,10 +17727,10 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="96" t="s">
-        <v>902</v>
+        <v>890</v>
       </c>
       <c r="B232" s="33" t="s">
-        <v>903</v>
+        <v>891</v>
       </c>
       <c r="C232" s="107" t="s">
         <v>93</v>
@@ -17306,10 +17742,10 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="96" t="s">
-        <v>904</v>
+        <v>892</v>
       </c>
       <c r="B233" s="33" t="s">
-        <v>905</v>
+        <v>893</v>
       </c>
       <c r="C233" s="107" t="s">
         <v>34</v>
@@ -17323,10 +17759,10 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="96" t="s">
-        <v>906</v>
+        <v>894</v>
       </c>
       <c r="B234" s="33" t="s">
-        <v>907</v>
+        <v>895</v>
       </c>
       <c r="C234" s="107" t="s">
         <v>93</v>
@@ -17338,10 +17774,10 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="96" t="s">
-        <v>908</v>
+        <v>896</v>
       </c>
       <c r="B235" s="33" t="s">
-        <v>909</v>
+        <v>897</v>
       </c>
       <c r="C235" s="107" t="s">
         <v>34</v>
@@ -17355,10 +17791,10 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="96" t="s">
-        <v>910</v>
+        <v>898</v>
       </c>
       <c r="B236" s="33" t="s">
-        <v>911</v>
+        <v>899</v>
       </c>
       <c r="C236" s="107" t="s">
         <v>93</v>
@@ -17370,10 +17806,10 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" s="96" t="s">
-        <v>912</v>
+        <v>900</v>
       </c>
       <c r="B237" s="33" t="s">
-        <v>913</v>
+        <v>901</v>
       </c>
       <c r="C237" s="107" t="s">
         <v>34</v>
@@ -17386,101 +17822,107 @@
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A238" s="97" t="s">
-        <v>914</v>
-      </c>
-      <c r="B238" s="34" t="s">
-        <v>915</v>
-      </c>
-      <c r="C238" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="D238" s="147" t="s">
-        <v>415</v>
+      <c r="A238" s="96" t="s">
+        <v>902</v>
+      </c>
+      <c r="B238" s="33" t="s">
+        <v>903</v>
+      </c>
+      <c r="C238" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="D238" s="107" t="s">
+        <v>93</v>
       </c>
       <c r="E238" s="144"/>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A239" s="97" t="s">
-        <v>916</v>
-      </c>
-      <c r="B239" s="34" t="s">
-        <v>917</v>
-      </c>
-      <c r="C239" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="D239" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="E239" s="144"/>
+      <c r="A239" s="96" t="s">
+        <v>904</v>
+      </c>
+      <c r="B239" s="33" t="s">
+        <v>905</v>
+      </c>
+      <c r="C239" s="107" t="s">
+        <v>34</v>
+      </c>
+      <c r="D239" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="E239" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A240" s="97" t="s">
-        <v>918</v>
-      </c>
-      <c r="B240" s="34" t="s">
-        <v>919</v>
-      </c>
-      <c r="C240" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="D240" s="147" t="s">
-        <v>415</v>
+      <c r="A240" s="96" t="s">
+        <v>906</v>
+      </c>
+      <c r="B240" s="33" t="s">
+        <v>907</v>
+      </c>
+      <c r="C240" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="D240" s="107" t="s">
+        <v>93</v>
       </c>
       <c r="E240" s="144"/>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A241" s="97" t="s">
-        <v>920</v>
-      </c>
-      <c r="B241" s="34" t="s">
-        <v>921</v>
-      </c>
-      <c r="C241" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="D241" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="E241" s="144"/>
+      <c r="A241" s="96" t="s">
+        <v>908</v>
+      </c>
+      <c r="B241" s="33" t="s">
+        <v>909</v>
+      </c>
+      <c r="C241" s="107" t="s">
+        <v>34</v>
+      </c>
+      <c r="D241" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="E241" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A242" s="97" t="s">
-        <v>922</v>
-      </c>
-      <c r="B242" s="34" t="s">
-        <v>923</v>
-      </c>
-      <c r="C242" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="D242" s="147" t="s">
-        <v>415</v>
+      <c r="A242" s="96" t="s">
+        <v>910</v>
+      </c>
+      <c r="B242" s="33" t="s">
+        <v>911</v>
+      </c>
+      <c r="C242" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="D242" s="107" t="s">
+        <v>93</v>
       </c>
       <c r="E242" s="144"/>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A243" s="97" t="s">
-        <v>924</v>
-      </c>
-      <c r="B243" s="34" t="s">
-        <v>925</v>
-      </c>
-      <c r="C243" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="D243" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="E243" s="144"/>
+      <c r="A243" s="96" t="s">
+        <v>912</v>
+      </c>
+      <c r="B243" s="33" t="s">
+        <v>913</v>
+      </c>
+      <c r="C243" s="107" t="s">
+        <v>34</v>
+      </c>
+      <c r="D243" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="E243" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="97" t="s">
-        <v>926</v>
+        <v>914</v>
       </c>
       <c r="B244" s="34" t="s">
-        <v>927</v>
+        <v>915</v>
       </c>
       <c r="C244" s="147" t="s">
         <v>415</v>
@@ -17492,10 +17934,10 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="97" t="s">
-        <v>928</v>
+        <v>916</v>
       </c>
       <c r="B245" s="34" t="s">
-        <v>929</v>
+        <v>917</v>
       </c>
       <c r="C245" s="147" t="s">
         <v>415</v>
@@ -17507,10 +17949,10 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="97" t="s">
-        <v>930</v>
+        <v>918</v>
       </c>
       <c r="B246" s="34" t="s">
-        <v>931</v>
+        <v>919</v>
       </c>
       <c r="C246" s="147" t="s">
         <v>415</v>
@@ -17522,10 +17964,10 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="97" t="s">
-        <v>932</v>
+        <v>920</v>
       </c>
       <c r="B247" s="34" t="s">
-        <v>933</v>
+        <v>921</v>
       </c>
       <c r="C247" s="147" t="s">
         <v>415</v>
@@ -17535,12 +17977,12 @@
       </c>
       <c r="E247" s="144"/>
     </row>
-    <row r="248" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="97" t="s">
-        <v>934</v>
+        <v>922</v>
       </c>
       <c r="B248" s="34" t="s">
-        <v>935</v>
+        <v>923</v>
       </c>
       <c r="C248" s="147" t="s">
         <v>415</v>
@@ -17549,6 +17991,96 @@
         <v>415</v>
       </c>
       <c r="E248" s="144"/>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A249" s="97" t="s">
+        <v>924</v>
+      </c>
+      <c r="B249" s="34" t="s">
+        <v>925</v>
+      </c>
+      <c r="C249" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="D249" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="E249" s="144"/>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A250" s="97" t="s">
+        <v>926</v>
+      </c>
+      <c r="B250" s="34" t="s">
+        <v>927</v>
+      </c>
+      <c r="C250" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="D250" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="E250" s="144"/>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A251" s="97" t="s">
+        <v>928</v>
+      </c>
+      <c r="B251" s="34" t="s">
+        <v>929</v>
+      </c>
+      <c r="C251" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="D251" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="E251" s="144"/>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A252" s="97" t="s">
+        <v>930</v>
+      </c>
+      <c r="B252" s="34" t="s">
+        <v>931</v>
+      </c>
+      <c r="C252" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="D252" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="E252" s="144"/>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A253" s="97" t="s">
+        <v>932</v>
+      </c>
+      <c r="B253" s="34" t="s">
+        <v>933</v>
+      </c>
+      <c r="C253" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="D253" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="E253" s="144"/>
+    </row>
+    <row r="254" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A254" s="97" t="s">
+        <v>934</v>
+      </c>
+      <c r="B254" s="34" t="s">
+        <v>935</v>
+      </c>
+      <c r="C254" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="D254" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="E254" s="144"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17558,11 +18090,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:IN248"/>
+  <dimension ref="A1:IN254"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A249" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A222" sqref="A222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -20578,10 +21110,10 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="77" t="s">
-        <v>1311</v>
+        <v>2978</v>
       </c>
       <c r="B192" s="78" t="s">
-        <v>1312</v>
+        <v>2936</v>
       </c>
       <c r="C192" s="78" t="s">
         <v>93</v>
@@ -20593,10 +21125,10 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="77" t="s">
-        <v>1313</v>
+        <v>2979</v>
       </c>
       <c r="B193" s="78" t="s">
-        <v>1314</v>
+        <v>2937</v>
       </c>
       <c r="C193" s="78" t="s">
         <v>34</v>
@@ -20609,63 +21141,63 @@
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A194" s="79" t="s">
+      <c r="A194" s="77" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B194" s="78" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C194" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="D194" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="E194" s="144"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A195" s="77" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B195" s="78" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C195" s="78" t="s">
+        <v>34</v>
+      </c>
+      <c r="D195" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="E195" s="144" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A196" s="79" t="s">
         <v>1315</v>
       </c>
-      <c r="B194" s="80" t="s">
+      <c r="B196" s="80" t="s">
         <v>1316</v>
       </c>
-      <c r="C194" s="80" t="s">
-        <v>93</v>
-      </c>
-      <c r="D194" s="80" t="s">
-        <v>93</v>
-      </c>
-      <c r="E194" s="144"/>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A195" s="79" t="s">
+      <c r="C196" s="80" t="s">
+        <v>93</v>
+      </c>
+      <c r="D196" s="80" t="s">
+        <v>93</v>
+      </c>
+      <c r="E196" s="144"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A197" s="79" t="s">
         <v>1317</v>
       </c>
-      <c r="B195" s="80" t="s">
+      <c r="B197" s="80" t="s">
         <v>1318</v>
       </c>
-      <c r="C195" s="80" t="s">
+      <c r="C197" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="D195" s="80" t="s">
-        <v>93</v>
-      </c>
-      <c r="E195" s="144" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A196" s="81" t="s">
-        <v>1319</v>
-      </c>
-      <c r="B196" s="82" t="s">
-        <v>1320</v>
-      </c>
-      <c r="C196" s="148" t="s">
-        <v>93</v>
-      </c>
-      <c r="D196" s="148" t="s">
-        <v>93</v>
-      </c>
-      <c r="E196" s="144"/>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A197" s="81" t="s">
-        <v>1321</v>
-      </c>
-      <c r="B197" s="82" t="s">
-        <v>1322</v>
-      </c>
-      <c r="C197" s="148" t="s">
-        <v>34</v>
-      </c>
-      <c r="D197" s="148" t="s">
+      <c r="D197" s="80" t="s">
         <v>93</v>
       </c>
       <c r="E197" s="144" t="s">
@@ -20674,10 +21206,10 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="81" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
       <c r="B198" s="82" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
       <c r="C198" s="148" t="s">
         <v>93</v>
@@ -20689,10 +21221,10 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="81" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
       <c r="B199" s="82" t="s">
-        <v>1326</v>
+        <v>1322</v>
       </c>
       <c r="C199" s="148" t="s">
         <v>34</v>
@@ -20705,71 +21237,75 @@
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A200" s="83" t="s">
-        <v>1327</v>
-      </c>
-      <c r="B200" s="84" t="s">
-        <v>1328</v>
-      </c>
-      <c r="C200" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="D200" s="132" t="s">
-        <v>415</v>
+      <c r="A200" s="81" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B200" s="82" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C200" s="148" t="s">
+        <v>93</v>
+      </c>
+      <c r="D200" s="148" t="s">
+        <v>93</v>
       </c>
       <c r="E200" s="144"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A201" s="83" t="s">
-        <v>1329</v>
-      </c>
-      <c r="B201" s="84" t="s">
-        <v>1330</v>
-      </c>
-      <c r="C201" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="D201" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="E201" s="144"/>
+      <c r="A201" s="81" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B201" s="82" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C201" s="148" t="s">
+        <v>34</v>
+      </c>
+      <c r="D201" s="148" t="s">
+        <v>93</v>
+      </c>
+      <c r="E201" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A202" s="83" t="s">
-        <v>1331</v>
-      </c>
-      <c r="B202" s="84" t="s">
-        <v>1332</v>
-      </c>
-      <c r="C202" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="D202" s="132" t="s">
-        <v>415</v>
+      <c r="A202" s="81" t="s">
+        <v>2980</v>
+      </c>
+      <c r="B202" s="82" t="s">
+        <v>2940</v>
+      </c>
+      <c r="C202" s="148" t="s">
+        <v>93</v>
+      </c>
+      <c r="D202" s="148" t="s">
+        <v>93</v>
       </c>
       <c r="E202" s="144"/>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A203" s="83" t="s">
-        <v>1333</v>
-      </c>
-      <c r="B203" s="84" t="s">
-        <v>1334</v>
-      </c>
-      <c r="C203" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="D203" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="E203" s="144"/>
+      <c r="A203" s="81" t="s">
+        <v>2981</v>
+      </c>
+      <c r="B203" s="82" t="s">
+        <v>2941</v>
+      </c>
+      <c r="C203" s="148" t="s">
+        <v>34</v>
+      </c>
+      <c r="D203" s="148" t="s">
+        <v>93</v>
+      </c>
+      <c r="E203" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="83" t="s">
-        <v>1335</v>
+        <v>1327</v>
       </c>
       <c r="B204" s="84" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
       <c r="C204" s="132" t="s">
         <v>415</v>
@@ -20781,10 +21317,10 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="83" t="s">
-        <v>1337</v>
+        <v>1329</v>
       </c>
       <c r="B205" s="84" t="s">
-        <v>1338</v>
+        <v>1330</v>
       </c>
       <c r="C205" s="132" t="s">
         <v>415</v>
@@ -20796,10 +21332,10 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="83" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
       <c r="B206" s="84" t="s">
-        <v>1340</v>
+        <v>1332</v>
       </c>
       <c r="C206" s="132" t="s">
         <v>415</v>
@@ -20811,10 +21347,10 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="83" t="s">
-        <v>1341</v>
+        <v>1333</v>
       </c>
       <c r="B207" s="84" t="s">
-        <v>1342</v>
+        <v>1334</v>
       </c>
       <c r="C207" s="132" t="s">
         <v>415</v>
@@ -20826,10 +21362,10 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="83" t="s">
-        <v>1343</v>
+        <v>1335</v>
       </c>
       <c r="B208" s="84" t="s">
-        <v>1344</v>
+        <v>1336</v>
       </c>
       <c r="C208" s="132" t="s">
         <v>415</v>
@@ -20841,10 +21377,10 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="83" t="s">
-        <v>1345</v>
+        <v>1337</v>
       </c>
       <c r="B209" s="84" t="s">
-        <v>1346</v>
+        <v>1338</v>
       </c>
       <c r="C209" s="132" t="s">
         <v>415</v>
@@ -20856,10 +21392,10 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="83" t="s">
-        <v>1347</v>
+        <v>1339</v>
       </c>
       <c r="B210" s="84" t="s">
-        <v>1348</v>
+        <v>1340</v>
       </c>
       <c r="C210" s="132" t="s">
         <v>415</v>
@@ -20870,182 +21406,176 @@
       <c r="E210" s="144"/>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A211" s="85" t="s">
+      <c r="A211" s="83" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B211" s="84" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C211" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="D211" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="E211" s="144"/>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A212" s="83" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B212" s="84" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C212" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="D212" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="E212" s="144"/>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A213" s="83" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B213" s="84" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C213" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="D213" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="E213" s="144"/>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A214" s="83" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B214" s="84" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C214" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="D214" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="E214" s="144"/>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A215" s="85" t="s">
         <v>1349</v>
       </c>
-      <c r="B211" s="86" t="s">
+      <c r="B215" s="86" t="s">
         <v>1350</v>
       </c>
-      <c r="C211" s="133" t="s">
+      <c r="C215" s="133" t="s">
         <v>415</v>
       </c>
-      <c r="D211" s="133" t="s">
+      <c r="D215" s="133" t="s">
         <v>415</v>
       </c>
-      <c r="E211" s="144"/>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A212" s="85" t="s">
+      <c r="E215" s="144"/>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A216" s="85" t="s">
+        <v>2982</v>
+      </c>
+      <c r="B216" s="86" t="s">
+        <v>2938</v>
+      </c>
+      <c r="C216" s="133" t="s">
+        <v>415</v>
+      </c>
+      <c r="D216" s="133" t="s">
+        <v>415</v>
+      </c>
+      <c r="E216" s="144"/>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A217" s="85" t="s">
         <v>1351</v>
       </c>
-      <c r="B212" s="86" t="s">
+      <c r="B217" s="86" t="s">
         <v>1352</v>
       </c>
-      <c r="C212" s="133" t="s">
+      <c r="C217" s="133" t="s">
         <v>415</v>
       </c>
-      <c r="D212" s="133" t="s">
+      <c r="D217" s="133" t="s">
         <v>415</v>
       </c>
-      <c r="E212" s="144"/>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A213" s="87" t="s">
+      <c r="E217" s="144"/>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A218" s="87" t="s">
         <v>1353</v>
       </c>
-      <c r="B213" s="88" t="s">
+      <c r="B218" s="88" t="s">
         <v>1354</v>
       </c>
-      <c r="C213" s="134" t="s">
+      <c r="C218" s="134" t="s">
         <v>415</v>
       </c>
-      <c r="D213" s="134" t="s">
+      <c r="D218" s="134" t="s">
         <v>415</v>
       </c>
-      <c r="E213" s="144"/>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A214" s="89" t="s">
+      <c r="E218" s="144"/>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A219" s="89" t="s">
         <v>1355</v>
       </c>
-      <c r="B214" s="90" t="s">
+      <c r="B219" s="90" t="s">
         <v>1356</v>
       </c>
-      <c r="C214" s="135" t="s">
+      <c r="C219" s="135" t="s">
         <v>415</v>
       </c>
-      <c r="D214" s="135" t="s">
+      <c r="D219" s="135" t="s">
         <v>415</v>
       </c>
-      <c r="E214" s="144"/>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A215" s="89" t="s">
+      <c r="E219" s="144"/>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A220" s="89" t="s">
         <v>1357</v>
       </c>
-      <c r="B215" s="90" t="s">
+      <c r="B220" s="90" t="s">
         <v>1358</v>
       </c>
-      <c r="C215" s="135" t="s">
+      <c r="C220" s="135" t="s">
         <v>415</v>
       </c>
-      <c r="D215" s="135" t="s">
+      <c r="D220" s="135" t="s">
         <v>415</v>
       </c>
-      <c r="E215" s="144"/>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A216" s="96" t="s">
-        <v>1359</v>
-      </c>
-      <c r="B216" s="107" t="s">
-        <v>1360</v>
-      </c>
-      <c r="C216" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="D216" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="E216" s="144"/>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A217" s="96" t="s">
-        <v>1361</v>
-      </c>
-      <c r="B217" s="107" t="s">
-        <v>1362</v>
-      </c>
-      <c r="C217" s="107" t="s">
-        <v>34</v>
-      </c>
-      <c r="D217" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="E217" s="144" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A218" s="96" t="s">
-        <v>1363</v>
-      </c>
-      <c r="B218" s="107" t="s">
-        <v>1364</v>
-      </c>
-      <c r="C218" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="D218" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="E218" s="144"/>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A219" s="96" t="s">
-        <v>1365</v>
-      </c>
-      <c r="B219" s="107" t="s">
-        <v>1366</v>
-      </c>
-      <c r="C219" s="107" t="s">
-        <v>34</v>
-      </c>
-      <c r="D219" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="E219" s="144" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A220" s="96" t="s">
-        <v>1367</v>
-      </c>
-      <c r="B220" s="107" t="s">
-        <v>1368</v>
-      </c>
-      <c r="C220" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="D220" s="107" t="s">
-        <v>93</v>
-      </c>
       <c r="E220" s="144"/>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A221" s="96" t="s">
-        <v>1369</v>
-      </c>
-      <c r="B221" s="107" t="s">
-        <v>1370</v>
-      </c>
-      <c r="C221" s="107" t="s">
-        <v>34</v>
-      </c>
-      <c r="D221" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="E221" s="144" t="s">
-        <v>179</v>
-      </c>
+      <c r="A221" s="89" t="s">
+        <v>2983</v>
+      </c>
+      <c r="B221" s="90" t="s">
+        <v>2939</v>
+      </c>
+      <c r="C221" s="135" t="s">
+        <v>415</v>
+      </c>
+      <c r="D221" s="135" t="s">
+        <v>415</v>
+      </c>
+      <c r="E221" s="144"/>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="96" t="s">
-        <v>1371</v>
+        <v>1359</v>
       </c>
       <c r="B222" s="107" t="s">
-        <v>1372</v>
+        <v>1360</v>
       </c>
       <c r="C222" s="107" t="s">
         <v>93</v>
@@ -21057,10 +21587,10 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="96" t="s">
-        <v>1373</v>
+        <v>1361</v>
       </c>
       <c r="B223" s="107" t="s">
-        <v>1374</v>
+        <v>1362</v>
       </c>
       <c r="C223" s="107" t="s">
         <v>34</v>
@@ -21074,10 +21604,10 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="96" t="s">
-        <v>1375</v>
+        <v>1363</v>
       </c>
       <c r="B224" s="107" t="s">
-        <v>1376</v>
+        <v>1364</v>
       </c>
       <c r="C224" s="107" t="s">
         <v>93</v>
@@ -21089,10 +21619,10 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="96" t="s">
-        <v>1377</v>
+        <v>1365</v>
       </c>
       <c r="B225" s="107" t="s">
-        <v>1378</v>
+        <v>1366</v>
       </c>
       <c r="C225" s="107" t="s">
         <v>34</v>
@@ -21106,10 +21636,10 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="96" t="s">
-        <v>1379</v>
+        <v>1367</v>
       </c>
       <c r="B226" s="107" t="s">
-        <v>1380</v>
+        <v>1368</v>
       </c>
       <c r="C226" s="107" t="s">
         <v>93</v>
@@ -21121,10 +21651,10 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="96" t="s">
-        <v>1381</v>
+        <v>1369</v>
       </c>
       <c r="B227" s="107" t="s">
-        <v>1382</v>
+        <v>1370</v>
       </c>
       <c r="C227" s="107" t="s">
         <v>34</v>
@@ -21138,10 +21668,10 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="96" t="s">
-        <v>1383</v>
+        <v>1371</v>
       </c>
       <c r="B228" s="107" t="s">
-        <v>1384</v>
+        <v>1372</v>
       </c>
       <c r="C228" s="107" t="s">
         <v>93</v>
@@ -21153,10 +21683,10 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="96" t="s">
-        <v>1385</v>
+        <v>1373</v>
       </c>
       <c r="B229" s="107" t="s">
-        <v>1386</v>
+        <v>1374</v>
       </c>
       <c r="C229" s="107" t="s">
         <v>34</v>
@@ -21170,10 +21700,10 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="96" t="s">
-        <v>1387</v>
+        <v>1375</v>
       </c>
       <c r="B230" s="107" t="s">
-        <v>1388</v>
+        <v>1376</v>
       </c>
       <c r="C230" s="107" t="s">
         <v>93</v>
@@ -21185,10 +21715,10 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="96" t="s">
-        <v>1389</v>
+        <v>1377</v>
       </c>
       <c r="B231" s="107" t="s">
-        <v>1390</v>
+        <v>1378</v>
       </c>
       <c r="C231" s="107" t="s">
         <v>34</v>
@@ -21202,10 +21732,10 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="96" t="s">
-        <v>1391</v>
+        <v>1379</v>
       </c>
       <c r="B232" s="107" t="s">
-        <v>1392</v>
+        <v>1380</v>
       </c>
       <c r="C232" s="107" t="s">
         <v>93</v>
@@ -21217,10 +21747,10 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="96" t="s">
-        <v>1393</v>
+        <v>1381</v>
       </c>
       <c r="B233" s="107" t="s">
-        <v>1394</v>
+        <v>1382</v>
       </c>
       <c r="C233" s="107" t="s">
         <v>34</v>
@@ -21234,10 +21764,10 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="96" t="s">
-        <v>1395</v>
+        <v>1383</v>
       </c>
       <c r="B234" s="107" t="s">
-        <v>1396</v>
+        <v>1384</v>
       </c>
       <c r="C234" s="107" t="s">
         <v>93</v>
@@ -21249,10 +21779,10 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="96" t="s">
-        <v>1397</v>
+        <v>1385</v>
       </c>
       <c r="B235" s="107" t="s">
-        <v>1398</v>
+        <v>1386</v>
       </c>
       <c r="C235" s="107" t="s">
         <v>34</v>
@@ -21266,10 +21796,10 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="96" t="s">
-        <v>1399</v>
+        <v>1387</v>
       </c>
       <c r="B236" s="107" t="s">
-        <v>1400</v>
+        <v>1388</v>
       </c>
       <c r="C236" s="107" t="s">
         <v>93</v>
@@ -21281,10 +21811,10 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" s="96" t="s">
-        <v>1401</v>
+        <v>1389</v>
       </c>
       <c r="B237" s="107" t="s">
-        <v>1402</v>
+        <v>1390</v>
       </c>
       <c r="C237" s="107" t="s">
         <v>34</v>
@@ -21297,101 +21827,107 @@
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A238" s="97" t="s">
-        <v>1403</v>
-      </c>
-      <c r="B238" s="108" t="s">
-        <v>1404</v>
-      </c>
-      <c r="C238" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="D238" s="147" t="s">
-        <v>415</v>
+      <c r="A238" s="96" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B238" s="107" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C238" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="D238" s="107" t="s">
+        <v>93</v>
       </c>
       <c r="E238" s="144"/>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A239" s="97" t="s">
-        <v>1405</v>
-      </c>
-      <c r="B239" s="108" t="s">
-        <v>1406</v>
-      </c>
-      <c r="C239" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="D239" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="E239" s="144"/>
+      <c r="A239" s="96" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B239" s="107" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C239" s="107" t="s">
+        <v>34</v>
+      </c>
+      <c r="D239" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="E239" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A240" s="97" t="s">
-        <v>1407</v>
-      </c>
-      <c r="B240" s="108" t="s">
-        <v>1408</v>
-      </c>
-      <c r="C240" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="D240" s="147" t="s">
-        <v>415</v>
+      <c r="A240" s="96" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B240" s="107" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C240" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="D240" s="107" t="s">
+        <v>93</v>
       </c>
       <c r="E240" s="144"/>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A241" s="97" t="s">
-        <v>1409</v>
-      </c>
-      <c r="B241" s="108" t="s">
-        <v>1410</v>
-      </c>
-      <c r="C241" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="D241" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="E241" s="144"/>
+      <c r="A241" s="96" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B241" s="107" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C241" s="107" t="s">
+        <v>34</v>
+      </c>
+      <c r="D241" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="E241" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A242" s="97" t="s">
-        <v>1411</v>
-      </c>
-      <c r="B242" s="108" t="s">
-        <v>1412</v>
-      </c>
-      <c r="C242" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="D242" s="147" t="s">
-        <v>415</v>
+      <c r="A242" s="96" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B242" s="107" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C242" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="D242" s="107" t="s">
+        <v>93</v>
       </c>
       <c r="E242" s="144"/>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A243" s="97" t="s">
-        <v>1413</v>
-      </c>
-      <c r="B243" s="108" t="s">
-        <v>1414</v>
-      </c>
-      <c r="C243" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="D243" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="E243" s="144"/>
+      <c r="A243" s="96" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B243" s="107" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C243" s="107" t="s">
+        <v>34</v>
+      </c>
+      <c r="D243" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="E243" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="97" t="s">
-        <v>1415</v>
+        <v>1403</v>
       </c>
       <c r="B244" s="108" t="s">
-        <v>1416</v>
+        <v>1404</v>
       </c>
       <c r="C244" s="147" t="s">
         <v>415</v>
@@ -21403,10 +21939,10 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="97" t="s">
-        <v>1417</v>
+        <v>1405</v>
       </c>
       <c r="B245" s="108" t="s">
-        <v>1418</v>
+        <v>1406</v>
       </c>
       <c r="C245" s="147" t="s">
         <v>415</v>
@@ -21418,10 +21954,10 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="97" t="s">
-        <v>1419</v>
+        <v>1407</v>
       </c>
       <c r="B246" s="108" t="s">
-        <v>1420</v>
+        <v>1408</v>
       </c>
       <c r="C246" s="147" t="s">
         <v>415</v>
@@ -21433,10 +21969,10 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="97" t="s">
-        <v>1421</v>
+        <v>1409</v>
       </c>
       <c r="B247" s="108" t="s">
-        <v>1422</v>
+        <v>1410</v>
       </c>
       <c r="C247" s="147" t="s">
         <v>415</v>
@@ -21446,12 +21982,12 @@
       </c>
       <c r="E247" s="144"/>
     </row>
-    <row r="248" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="97" t="s">
-        <v>1423</v>
+        <v>1411</v>
       </c>
       <c r="B248" s="108" t="s">
-        <v>1424</v>
+        <v>1412</v>
       </c>
       <c r="C248" s="147" t="s">
         <v>415</v>
@@ -21460,6 +21996,96 @@
         <v>415</v>
       </c>
       <c r="E248" s="144"/>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A249" s="97" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B249" s="108" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C249" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="D249" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="E249" s="144"/>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A250" s="97" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B250" s="108" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C250" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="D250" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="E250" s="144"/>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A251" s="97" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B251" s="108" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C251" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="D251" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="E251" s="144"/>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A252" s="97" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B252" s="108" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C252" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="D252" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="E252" s="144"/>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A253" s="97" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B253" s="108" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C253" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="D253" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="E253" s="144"/>
+    </row>
+    <row r="254" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A254" s="97" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B254" s="108" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C254" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="D254" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="E254" s="144"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21469,11 +22095,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:IN248"/>
+  <dimension ref="A1:IN254"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A198" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A222" sqref="A222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -24489,10 +25115,10 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="113" t="s">
-        <v>1799</v>
+        <v>2984</v>
       </c>
       <c r="B192" s="114" t="s">
-        <v>1800</v>
+        <v>2942</v>
       </c>
       <c r="C192" s="78" t="s">
         <v>93</v>
@@ -24504,10 +25130,10 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="113" t="s">
-        <v>1801</v>
+        <v>2985</v>
       </c>
       <c r="B193" s="114" t="s">
-        <v>1802</v>
+        <v>2943</v>
       </c>
       <c r="C193" s="78" t="s">
         <v>34</v>
@@ -24520,63 +25146,63 @@
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A194" s="115" t="s">
+      <c r="A194" s="113" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B194" s="114" t="s">
+        <v>1800</v>
+      </c>
+      <c r="C194" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="D194" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="E194" s="144"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A195" s="113" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B195" s="114" t="s">
+        <v>1802</v>
+      </c>
+      <c r="C195" s="78" t="s">
+        <v>34</v>
+      </c>
+      <c r="D195" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="E195" s="144" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A196" s="115" t="s">
         <v>1803</v>
       </c>
-      <c r="B194" s="116" t="s">
+      <c r="B196" s="116" t="s">
         <v>1804</v>
       </c>
-      <c r="C194" s="80" t="s">
-        <v>93</v>
-      </c>
-      <c r="D194" s="80" t="s">
-        <v>93</v>
-      </c>
-      <c r="E194" s="144"/>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A195" s="115" t="s">
+      <c r="C196" s="80" t="s">
+        <v>93</v>
+      </c>
+      <c r="D196" s="80" t="s">
+        <v>93</v>
+      </c>
+      <c r="E196" s="144"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A197" s="115" t="s">
         <v>1805</v>
       </c>
-      <c r="B195" s="116" t="s">
+      <c r="B197" s="116" t="s">
         <v>1806</v>
       </c>
-      <c r="C195" s="80" t="s">
+      <c r="C197" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="D195" s="80" t="s">
-        <v>93</v>
-      </c>
-      <c r="E195" s="144" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A196" s="117" t="s">
-        <v>1807</v>
-      </c>
-      <c r="B196" s="118" t="s">
-        <v>1808</v>
-      </c>
-      <c r="C196" s="148" t="s">
-        <v>93</v>
-      </c>
-      <c r="D196" s="148" t="s">
-        <v>93</v>
-      </c>
-      <c r="E196" s="144"/>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A197" s="117" t="s">
-        <v>1809</v>
-      </c>
-      <c r="B197" s="118" t="s">
-        <v>1810</v>
-      </c>
-      <c r="C197" s="148" t="s">
-        <v>34</v>
-      </c>
-      <c r="D197" s="148" t="s">
+      <c r="D197" s="80" t="s">
         <v>93</v>
       </c>
       <c r="E197" s="144" t="s">
@@ -24585,10 +25211,10 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="117" t="s">
-        <v>1811</v>
+        <v>1807</v>
       </c>
       <c r="B198" s="118" t="s">
-        <v>1812</v>
+        <v>1808</v>
       </c>
       <c r="C198" s="148" t="s">
         <v>93</v>
@@ -24600,10 +25226,10 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="117" t="s">
-        <v>1813</v>
+        <v>1809</v>
       </c>
       <c r="B199" s="118" t="s">
-        <v>1814</v>
+        <v>1810</v>
       </c>
       <c r="C199" s="148" t="s">
         <v>34</v>
@@ -24616,71 +25242,75 @@
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A200" s="83" t="s">
-        <v>1815</v>
-      </c>
-      <c r="B200" s="84" t="s">
-        <v>1816</v>
-      </c>
-      <c r="C200" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="D200" s="132" t="s">
-        <v>415</v>
+      <c r="A200" s="117" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B200" s="118" t="s">
+        <v>1812</v>
+      </c>
+      <c r="C200" s="148" t="s">
+        <v>93</v>
+      </c>
+      <c r="D200" s="148" t="s">
+        <v>93</v>
       </c>
       <c r="E200" s="144"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A201" s="83" t="s">
-        <v>1817</v>
-      </c>
-      <c r="B201" s="84" t="s">
-        <v>1818</v>
-      </c>
-      <c r="C201" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="D201" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="E201" s="144"/>
+      <c r="A201" s="117" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B201" s="118" t="s">
+        <v>1814</v>
+      </c>
+      <c r="C201" s="148" t="s">
+        <v>34</v>
+      </c>
+      <c r="D201" s="148" t="s">
+        <v>93</v>
+      </c>
+      <c r="E201" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A202" s="83" t="s">
-        <v>1819</v>
-      </c>
-      <c r="B202" s="84" t="s">
-        <v>1820</v>
-      </c>
-      <c r="C202" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="D202" s="132" t="s">
-        <v>415</v>
+      <c r="A202" s="117" t="s">
+        <v>2986</v>
+      </c>
+      <c r="B202" s="118" t="s">
+        <v>2944</v>
+      </c>
+      <c r="C202" s="148" t="s">
+        <v>93</v>
+      </c>
+      <c r="D202" s="148" t="s">
+        <v>93</v>
       </c>
       <c r="E202" s="144"/>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A203" s="83" t="s">
-        <v>1821</v>
-      </c>
-      <c r="B203" s="84" t="s">
-        <v>1822</v>
-      </c>
-      <c r="C203" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="D203" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="E203" s="144"/>
+      <c r="A203" s="117" t="s">
+        <v>2987</v>
+      </c>
+      <c r="B203" s="118" t="s">
+        <v>2945</v>
+      </c>
+      <c r="C203" s="148" t="s">
+        <v>34</v>
+      </c>
+      <c r="D203" s="148" t="s">
+        <v>93</v>
+      </c>
+      <c r="E203" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="83" t="s">
-        <v>1823</v>
+        <v>1815</v>
       </c>
       <c r="B204" s="84" t="s">
-        <v>1824</v>
+        <v>1816</v>
       </c>
       <c r="C204" s="132" t="s">
         <v>415</v>
@@ -24692,10 +25322,10 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="83" t="s">
-        <v>1825</v>
+        <v>1817</v>
       </c>
       <c r="B205" s="84" t="s">
-        <v>1826</v>
+        <v>1818</v>
       </c>
       <c r="C205" s="132" t="s">
         <v>415</v>
@@ -24707,10 +25337,10 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="83" t="s">
-        <v>1827</v>
+        <v>1819</v>
       </c>
       <c r="B206" s="84" t="s">
-        <v>1828</v>
+        <v>1820</v>
       </c>
       <c r="C206" s="132" t="s">
         <v>415</v>
@@ -24722,10 +25352,10 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="83" t="s">
-        <v>1829</v>
+        <v>1821</v>
       </c>
       <c r="B207" s="84" t="s">
-        <v>1830</v>
+        <v>1822</v>
       </c>
       <c r="C207" s="132" t="s">
         <v>415</v>
@@ -24737,10 +25367,10 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="83" t="s">
-        <v>1831</v>
+        <v>1823</v>
       </c>
       <c r="B208" s="84" t="s">
-        <v>1832</v>
+        <v>1824</v>
       </c>
       <c r="C208" s="132" t="s">
         <v>415</v>
@@ -24752,10 +25382,10 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="83" t="s">
-        <v>1833</v>
+        <v>1825</v>
       </c>
       <c r="B209" s="84" t="s">
-        <v>1834</v>
+        <v>1826</v>
       </c>
       <c r="C209" s="132" t="s">
         <v>415</v>
@@ -24767,10 +25397,10 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="83" t="s">
-        <v>1835</v>
+        <v>1827</v>
       </c>
       <c r="B210" s="84" t="s">
-        <v>1836</v>
+        <v>1828</v>
       </c>
       <c r="C210" s="132" t="s">
         <v>415</v>
@@ -24781,182 +25411,176 @@
       <c r="E210" s="144"/>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A211" s="85" t="s">
+      <c r="A211" s="83" t="s">
+        <v>1829</v>
+      </c>
+      <c r="B211" s="84" t="s">
+        <v>1830</v>
+      </c>
+      <c r="C211" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="D211" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="E211" s="144"/>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A212" s="83" t="s">
+        <v>1831</v>
+      </c>
+      <c r="B212" s="84" t="s">
+        <v>1832</v>
+      </c>
+      <c r="C212" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="D212" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="E212" s="144"/>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A213" s="83" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B213" s="84" t="s">
+        <v>1834</v>
+      </c>
+      <c r="C213" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="D213" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="E213" s="144"/>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A214" s="83" t="s">
+        <v>1835</v>
+      </c>
+      <c r="B214" s="84" t="s">
+        <v>1836</v>
+      </c>
+      <c r="C214" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="D214" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="E214" s="144"/>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A215" s="85" t="s">
         <v>1837</v>
       </c>
-      <c r="B211" s="86" t="s">
+      <c r="B215" s="86" t="s">
         <v>1838</v>
       </c>
-      <c r="C211" s="133" t="s">
+      <c r="C215" s="133" t="s">
         <v>415</v>
       </c>
-      <c r="D211" s="133" t="s">
+      <c r="D215" s="133" t="s">
         <v>415</v>
       </c>
-      <c r="E211" s="144"/>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A212" s="85" t="s">
+      <c r="E215" s="144"/>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A216" s="85" t="s">
+        <v>2988</v>
+      </c>
+      <c r="B216" s="86" t="s">
+        <v>2946</v>
+      </c>
+      <c r="C216" s="133" t="s">
+        <v>415</v>
+      </c>
+      <c r="D216" s="133" t="s">
+        <v>415</v>
+      </c>
+      <c r="E216" s="144"/>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A217" s="85" t="s">
         <v>1839</v>
       </c>
-      <c r="B212" s="86" t="s">
+      <c r="B217" s="86" t="s">
         <v>1840</v>
       </c>
-      <c r="C212" s="133" t="s">
+      <c r="C217" s="133" t="s">
         <v>415</v>
       </c>
-      <c r="D212" s="133" t="s">
+      <c r="D217" s="133" t="s">
         <v>415</v>
       </c>
-      <c r="E212" s="144"/>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A213" s="87" t="s">
+      <c r="E217" s="144"/>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A218" s="87" t="s">
         <v>1841</v>
       </c>
-      <c r="B213" s="88" t="s">
+      <c r="B218" s="88" t="s">
         <v>1842</v>
       </c>
-      <c r="C213" s="134" t="s">
+      <c r="C218" s="134" t="s">
         <v>415</v>
       </c>
-      <c r="D213" s="134" t="s">
+      <c r="D218" s="134" t="s">
         <v>415</v>
       </c>
-      <c r="E213" s="144"/>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A214" s="89" t="s">
+      <c r="E218" s="144"/>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A219" s="89" t="s">
         <v>1843</v>
       </c>
-      <c r="B214" s="90" t="s">
+      <c r="B219" s="90" t="s">
         <v>1844</v>
       </c>
-      <c r="C214" s="135" t="s">
+      <c r="C219" s="135" t="s">
         <v>415</v>
       </c>
-      <c r="D214" s="135" t="s">
+      <c r="D219" s="135" t="s">
         <v>415</v>
       </c>
-      <c r="E214" s="144"/>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A215" s="89" t="s">
+      <c r="E219" s="144"/>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A220" s="89" t="s">
         <v>1845</v>
       </c>
-      <c r="B215" s="90" t="s">
+      <c r="B220" s="90" t="s">
         <v>1846</v>
       </c>
-      <c r="C215" s="135" t="s">
+      <c r="C220" s="135" t="s">
         <v>415</v>
       </c>
-      <c r="D215" s="135" t="s">
+      <c r="D220" s="135" t="s">
         <v>415</v>
       </c>
-      <c r="E215" s="144"/>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A216" s="119" t="s">
-        <v>1847</v>
-      </c>
-      <c r="B216" s="120" t="s">
-        <v>1848</v>
-      </c>
-      <c r="C216" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="D216" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="E216" s="144"/>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A217" s="119" t="s">
-        <v>1849</v>
-      </c>
-      <c r="B217" s="120" t="s">
-        <v>1850</v>
-      </c>
-      <c r="C217" s="107" t="s">
-        <v>34</v>
-      </c>
-      <c r="D217" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="E217" s="144" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A218" s="119" t="s">
-        <v>1851</v>
-      </c>
-      <c r="B218" s="120" t="s">
-        <v>1852</v>
-      </c>
-      <c r="C218" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="D218" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="E218" s="144"/>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A219" s="119" t="s">
-        <v>1853</v>
-      </c>
-      <c r="B219" s="120" t="s">
-        <v>1854</v>
-      </c>
-      <c r="C219" s="107" t="s">
-        <v>34</v>
-      </c>
-      <c r="D219" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="E219" s="144" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A220" s="119" t="s">
-        <v>1855</v>
-      </c>
-      <c r="B220" s="120" t="s">
-        <v>1856</v>
-      </c>
-      <c r="C220" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="D220" s="107" t="s">
-        <v>93</v>
-      </c>
       <c r="E220" s="144"/>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A221" s="119" t="s">
-        <v>1857</v>
-      </c>
-      <c r="B221" s="120" t="s">
-        <v>1858</v>
-      </c>
-      <c r="C221" s="107" t="s">
-        <v>34</v>
-      </c>
-      <c r="D221" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="E221" s="144" t="s">
-        <v>179</v>
-      </c>
+      <c r="A221" s="89" t="s">
+        <v>2989</v>
+      </c>
+      <c r="B221" s="90" t="s">
+        <v>2947</v>
+      </c>
+      <c r="C221" s="135" t="s">
+        <v>415</v>
+      </c>
+      <c r="D221" s="135" t="s">
+        <v>415</v>
+      </c>
+      <c r="E221" s="144"/>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="119" t="s">
-        <v>1859</v>
+        <v>1847</v>
       </c>
       <c r="B222" s="120" t="s">
-        <v>1860</v>
+        <v>1848</v>
       </c>
       <c r="C222" s="107" t="s">
         <v>93</v>
@@ -24968,10 +25592,10 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="119" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
       <c r="B223" s="120" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
       <c r="C223" s="107" t="s">
         <v>34</v>
@@ -24985,10 +25609,10 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="119" t="s">
-        <v>1863</v>
+        <v>1851</v>
       </c>
       <c r="B224" s="120" t="s">
-        <v>1864</v>
+        <v>1852</v>
       </c>
       <c r="C224" s="107" t="s">
         <v>93</v>
@@ -25000,10 +25624,10 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="119" t="s">
-        <v>1865</v>
+        <v>1853</v>
       </c>
       <c r="B225" s="120" t="s">
-        <v>1866</v>
+        <v>1854</v>
       </c>
       <c r="C225" s="107" t="s">
         <v>34</v>
@@ -25017,10 +25641,10 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="119" t="s">
-        <v>1867</v>
+        <v>1855</v>
       </c>
       <c r="B226" s="120" t="s">
-        <v>1868</v>
+        <v>1856</v>
       </c>
       <c r="C226" s="107" t="s">
         <v>93</v>
@@ -25032,10 +25656,10 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="119" t="s">
-        <v>1869</v>
+        <v>1857</v>
       </c>
       <c r="B227" s="120" t="s">
-        <v>1870</v>
+        <v>1858</v>
       </c>
       <c r="C227" s="107" t="s">
         <v>34</v>
@@ -25049,10 +25673,10 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="119" t="s">
-        <v>1871</v>
+        <v>1859</v>
       </c>
       <c r="B228" s="120" t="s">
-        <v>1872</v>
+        <v>1860</v>
       </c>
       <c r="C228" s="107" t="s">
         <v>93</v>
@@ -25064,10 +25688,10 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="119" t="s">
-        <v>1873</v>
+        <v>1861</v>
       </c>
       <c r="B229" s="120" t="s">
-        <v>1874</v>
+        <v>1862</v>
       </c>
       <c r="C229" s="107" t="s">
         <v>34</v>
@@ -25081,10 +25705,10 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="119" t="s">
-        <v>1875</v>
+        <v>1863</v>
       </c>
       <c r="B230" s="120" t="s">
-        <v>1876</v>
+        <v>1864</v>
       </c>
       <c r="C230" s="107" t="s">
         <v>93</v>
@@ -25096,10 +25720,10 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="119" t="s">
-        <v>1877</v>
+        <v>1865</v>
       </c>
       <c r="B231" s="120" t="s">
-        <v>1878</v>
+        <v>1866</v>
       </c>
       <c r="C231" s="107" t="s">
         <v>34</v>
@@ -25113,10 +25737,10 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="119" t="s">
-        <v>1879</v>
+        <v>1867</v>
       </c>
       <c r="B232" s="120" t="s">
-        <v>1880</v>
+        <v>1868</v>
       </c>
       <c r="C232" s="107" t="s">
         <v>93</v>
@@ -25128,10 +25752,10 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="119" t="s">
-        <v>1881</v>
+        <v>1869</v>
       </c>
       <c r="B233" s="120" t="s">
-        <v>1882</v>
+        <v>1870</v>
       </c>
       <c r="C233" s="107" t="s">
         <v>34</v>
@@ -25145,10 +25769,10 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="119" t="s">
-        <v>1883</v>
+        <v>1871</v>
       </c>
       <c r="B234" s="120" t="s">
-        <v>1884</v>
+        <v>1872</v>
       </c>
       <c r="C234" s="107" t="s">
         <v>93</v>
@@ -25160,10 +25784,10 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="119" t="s">
-        <v>1885</v>
+        <v>1873</v>
       </c>
       <c r="B235" s="120" t="s">
-        <v>1886</v>
+        <v>1874</v>
       </c>
       <c r="C235" s="107" t="s">
         <v>34</v>
@@ -25177,10 +25801,10 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="119" t="s">
-        <v>1887</v>
+        <v>1875</v>
       </c>
       <c r="B236" s="120" t="s">
-        <v>1888</v>
+        <v>1876</v>
       </c>
       <c r="C236" s="107" t="s">
         <v>93</v>
@@ -25192,10 +25816,10 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" s="119" t="s">
-        <v>1889</v>
+        <v>1877</v>
       </c>
       <c r="B237" s="120" t="s">
-        <v>1890</v>
+        <v>1878</v>
       </c>
       <c r="C237" s="107" t="s">
         <v>34</v>
@@ -25208,101 +25832,107 @@
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A238" s="97" t="s">
-        <v>1891</v>
-      </c>
-      <c r="B238" s="108" t="s">
-        <v>1892</v>
-      </c>
-      <c r="C238" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="D238" s="147" t="s">
-        <v>415</v>
+      <c r="A238" s="119" t="s">
+        <v>1879</v>
+      </c>
+      <c r="B238" s="120" t="s">
+        <v>1880</v>
+      </c>
+      <c r="C238" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="D238" s="107" t="s">
+        <v>93</v>
       </c>
       <c r="E238" s="144"/>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A239" s="97" t="s">
-        <v>1893</v>
-      </c>
-      <c r="B239" s="108" t="s">
-        <v>1894</v>
-      </c>
-      <c r="C239" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="D239" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="E239" s="144"/>
+      <c r="A239" s="119" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B239" s="120" t="s">
+        <v>1882</v>
+      </c>
+      <c r="C239" s="107" t="s">
+        <v>34</v>
+      </c>
+      <c r="D239" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="E239" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A240" s="97" t="s">
-        <v>1895</v>
-      </c>
-      <c r="B240" s="108" t="s">
-        <v>1896</v>
-      </c>
-      <c r="C240" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="D240" s="147" t="s">
-        <v>415</v>
+      <c r="A240" s="119" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B240" s="120" t="s">
+        <v>1884</v>
+      </c>
+      <c r="C240" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="D240" s="107" t="s">
+        <v>93</v>
       </c>
       <c r="E240" s="144"/>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A241" s="97" t="s">
-        <v>1897</v>
-      </c>
-      <c r="B241" s="108" t="s">
-        <v>1898</v>
-      </c>
-      <c r="C241" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="D241" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="E241" s="144"/>
+      <c r="A241" s="119" t="s">
+        <v>1885</v>
+      </c>
+      <c r="B241" s="120" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C241" s="107" t="s">
+        <v>34</v>
+      </c>
+      <c r="D241" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="E241" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A242" s="97" t="s">
-        <v>1899</v>
-      </c>
-      <c r="B242" s="108" t="s">
-        <v>1900</v>
-      </c>
-      <c r="C242" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="D242" s="147" t="s">
-        <v>415</v>
+      <c r="A242" s="119" t="s">
+        <v>1887</v>
+      </c>
+      <c r="B242" s="120" t="s">
+        <v>1888</v>
+      </c>
+      <c r="C242" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="D242" s="107" t="s">
+        <v>93</v>
       </c>
       <c r="E242" s="144"/>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A243" s="97" t="s">
-        <v>1901</v>
-      </c>
-      <c r="B243" s="108" t="s">
-        <v>1902</v>
-      </c>
-      <c r="C243" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="D243" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="E243" s="144"/>
+      <c r="A243" s="119" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B243" s="120" t="s">
+        <v>1890</v>
+      </c>
+      <c r="C243" s="107" t="s">
+        <v>34</v>
+      </c>
+      <c r="D243" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="E243" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="97" t="s">
-        <v>1903</v>
+        <v>1891</v>
       </c>
       <c r="B244" s="108" t="s">
-        <v>1904</v>
+        <v>1892</v>
       </c>
       <c r="C244" s="147" t="s">
         <v>415</v>
@@ -25314,10 +25944,10 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="97" t="s">
-        <v>1905</v>
+        <v>1893</v>
       </c>
       <c r="B245" s="108" t="s">
-        <v>1906</v>
+        <v>1894</v>
       </c>
       <c r="C245" s="147" t="s">
         <v>415</v>
@@ -25329,10 +25959,10 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="97" t="s">
-        <v>1907</v>
+        <v>1895</v>
       </c>
       <c r="B246" s="108" t="s">
-        <v>1908</v>
+        <v>1896</v>
       </c>
       <c r="C246" s="147" t="s">
         <v>415</v>
@@ -25344,10 +25974,10 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="97" t="s">
-        <v>1909</v>
+        <v>1897</v>
       </c>
       <c r="B247" s="108" t="s">
-        <v>1910</v>
+        <v>1898</v>
       </c>
       <c r="C247" s="147" t="s">
         <v>415</v>
@@ -25357,12 +25987,12 @@
       </c>
       <c r="E247" s="144"/>
     </row>
-    <row r="248" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="97" t="s">
-        <v>1911</v>
+        <v>1899</v>
       </c>
       <c r="B248" s="108" t="s">
-        <v>1912</v>
+        <v>1900</v>
       </c>
       <c r="C248" s="147" t="s">
         <v>415</v>
@@ -25371,6 +26001,96 @@
         <v>415</v>
       </c>
       <c r="E248" s="144"/>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A249" s="97" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B249" s="108" t="s">
+        <v>1902</v>
+      </c>
+      <c r="C249" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="D249" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="E249" s="144"/>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A250" s="97" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B250" s="108" t="s">
+        <v>1904</v>
+      </c>
+      <c r="C250" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="D250" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="E250" s="144"/>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A251" s="97" t="s">
+        <v>1905</v>
+      </c>
+      <c r="B251" s="108" t="s">
+        <v>1906</v>
+      </c>
+      <c r="C251" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="D251" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="E251" s="144"/>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A252" s="97" t="s">
+        <v>1907</v>
+      </c>
+      <c r="B252" s="108" t="s">
+        <v>1908</v>
+      </c>
+      <c r="C252" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="D252" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="E252" s="144"/>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A253" s="97" t="s">
+        <v>1909</v>
+      </c>
+      <c r="B253" s="108" t="s">
+        <v>1910</v>
+      </c>
+      <c r="C253" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="D253" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="E253" s="144"/>
+    </row>
+    <row r="254" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A254" s="97" t="s">
+        <v>1911</v>
+      </c>
+      <c r="B254" s="108" t="s">
+        <v>1912</v>
+      </c>
+      <c r="C254" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="D254" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="E254" s="144"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25380,11 +26100,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:IM248"/>
+  <dimension ref="A1:IM254"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A180" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A194" sqref="A194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -28401,10 +29121,10 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="77" t="s">
-        <v>2289</v>
+        <v>2994</v>
       </c>
       <c r="B192" s="78" t="s">
-        <v>2290</v>
+        <v>2948</v>
       </c>
       <c r="C192" s="78" t="s">
         <v>93</v>
@@ -28416,10 +29136,10 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="77" t="s">
-        <v>2291</v>
+        <v>2995</v>
       </c>
       <c r="B193" s="78" t="s">
-        <v>2292</v>
+        <v>2949</v>
       </c>
       <c r="C193" s="78" t="s">
         <v>34</v>
@@ -28432,63 +29152,63 @@
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A194" s="79" t="s">
+      <c r="A194" s="77" t="s">
+        <v>2289</v>
+      </c>
+      <c r="B194" s="78" t="s">
+        <v>2290</v>
+      </c>
+      <c r="C194" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="D194" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="E194" s="144"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A195" s="77" t="s">
+        <v>2291</v>
+      </c>
+      <c r="B195" s="78" t="s">
+        <v>2292</v>
+      </c>
+      <c r="C195" s="78" t="s">
+        <v>34</v>
+      </c>
+      <c r="D195" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="E195" s="144" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A196" s="79" t="s">
         <v>2293</v>
       </c>
-      <c r="B194" s="80" t="s">
+      <c r="B196" s="80" t="s">
         <v>2294</v>
       </c>
-      <c r="C194" s="80" t="s">
-        <v>93</v>
-      </c>
-      <c r="D194" s="80" t="s">
-        <v>93</v>
-      </c>
-      <c r="E194" s="144"/>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A195" s="79" t="s">
+      <c r="C196" s="80" t="s">
+        <v>93</v>
+      </c>
+      <c r="D196" s="80" t="s">
+        <v>93</v>
+      </c>
+      <c r="E196" s="144"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A197" s="79" t="s">
         <v>2295</v>
       </c>
-      <c r="B195" s="80" t="s">
+      <c r="B197" s="80" t="s">
         <v>2296</v>
       </c>
-      <c r="C195" s="80" t="s">
+      <c r="C197" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="D195" s="80" t="s">
-        <v>93</v>
-      </c>
-      <c r="E195" s="144" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A196" s="81" t="s">
-        <v>2297</v>
-      </c>
-      <c r="B196" s="82" t="s">
-        <v>2298</v>
-      </c>
-      <c r="C196" s="148" t="s">
-        <v>93</v>
-      </c>
-      <c r="D196" s="148" t="s">
-        <v>93</v>
-      </c>
-      <c r="E196" s="144"/>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A197" s="81" t="s">
-        <v>2299</v>
-      </c>
-      <c r="B197" s="82" t="s">
-        <v>2300</v>
-      </c>
-      <c r="C197" s="148" t="s">
-        <v>34</v>
-      </c>
-      <c r="D197" s="148" t="s">
+      <c r="D197" s="80" t="s">
         <v>93</v>
       </c>
       <c r="E197" s="144" t="s">
@@ -28497,10 +29217,10 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="81" t="s">
-        <v>2301</v>
+        <v>2297</v>
       </c>
       <c r="B198" s="82" t="s">
-        <v>2302</v>
+        <v>2298</v>
       </c>
       <c r="C198" s="148" t="s">
         <v>93</v>
@@ -28512,10 +29232,10 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="81" t="s">
-        <v>2303</v>
+        <v>2299</v>
       </c>
       <c r="B199" s="82" t="s">
-        <v>2304</v>
+        <v>2300</v>
       </c>
       <c r="C199" s="148" t="s">
         <v>34</v>
@@ -28528,71 +29248,75 @@
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A200" s="83" t="s">
-        <v>2305</v>
-      </c>
-      <c r="B200" s="84" t="s">
-        <v>2306</v>
-      </c>
-      <c r="C200" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="D200" s="132" t="s">
-        <v>415</v>
+      <c r="A200" s="81" t="s">
+        <v>2301</v>
+      </c>
+      <c r="B200" s="82" t="s">
+        <v>2302</v>
+      </c>
+      <c r="C200" s="148" t="s">
+        <v>93</v>
+      </c>
+      <c r="D200" s="148" t="s">
+        <v>93</v>
       </c>
       <c r="E200" s="144"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A201" s="83" t="s">
-        <v>2307</v>
-      </c>
-      <c r="B201" s="84" t="s">
-        <v>2308</v>
-      </c>
-      <c r="C201" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="D201" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="E201" s="144"/>
+      <c r="A201" s="81" t="s">
+        <v>2303</v>
+      </c>
+      <c r="B201" s="82" t="s">
+        <v>2304</v>
+      </c>
+      <c r="C201" s="148" t="s">
+        <v>34</v>
+      </c>
+      <c r="D201" s="148" t="s">
+        <v>93</v>
+      </c>
+      <c r="E201" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A202" s="83" t="s">
-        <v>2309</v>
-      </c>
-      <c r="B202" s="84" t="s">
-        <v>2310</v>
-      </c>
-      <c r="C202" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="D202" s="132" t="s">
-        <v>415</v>
+      <c r="A202" s="81" t="s">
+        <v>2992</v>
+      </c>
+      <c r="B202" s="82" t="s">
+        <v>2950</v>
+      </c>
+      <c r="C202" s="148" t="s">
+        <v>93</v>
+      </c>
+      <c r="D202" s="148" t="s">
+        <v>93</v>
       </c>
       <c r="E202" s="144"/>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A203" s="83" t="s">
-        <v>2311</v>
-      </c>
-      <c r="B203" s="84" t="s">
-        <v>2312</v>
-      </c>
-      <c r="C203" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="D203" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="E203" s="144"/>
+      <c r="A203" s="81" t="s">
+        <v>2993</v>
+      </c>
+      <c r="B203" s="82" t="s">
+        <v>2951</v>
+      </c>
+      <c r="C203" s="148" t="s">
+        <v>34</v>
+      </c>
+      <c r="D203" s="148" t="s">
+        <v>93</v>
+      </c>
+      <c r="E203" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="83" t="s">
-        <v>2313</v>
+        <v>2305</v>
       </c>
       <c r="B204" s="84" t="s">
-        <v>2314</v>
+        <v>2306</v>
       </c>
       <c r="C204" s="132" t="s">
         <v>415</v>
@@ -28604,10 +29328,10 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="83" t="s">
-        <v>2315</v>
+        <v>2307</v>
       </c>
       <c r="B205" s="84" t="s">
-        <v>2316</v>
+        <v>2308</v>
       </c>
       <c r="C205" s="132" t="s">
         <v>415</v>
@@ -28619,10 +29343,10 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="83" t="s">
-        <v>2317</v>
+        <v>2309</v>
       </c>
       <c r="B206" s="84" t="s">
-        <v>2318</v>
+        <v>2310</v>
       </c>
       <c r="C206" s="132" t="s">
         <v>415</v>
@@ -28634,10 +29358,10 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="83" t="s">
-        <v>2319</v>
+        <v>2311</v>
       </c>
       <c r="B207" s="84" t="s">
-        <v>2320</v>
+        <v>2312</v>
       </c>
       <c r="C207" s="132" t="s">
         <v>415</v>
@@ -28649,10 +29373,10 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="83" t="s">
-        <v>2321</v>
+        <v>2313</v>
       </c>
       <c r="B208" s="84" t="s">
-        <v>2322</v>
+        <v>2314</v>
       </c>
       <c r="C208" s="132" t="s">
         <v>415</v>
@@ -28664,10 +29388,10 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="83" t="s">
-        <v>2323</v>
+        <v>2315</v>
       </c>
       <c r="B209" s="84" t="s">
-        <v>2324</v>
+        <v>2316</v>
       </c>
       <c r="C209" s="132" t="s">
         <v>415</v>
@@ -28679,10 +29403,10 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="83" t="s">
-        <v>2325</v>
+        <v>2317</v>
       </c>
       <c r="B210" s="84" t="s">
-        <v>2326</v>
+        <v>2318</v>
       </c>
       <c r="C210" s="132" t="s">
         <v>415</v>
@@ -28693,182 +29417,176 @@
       <c r="E210" s="144"/>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A211" s="85" t="s">
+      <c r="A211" s="83" t="s">
+        <v>2319</v>
+      </c>
+      <c r="B211" s="84" t="s">
+        <v>2320</v>
+      </c>
+      <c r="C211" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="D211" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="E211" s="144"/>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A212" s="83" t="s">
+        <v>2321</v>
+      </c>
+      <c r="B212" s="84" t="s">
+        <v>2322</v>
+      </c>
+      <c r="C212" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="D212" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="E212" s="144"/>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A213" s="83" t="s">
+        <v>2323</v>
+      </c>
+      <c r="B213" s="84" t="s">
+        <v>2324</v>
+      </c>
+      <c r="C213" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="D213" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="E213" s="144"/>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A214" s="83" t="s">
+        <v>2325</v>
+      </c>
+      <c r="B214" s="84" t="s">
+        <v>2326</v>
+      </c>
+      <c r="C214" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="D214" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="E214" s="144"/>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A215" s="85" t="s">
         <v>2327</v>
       </c>
-      <c r="B211" s="86" t="s">
+      <c r="B215" s="86" t="s">
         <v>2328</v>
       </c>
-      <c r="C211" s="133" t="s">
+      <c r="C215" s="133" t="s">
         <v>415</v>
       </c>
-      <c r="D211" s="133" t="s">
+      <c r="D215" s="133" t="s">
         <v>415</v>
       </c>
-      <c r="E211" s="144"/>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A212" s="85" t="s">
+      <c r="E215" s="144"/>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A216" s="85" t="s">
+        <v>2991</v>
+      </c>
+      <c r="B216" s="86" t="s">
+        <v>2952</v>
+      </c>
+      <c r="C216" s="133" t="s">
+        <v>415</v>
+      </c>
+      <c r="D216" s="133" t="s">
+        <v>415</v>
+      </c>
+      <c r="E216" s="144"/>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A217" s="85" t="s">
         <v>2329</v>
       </c>
-      <c r="B212" s="86" t="s">
+      <c r="B217" s="86" t="s">
         <v>2330</v>
       </c>
-      <c r="C212" s="133" t="s">
+      <c r="C217" s="133" t="s">
         <v>415</v>
       </c>
-      <c r="D212" s="133" t="s">
+      <c r="D217" s="133" t="s">
         <v>415</v>
       </c>
-      <c r="E212" s="144"/>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A213" s="87" t="s">
+      <c r="E217" s="144"/>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A218" s="87" t="s">
         <v>2331</v>
       </c>
-      <c r="B213" s="88" t="s">
+      <c r="B218" s="88" t="s">
         <v>2332</v>
       </c>
-      <c r="C213" s="134" t="s">
+      <c r="C218" s="134" t="s">
         <v>415</v>
       </c>
-      <c r="D213" s="134" t="s">
+      <c r="D218" s="134" t="s">
         <v>415</v>
       </c>
-      <c r="E213" s="144"/>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A214" s="89" t="s">
+      <c r="E218" s="144"/>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A219" s="89" t="s">
         <v>2333</v>
       </c>
-      <c r="B214" s="90" t="s">
+      <c r="B219" s="90" t="s">
         <v>2334</v>
       </c>
-      <c r="C214" s="135" t="s">
+      <c r="C219" s="135" t="s">
         <v>415</v>
       </c>
-      <c r="D214" s="135" t="s">
+      <c r="D219" s="135" t="s">
         <v>415</v>
       </c>
-      <c r="E214" s="144"/>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A215" s="89" t="s">
+      <c r="E219" s="144"/>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A220" s="89" t="s">
         <v>2335</v>
       </c>
-      <c r="B215" s="90" t="s">
+      <c r="B220" s="90" t="s">
         <v>2336</v>
       </c>
-      <c r="C215" s="135" t="s">
+      <c r="C220" s="135" t="s">
         <v>415</v>
       </c>
-      <c r="D215" s="135" t="s">
+      <c r="D220" s="135" t="s">
         <v>415</v>
       </c>
-      <c r="E215" s="144"/>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A216" s="96" t="s">
-        <v>2337</v>
-      </c>
-      <c r="B216" s="107" t="s">
-        <v>2338</v>
-      </c>
-      <c r="C216" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="D216" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="E216" s="144"/>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A217" s="96" t="s">
-        <v>2339</v>
-      </c>
-      <c r="B217" s="107" t="s">
-        <v>2340</v>
-      </c>
-      <c r="C217" s="107" t="s">
-        <v>34</v>
-      </c>
-      <c r="D217" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="E217" s="144" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A218" s="96" t="s">
-        <v>2341</v>
-      </c>
-      <c r="B218" s="107" t="s">
-        <v>2342</v>
-      </c>
-      <c r="C218" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="D218" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="E218" s="144"/>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A219" s="96" t="s">
-        <v>2343</v>
-      </c>
-      <c r="B219" s="107" t="s">
-        <v>2344</v>
-      </c>
-      <c r="C219" s="107" t="s">
-        <v>34</v>
-      </c>
-      <c r="D219" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="E219" s="144" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A220" s="96" t="s">
-        <v>2345</v>
-      </c>
-      <c r="B220" s="107" t="s">
-        <v>2346</v>
-      </c>
-      <c r="C220" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="D220" s="107" t="s">
-        <v>93</v>
-      </c>
       <c r="E220" s="144"/>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A221" s="96" t="s">
-        <v>2347</v>
-      </c>
-      <c r="B221" s="107" t="s">
-        <v>2348</v>
-      </c>
-      <c r="C221" s="107" t="s">
-        <v>34</v>
-      </c>
-      <c r="D221" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="E221" s="144" t="s">
-        <v>179</v>
-      </c>
+      <c r="A221" s="89" t="s">
+        <v>2990</v>
+      </c>
+      <c r="B221" s="90" t="s">
+        <v>2953</v>
+      </c>
+      <c r="C221" s="135" t="s">
+        <v>415</v>
+      </c>
+      <c r="D221" s="135" t="s">
+        <v>415</v>
+      </c>
+      <c r="E221" s="144"/>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="96" t="s">
-        <v>2349</v>
+        <v>2337</v>
       </c>
       <c r="B222" s="107" t="s">
-        <v>2350</v>
+        <v>2338</v>
       </c>
       <c r="C222" s="107" t="s">
         <v>93</v>
@@ -28880,10 +29598,10 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="96" t="s">
-        <v>2351</v>
+        <v>2339</v>
       </c>
       <c r="B223" s="107" t="s">
-        <v>2352</v>
+        <v>2340</v>
       </c>
       <c r="C223" s="107" t="s">
         <v>34</v>
@@ -28897,10 +29615,10 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="96" t="s">
-        <v>2353</v>
+        <v>2341</v>
       </c>
       <c r="B224" s="107" t="s">
-        <v>2354</v>
+        <v>2342</v>
       </c>
       <c r="C224" s="107" t="s">
         <v>93</v>
@@ -28912,10 +29630,10 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="96" t="s">
-        <v>2355</v>
+        <v>2343</v>
       </c>
       <c r="B225" s="107" t="s">
-        <v>2356</v>
+        <v>2344</v>
       </c>
       <c r="C225" s="107" t="s">
         <v>34</v>
@@ -28929,10 +29647,10 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="96" t="s">
-        <v>2357</v>
+        <v>2345</v>
       </c>
       <c r="B226" s="107" t="s">
-        <v>2358</v>
+        <v>2346</v>
       </c>
       <c r="C226" s="107" t="s">
         <v>93</v>
@@ -28944,10 +29662,10 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="96" t="s">
-        <v>2359</v>
+        <v>2347</v>
       </c>
       <c r="B227" s="107" t="s">
-        <v>2360</v>
+        <v>2348</v>
       </c>
       <c r="C227" s="107" t="s">
         <v>34</v>
@@ -28961,10 +29679,10 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="96" t="s">
-        <v>2361</v>
+        <v>2349</v>
       </c>
       <c r="B228" s="107" t="s">
-        <v>2362</v>
+        <v>2350</v>
       </c>
       <c r="C228" s="107" t="s">
         <v>93</v>
@@ -28976,10 +29694,10 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="96" t="s">
-        <v>2363</v>
+        <v>2351</v>
       </c>
       <c r="B229" s="107" t="s">
-        <v>2364</v>
+        <v>2352</v>
       </c>
       <c r="C229" s="107" t="s">
         <v>34</v>
@@ -28993,10 +29711,10 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="96" t="s">
-        <v>2365</v>
+        <v>2353</v>
       </c>
       <c r="B230" s="107" t="s">
-        <v>2366</v>
+        <v>2354</v>
       </c>
       <c r="C230" s="107" t="s">
         <v>93</v>
@@ -29008,10 +29726,10 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="96" t="s">
-        <v>2367</v>
+        <v>2355</v>
       </c>
       <c r="B231" s="107" t="s">
-        <v>2368</v>
+        <v>2356</v>
       </c>
       <c r="C231" s="107" t="s">
         <v>34</v>
@@ -29025,10 +29743,10 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="96" t="s">
-        <v>2369</v>
+        <v>2357</v>
       </c>
       <c r="B232" s="107" t="s">
-        <v>2370</v>
+        <v>2358</v>
       </c>
       <c r="C232" s="107" t="s">
         <v>93</v>
@@ -29040,10 +29758,10 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="96" t="s">
-        <v>2371</v>
+        <v>2359</v>
       </c>
       <c r="B233" s="107" t="s">
-        <v>2372</v>
+        <v>2360</v>
       </c>
       <c r="C233" s="107" t="s">
         <v>34</v>
@@ -29057,10 +29775,10 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="96" t="s">
-        <v>2373</v>
+        <v>2361</v>
       </c>
       <c r="B234" s="107" t="s">
-        <v>2374</v>
+        <v>2362</v>
       </c>
       <c r="C234" s="107" t="s">
         <v>93</v>
@@ -29072,10 +29790,10 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="96" t="s">
-        <v>2375</v>
+        <v>2363</v>
       </c>
       <c r="B235" s="107" t="s">
-        <v>2376</v>
+        <v>2364</v>
       </c>
       <c r="C235" s="107" t="s">
         <v>34</v>
@@ -29089,10 +29807,10 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="96" t="s">
-        <v>2377</v>
+        <v>2365</v>
       </c>
       <c r="B236" s="107" t="s">
-        <v>2378</v>
+        <v>2366</v>
       </c>
       <c r="C236" s="107" t="s">
         <v>93</v>
@@ -29104,10 +29822,10 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" s="96" t="s">
-        <v>2379</v>
+        <v>2367</v>
       </c>
       <c r="B237" s="107" t="s">
-        <v>2380</v>
+        <v>2368</v>
       </c>
       <c r="C237" s="107" t="s">
         <v>34</v>
@@ -29120,101 +29838,107 @@
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A238" s="97" t="s">
-        <v>2381</v>
-      </c>
-      <c r="B238" s="108" t="s">
-        <v>2382</v>
-      </c>
-      <c r="C238" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="D238" s="147" t="s">
-        <v>415</v>
+      <c r="A238" s="96" t="s">
+        <v>2369</v>
+      </c>
+      <c r="B238" s="107" t="s">
+        <v>2370</v>
+      </c>
+      <c r="C238" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="D238" s="107" t="s">
+        <v>93</v>
       </c>
       <c r="E238" s="144"/>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A239" s="97" t="s">
-        <v>2383</v>
-      </c>
-      <c r="B239" s="108" t="s">
-        <v>2384</v>
-      </c>
-      <c r="C239" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="D239" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="E239" s="144"/>
+      <c r="A239" s="96" t="s">
+        <v>2371</v>
+      </c>
+      <c r="B239" s="107" t="s">
+        <v>2372</v>
+      </c>
+      <c r="C239" s="107" t="s">
+        <v>34</v>
+      </c>
+      <c r="D239" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="E239" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A240" s="97" t="s">
-        <v>2385</v>
-      </c>
-      <c r="B240" s="108" t="s">
-        <v>2386</v>
-      </c>
-      <c r="C240" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="D240" s="147" t="s">
-        <v>415</v>
+      <c r="A240" s="96" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B240" s="107" t="s">
+        <v>2374</v>
+      </c>
+      <c r="C240" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="D240" s="107" t="s">
+        <v>93</v>
       </c>
       <c r="E240" s="144"/>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A241" s="97" t="s">
-        <v>2387</v>
-      </c>
-      <c r="B241" s="108" t="s">
-        <v>2388</v>
-      </c>
-      <c r="C241" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="D241" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="E241" s="144"/>
+      <c r="A241" s="96" t="s">
+        <v>2375</v>
+      </c>
+      <c r="B241" s="107" t="s">
+        <v>2376</v>
+      </c>
+      <c r="C241" s="107" t="s">
+        <v>34</v>
+      </c>
+      <c r="D241" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="E241" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A242" s="97" t="s">
-        <v>2389</v>
-      </c>
-      <c r="B242" s="108" t="s">
-        <v>2390</v>
-      </c>
-      <c r="C242" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="D242" s="147" t="s">
-        <v>415</v>
+      <c r="A242" s="96" t="s">
+        <v>2377</v>
+      </c>
+      <c r="B242" s="107" t="s">
+        <v>2378</v>
+      </c>
+      <c r="C242" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="D242" s="107" t="s">
+        <v>93</v>
       </c>
       <c r="E242" s="144"/>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A243" s="97" t="s">
-        <v>2391</v>
-      </c>
-      <c r="B243" s="108" t="s">
-        <v>2392</v>
-      </c>
-      <c r="C243" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="D243" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="E243" s="144"/>
+      <c r="A243" s="96" t="s">
+        <v>2379</v>
+      </c>
+      <c r="B243" s="107" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C243" s="107" t="s">
+        <v>34</v>
+      </c>
+      <c r="D243" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="E243" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="97" t="s">
-        <v>2393</v>
+        <v>2381</v>
       </c>
       <c r="B244" s="108" t="s">
-        <v>2394</v>
+        <v>2382</v>
       </c>
       <c r="C244" s="147" t="s">
         <v>415</v>
@@ -29226,10 +29950,10 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="97" t="s">
-        <v>2395</v>
+        <v>2383</v>
       </c>
       <c r="B245" s="108" t="s">
-        <v>2396</v>
+        <v>2384</v>
       </c>
       <c r="C245" s="147" t="s">
         <v>415</v>
@@ -29241,10 +29965,10 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="97" t="s">
-        <v>2397</v>
+        <v>2385</v>
       </c>
       <c r="B246" s="108" t="s">
-        <v>2398</v>
+        <v>2386</v>
       </c>
       <c r="C246" s="147" t="s">
         <v>415</v>
@@ -29256,10 +29980,10 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="97" t="s">
-        <v>2399</v>
+        <v>2387</v>
       </c>
       <c r="B247" s="108" t="s">
-        <v>2400</v>
+        <v>2388</v>
       </c>
       <c r="C247" s="147" t="s">
         <v>415</v>
@@ -29269,12 +29993,12 @@
       </c>
       <c r="E247" s="144"/>
     </row>
-    <row r="248" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="97" t="s">
-        <v>2401</v>
+        <v>2389</v>
       </c>
       <c r="B248" s="108" t="s">
-        <v>2402</v>
+        <v>2390</v>
       </c>
       <c r="C248" s="147" t="s">
         <v>415</v>
@@ -29283,6 +30007,96 @@
         <v>415</v>
       </c>
       <c r="E248" s="144"/>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A249" s="97" t="s">
+        <v>2391</v>
+      </c>
+      <c r="B249" s="108" t="s">
+        <v>2392</v>
+      </c>
+      <c r="C249" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="D249" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="E249" s="144"/>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A250" s="97" t="s">
+        <v>2393</v>
+      </c>
+      <c r="B250" s="108" t="s">
+        <v>2394</v>
+      </c>
+      <c r="C250" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="D250" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="E250" s="144"/>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A251" s="97" t="s">
+        <v>2395</v>
+      </c>
+      <c r="B251" s="108" t="s">
+        <v>2396</v>
+      </c>
+      <c r="C251" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="D251" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="E251" s="144"/>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A252" s="97" t="s">
+        <v>2397</v>
+      </c>
+      <c r="B252" s="108" t="s">
+        <v>2398</v>
+      </c>
+      <c r="C252" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="D252" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="E252" s="144"/>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A253" s="97" t="s">
+        <v>2399</v>
+      </c>
+      <c r="B253" s="108" t="s">
+        <v>2400</v>
+      </c>
+      <c r="C253" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="D253" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="E253" s="144"/>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A254" s="97" t="s">
+        <v>2401</v>
+      </c>
+      <c r="B254" s="108" t="s">
+        <v>2402</v>
+      </c>
+      <c r="C254" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="D254" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="E254" s="144"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29292,11 +30106,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:IL246"/>
+  <dimension ref="A1:IL252"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A192" sqref="A192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -32291,10 +33105,10 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="77" t="s">
-        <v>2777</v>
+        <v>2964</v>
       </c>
       <c r="B190" s="78" t="s">
-        <v>2778</v>
+        <v>2954</v>
       </c>
       <c r="C190" s="78" t="s">
         <v>93</v>
@@ -32306,10 +33120,10 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="77" t="s">
-        <v>2779</v>
+        <v>2965</v>
       </c>
       <c r="B191" s="78" t="s">
-        <v>2780</v>
+        <v>2955</v>
       </c>
       <c r="C191" s="78" t="s">
         <v>34</v>
@@ -32322,63 +33136,63 @@
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A192" s="79" t="s">
+      <c r="A192" s="77" t="s">
+        <v>2777</v>
+      </c>
+      <c r="B192" s="78" t="s">
+        <v>2778</v>
+      </c>
+      <c r="C192" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="D192" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="E192" s="144"/>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A193" s="77" t="s">
+        <v>2779</v>
+      </c>
+      <c r="B193" s="78" t="s">
+        <v>2780</v>
+      </c>
+      <c r="C193" s="78" t="s">
+        <v>34</v>
+      </c>
+      <c r="D193" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="E193" s="144" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A194" s="79" t="s">
         <v>2781</v>
       </c>
-      <c r="B192" s="80" t="s">
+      <c r="B194" s="80" t="s">
         <v>2782</v>
       </c>
-      <c r="C192" s="80" t="s">
-        <v>93</v>
-      </c>
-      <c r="D192" s="80" t="s">
-        <v>93</v>
-      </c>
-      <c r="E192" s="144"/>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A193" s="79" t="s">
+      <c r="C194" s="80" t="s">
+        <v>93</v>
+      </c>
+      <c r="D194" s="80" t="s">
+        <v>93</v>
+      </c>
+      <c r="E194" s="144"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A195" s="79" t="s">
         <v>2783</v>
       </c>
-      <c r="B193" s="80" t="s">
+      <c r="B195" s="80" t="s">
         <v>2784</v>
       </c>
-      <c r="C193" s="80" t="s">
+      <c r="C195" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="D193" s="80" t="s">
-        <v>93</v>
-      </c>
-      <c r="E193" s="144" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A194" s="81" t="s">
-        <v>2785</v>
-      </c>
-      <c r="B194" s="82" t="s">
-        <v>2786</v>
-      </c>
-      <c r="C194" s="148" t="s">
-        <v>93</v>
-      </c>
-      <c r="D194" s="148" t="s">
-        <v>93</v>
-      </c>
-      <c r="E194" s="144"/>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A195" s="81" t="s">
-        <v>2787</v>
-      </c>
-      <c r="B195" s="82" t="s">
-        <v>2788</v>
-      </c>
-      <c r="C195" s="148" t="s">
-        <v>34</v>
-      </c>
-      <c r="D195" s="148" t="s">
+      <c r="D195" s="80" t="s">
         <v>93</v>
       </c>
       <c r="E195" s="144" t="s">
@@ -32387,10 +33201,10 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="81" t="s">
-        <v>2789</v>
+        <v>2785</v>
       </c>
       <c r="B196" s="82" t="s">
-        <v>2790</v>
+        <v>2786</v>
       </c>
       <c r="C196" s="148" t="s">
         <v>93</v>
@@ -32402,10 +33216,10 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="81" t="s">
-        <v>2791</v>
+        <v>2787</v>
       </c>
       <c r="B197" s="82" t="s">
-        <v>2792</v>
+        <v>2788</v>
       </c>
       <c r="C197" s="148" t="s">
         <v>34</v>
@@ -32418,71 +33232,75 @@
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A198" s="83" t="s">
-        <v>2793</v>
-      </c>
-      <c r="B198" s="84" t="s">
-        <v>2794</v>
-      </c>
-      <c r="C198" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="D198" s="132" t="s">
-        <v>415</v>
+      <c r="A198" s="81" t="s">
+        <v>2789</v>
+      </c>
+      <c r="B198" s="82" t="s">
+        <v>2790</v>
+      </c>
+      <c r="C198" s="148" t="s">
+        <v>93</v>
+      </c>
+      <c r="D198" s="148" t="s">
+        <v>93</v>
       </c>
       <c r="E198" s="144"/>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A199" s="83" t="s">
-        <v>2795</v>
-      </c>
-      <c r="B199" s="84" t="s">
-        <v>2796</v>
-      </c>
-      <c r="C199" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="D199" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="E199" s="144"/>
+      <c r="A199" s="81" t="s">
+        <v>2791</v>
+      </c>
+      <c r="B199" s="82" t="s">
+        <v>2792</v>
+      </c>
+      <c r="C199" s="148" t="s">
+        <v>34</v>
+      </c>
+      <c r="D199" s="148" t="s">
+        <v>93</v>
+      </c>
+      <c r="E199" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A200" s="83" t="s">
-        <v>2797</v>
-      </c>
-      <c r="B200" s="84" t="s">
-        <v>2798</v>
-      </c>
-      <c r="C200" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="D200" s="132" t="s">
-        <v>415</v>
+      <c r="A200" s="81" t="s">
+        <v>2962</v>
+      </c>
+      <c r="B200" s="82" t="s">
+        <v>2956</v>
+      </c>
+      <c r="C200" s="148" t="s">
+        <v>93</v>
+      </c>
+      <c r="D200" s="148" t="s">
+        <v>93</v>
       </c>
       <c r="E200" s="144"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A201" s="83" t="s">
-        <v>2799</v>
-      </c>
-      <c r="B201" s="84" t="s">
-        <v>2800</v>
-      </c>
-      <c r="C201" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="D201" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="E201" s="144"/>
+      <c r="A201" s="81" t="s">
+        <v>2963</v>
+      </c>
+      <c r="B201" s="82" t="s">
+        <v>2957</v>
+      </c>
+      <c r="C201" s="148" t="s">
+        <v>34</v>
+      </c>
+      <c r="D201" s="148" t="s">
+        <v>93</v>
+      </c>
+      <c r="E201" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="83" t="s">
-        <v>2801</v>
+        <v>2793</v>
       </c>
       <c r="B202" s="84" t="s">
-        <v>2802</v>
+        <v>2794</v>
       </c>
       <c r="C202" s="132" t="s">
         <v>415</v>
@@ -32494,10 +33312,10 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="83" t="s">
-        <v>2803</v>
+        <v>2795</v>
       </c>
       <c r="B203" s="84" t="s">
-        <v>2804</v>
+        <v>2796</v>
       </c>
       <c r="C203" s="132" t="s">
         <v>415</v>
@@ -32509,10 +33327,10 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="83" t="s">
-        <v>2805</v>
+        <v>2797</v>
       </c>
       <c r="B204" s="84" t="s">
-        <v>2806</v>
+        <v>2798</v>
       </c>
       <c r="C204" s="132" t="s">
         <v>415</v>
@@ -32524,10 +33342,10 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="83" t="s">
-        <v>2807</v>
+        <v>2799</v>
       </c>
       <c r="B205" s="84" t="s">
-        <v>2808</v>
+        <v>2800</v>
       </c>
       <c r="C205" s="132" t="s">
         <v>415</v>
@@ -32539,10 +33357,10 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="83" t="s">
-        <v>2809</v>
+        <v>2801</v>
       </c>
       <c r="B206" s="84" t="s">
-        <v>2810</v>
+        <v>2802</v>
       </c>
       <c r="C206" s="132" t="s">
         <v>415</v>
@@ -32554,10 +33372,10 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="83" t="s">
-        <v>2811</v>
+        <v>2803</v>
       </c>
       <c r="B207" s="84" t="s">
-        <v>2812</v>
+        <v>2804</v>
       </c>
       <c r="C207" s="132" t="s">
         <v>415</v>
@@ -32569,10 +33387,10 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="83" t="s">
-        <v>2813</v>
+        <v>2805</v>
       </c>
       <c r="B208" s="84" t="s">
-        <v>2814</v>
+        <v>2806</v>
       </c>
       <c r="C208" s="132" t="s">
         <v>415</v>
@@ -32583,182 +33401,176 @@
       <c r="E208" s="144"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A209" s="85" t="s">
+      <c r="A209" s="83" t="s">
+        <v>2807</v>
+      </c>
+      <c r="B209" s="84" t="s">
+        <v>2808</v>
+      </c>
+      <c r="C209" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="D209" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="E209" s="144"/>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A210" s="83" t="s">
+        <v>2809</v>
+      </c>
+      <c r="B210" s="84" t="s">
+        <v>2810</v>
+      </c>
+      <c r="C210" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="D210" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="E210" s="144"/>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A211" s="83" t="s">
+        <v>2811</v>
+      </c>
+      <c r="B211" s="84" t="s">
+        <v>2812</v>
+      </c>
+      <c r="C211" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="D211" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="E211" s="144"/>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A212" s="83" t="s">
+        <v>2813</v>
+      </c>
+      <c r="B212" s="84" t="s">
+        <v>2814</v>
+      </c>
+      <c r="C212" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="D212" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="E212" s="144"/>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A213" s="85" t="s">
         <v>2815</v>
       </c>
-      <c r="B209" s="86" t="s">
+      <c r="B213" s="86" t="s">
         <v>2816</v>
       </c>
-      <c r="C209" s="133" t="s">
+      <c r="C213" s="133" t="s">
         <v>415</v>
       </c>
-      <c r="D209" s="133" t="s">
+      <c r="D213" s="133" t="s">
         <v>415</v>
       </c>
-      <c r="E209" s="144"/>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A210" s="85" t="s">
+      <c r="E213" s="144"/>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A214" s="85" t="s">
+        <v>2960</v>
+      </c>
+      <c r="B214" s="86" t="s">
+        <v>2958</v>
+      </c>
+      <c r="C214" s="133" t="s">
+        <v>415</v>
+      </c>
+      <c r="D214" s="133" t="s">
+        <v>415</v>
+      </c>
+      <c r="E214" s="144"/>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A215" s="85" t="s">
         <v>2817</v>
       </c>
-      <c r="B210" s="86" t="s">
+      <c r="B215" s="86" t="s">
         <v>2818</v>
       </c>
-      <c r="C210" s="133" t="s">
+      <c r="C215" s="133" t="s">
         <v>415</v>
       </c>
-      <c r="D210" s="133" t="s">
+      <c r="D215" s="133" t="s">
         <v>415</v>
       </c>
-      <c r="E210" s="144"/>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A211" s="87" t="s">
+      <c r="E215" s="144"/>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A216" s="87" t="s">
         <v>2819</v>
       </c>
-      <c r="B211" s="88" t="s">
+      <c r="B216" s="88" t="s">
         <v>2820</v>
       </c>
-      <c r="C211" s="134" t="s">
+      <c r="C216" s="134" t="s">
         <v>415</v>
       </c>
-      <c r="D211" s="134" t="s">
+      <c r="D216" s="134" t="s">
         <v>415</v>
       </c>
-      <c r="E211" s="144"/>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A212" s="89" t="s">
+      <c r="E216" s="144"/>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A217" s="89" t="s">
         <v>2821</v>
       </c>
-      <c r="B212" s="90" t="s">
+      <c r="B217" s="90" t="s">
         <v>2822</v>
       </c>
-      <c r="C212" s="135" t="s">
+      <c r="C217" s="135" t="s">
         <v>415</v>
       </c>
-      <c r="D212" s="135" t="s">
+      <c r="D217" s="135" t="s">
         <v>415</v>
       </c>
-      <c r="E212" s="144"/>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A213" s="89" t="s">
+      <c r="E217" s="144"/>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A218" s="89" t="s">
         <v>2823</v>
       </c>
-      <c r="B213" s="90" t="s">
+      <c r="B218" s="90" t="s">
         <v>2824</v>
       </c>
-      <c r="C213" s="135" t="s">
+      <c r="C218" s="135" t="s">
         <v>415</v>
       </c>
-      <c r="D213" s="135" t="s">
+      <c r="D218" s="135" t="s">
         <v>415</v>
       </c>
-      <c r="E213" s="144"/>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A214" s="123" t="s">
-        <v>2825</v>
-      </c>
-      <c r="B214" s="124" t="s">
-        <v>2826</v>
-      </c>
-      <c r="C214" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="D214" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="E214" s="144"/>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A215" s="123" t="s">
-        <v>2827</v>
-      </c>
-      <c r="B215" s="124" t="s">
-        <v>2828</v>
-      </c>
-      <c r="C215" s="107" t="s">
-        <v>34</v>
-      </c>
-      <c r="D215" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="E215" s="144" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A216" s="123" t="s">
-        <v>2829</v>
-      </c>
-      <c r="B216" s="124" t="s">
-        <v>2830</v>
-      </c>
-      <c r="C216" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="D216" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="E216" s="144"/>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A217" s="123" t="s">
-        <v>2831</v>
-      </c>
-      <c r="B217" s="124" t="s">
-        <v>2832</v>
-      </c>
-      <c r="C217" s="107" t="s">
-        <v>34</v>
-      </c>
-      <c r="D217" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="E217" s="144" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A218" s="123" t="s">
-        <v>2833</v>
-      </c>
-      <c r="B218" s="124" t="s">
-        <v>2834</v>
-      </c>
-      <c r="C218" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="D218" s="107" t="s">
-        <v>93</v>
-      </c>
       <c r="E218" s="144"/>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A219" s="123" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B219" s="124" t="s">
-        <v>2836</v>
-      </c>
-      <c r="C219" s="107" t="s">
-        <v>34</v>
-      </c>
-      <c r="D219" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="E219" s="144" t="s">
-        <v>179</v>
-      </c>
+      <c r="A219" s="89" t="s">
+        <v>2961</v>
+      </c>
+      <c r="B219" s="90" t="s">
+        <v>2959</v>
+      </c>
+      <c r="C219" s="135" t="s">
+        <v>415</v>
+      </c>
+      <c r="D219" s="135" t="s">
+        <v>415</v>
+      </c>
+      <c r="E219" s="144"/>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" s="123" t="s">
-        <v>2837</v>
+        <v>2825</v>
       </c>
       <c r="B220" s="124" t="s">
-        <v>2838</v>
+        <v>2826</v>
       </c>
       <c r="C220" s="107" t="s">
         <v>93</v>
@@ -32770,10 +33582,10 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="123" t="s">
-        <v>2839</v>
+        <v>2827</v>
       </c>
       <c r="B221" s="124" t="s">
-        <v>2840</v>
+        <v>2828</v>
       </c>
       <c r="C221" s="107" t="s">
         <v>34</v>
@@ -32787,10 +33599,10 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="123" t="s">
-        <v>2841</v>
+        <v>2829</v>
       </c>
       <c r="B222" s="124" t="s">
-        <v>2842</v>
+        <v>2830</v>
       </c>
       <c r="C222" s="107" t="s">
         <v>93</v>
@@ -32802,10 +33614,10 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="123" t="s">
-        <v>2843</v>
+        <v>2831</v>
       </c>
       <c r="B223" s="124" t="s">
-        <v>2844</v>
+        <v>2832</v>
       </c>
       <c r="C223" s="107" t="s">
         <v>34</v>
@@ -32819,10 +33631,10 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="123" t="s">
-        <v>2845</v>
+        <v>2833</v>
       </c>
       <c r="B224" s="124" t="s">
-        <v>2846</v>
+        <v>2834</v>
       </c>
       <c r="C224" s="107" t="s">
         <v>93</v>
@@ -32834,10 +33646,10 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="123" t="s">
-        <v>2847</v>
+        <v>2835</v>
       </c>
       <c r="B225" s="124" t="s">
-        <v>2848</v>
+        <v>2836</v>
       </c>
       <c r="C225" s="107" t="s">
         <v>34</v>
@@ -32851,10 +33663,10 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="123" t="s">
-        <v>2849</v>
+        <v>2837</v>
       </c>
       <c r="B226" s="124" t="s">
-        <v>2850</v>
+        <v>2838</v>
       </c>
       <c r="C226" s="107" t="s">
         <v>93</v>
@@ -32866,10 +33678,10 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="123" t="s">
-        <v>2851</v>
+        <v>2839</v>
       </c>
       <c r="B227" s="124" t="s">
-        <v>2852</v>
+        <v>2840</v>
       </c>
       <c r="C227" s="107" t="s">
         <v>34</v>
@@ -32883,10 +33695,10 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="123" t="s">
-        <v>2853</v>
+        <v>2841</v>
       </c>
       <c r="B228" s="124" t="s">
-        <v>2854</v>
+        <v>2842</v>
       </c>
       <c r="C228" s="107" t="s">
         <v>93</v>
@@ -32898,10 +33710,10 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="123" t="s">
-        <v>2855</v>
+        <v>2843</v>
       </c>
       <c r="B229" s="124" t="s">
-        <v>2856</v>
+        <v>2844</v>
       </c>
       <c r="C229" s="107" t="s">
         <v>34</v>
@@ -32915,10 +33727,10 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="123" t="s">
-        <v>2857</v>
+        <v>2845</v>
       </c>
       <c r="B230" s="124" t="s">
-        <v>2858</v>
+        <v>2846</v>
       </c>
       <c r="C230" s="107" t="s">
         <v>93</v>
@@ -32930,10 +33742,10 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="123" t="s">
-        <v>2859</v>
+        <v>2847</v>
       </c>
       <c r="B231" s="124" t="s">
-        <v>2860</v>
+        <v>2848</v>
       </c>
       <c r="C231" s="107" t="s">
         <v>34</v>
@@ -32947,10 +33759,10 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="123" t="s">
-        <v>2861</v>
+        <v>2849</v>
       </c>
       <c r="B232" s="124" t="s">
-        <v>2862</v>
+        <v>2850</v>
       </c>
       <c r="C232" s="107" t="s">
         <v>93</v>
@@ -32962,10 +33774,10 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="123" t="s">
-        <v>2863</v>
+        <v>2851</v>
       </c>
       <c r="B233" s="124" t="s">
-        <v>2864</v>
+        <v>2852</v>
       </c>
       <c r="C233" s="107" t="s">
         <v>34</v>
@@ -32979,10 +33791,10 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="123" t="s">
-        <v>2865</v>
+        <v>2853</v>
       </c>
       <c r="B234" s="124" t="s">
-        <v>2866</v>
+        <v>2854</v>
       </c>
       <c r="C234" s="107" t="s">
         <v>93</v>
@@ -32994,10 +33806,10 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="123" t="s">
-        <v>2867</v>
+        <v>2855</v>
       </c>
       <c r="B235" s="124" t="s">
-        <v>2868</v>
+        <v>2856</v>
       </c>
       <c r="C235" s="107" t="s">
         <v>34</v>
@@ -33010,101 +33822,107 @@
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A236" s="97" t="s">
-        <v>2869</v>
-      </c>
-      <c r="B236" s="108" t="s">
-        <v>2870</v>
-      </c>
-      <c r="C236" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="D236" s="147" t="s">
-        <v>415</v>
+      <c r="A236" s="123" t="s">
+        <v>2857</v>
+      </c>
+      <c r="B236" s="124" t="s">
+        <v>2858</v>
+      </c>
+      <c r="C236" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="D236" s="107" t="s">
+        <v>93</v>
       </c>
       <c r="E236" s="144"/>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A237" s="97" t="s">
-        <v>2871</v>
-      </c>
-      <c r="B237" s="108" t="s">
-        <v>2872</v>
-      </c>
-      <c r="C237" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="D237" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="E237" s="144"/>
+      <c r="A237" s="123" t="s">
+        <v>2859</v>
+      </c>
+      <c r="B237" s="124" t="s">
+        <v>2860</v>
+      </c>
+      <c r="C237" s="107" t="s">
+        <v>34</v>
+      </c>
+      <c r="D237" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="E237" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A238" s="97" t="s">
-        <v>2873</v>
-      </c>
-      <c r="B238" s="108" t="s">
-        <v>2874</v>
-      </c>
-      <c r="C238" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="D238" s="147" t="s">
-        <v>415</v>
+      <c r="A238" s="123" t="s">
+        <v>2861</v>
+      </c>
+      <c r="B238" s="124" t="s">
+        <v>2862</v>
+      </c>
+      <c r="C238" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="D238" s="107" t="s">
+        <v>93</v>
       </c>
       <c r="E238" s="144"/>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A239" s="97" t="s">
-        <v>2875</v>
-      </c>
-      <c r="B239" s="108" t="s">
-        <v>2876</v>
-      </c>
-      <c r="C239" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="D239" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="E239" s="144"/>
+      <c r="A239" s="123" t="s">
+        <v>2863</v>
+      </c>
+      <c r="B239" s="124" t="s">
+        <v>2864</v>
+      </c>
+      <c r="C239" s="107" t="s">
+        <v>34</v>
+      </c>
+      <c r="D239" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="E239" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A240" s="97" t="s">
-        <v>2877</v>
-      </c>
-      <c r="B240" s="108" t="s">
-        <v>2878</v>
-      </c>
-      <c r="C240" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="D240" s="147" t="s">
-        <v>415</v>
+      <c r="A240" s="123" t="s">
+        <v>2865</v>
+      </c>
+      <c r="B240" s="124" t="s">
+        <v>2866</v>
+      </c>
+      <c r="C240" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="D240" s="107" t="s">
+        <v>93</v>
       </c>
       <c r="E240" s="144"/>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A241" s="97" t="s">
-        <v>2879</v>
-      </c>
-      <c r="B241" s="108" t="s">
-        <v>2880</v>
-      </c>
-      <c r="C241" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="D241" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="E241" s="144"/>
+      <c r="A241" s="123" t="s">
+        <v>2867</v>
+      </c>
+      <c r="B241" s="124" t="s">
+        <v>2868</v>
+      </c>
+      <c r="C241" s="107" t="s">
+        <v>34</v>
+      </c>
+      <c r="D241" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="E241" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="97" t="s">
-        <v>2881</v>
+        <v>2869</v>
       </c>
       <c r="B242" s="108" t="s">
-        <v>2882</v>
+        <v>2870</v>
       </c>
       <c r="C242" s="147" t="s">
         <v>415</v>
@@ -33116,10 +33934,10 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="97" t="s">
-        <v>2883</v>
+        <v>2871</v>
       </c>
       <c r="B243" s="108" t="s">
-        <v>2884</v>
+        <v>2872</v>
       </c>
       <c r="C243" s="147" t="s">
         <v>415</v>
@@ -33131,10 +33949,10 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="97" t="s">
-        <v>2885</v>
+        <v>2873</v>
       </c>
       <c r="B244" s="108" t="s">
-        <v>2886</v>
+        <v>2874</v>
       </c>
       <c r="C244" s="147" t="s">
         <v>415</v>
@@ -33146,10 +33964,10 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="97" t="s">
-        <v>2887</v>
+        <v>2875</v>
       </c>
       <c r="B245" s="108" t="s">
-        <v>2888</v>
+        <v>2876</v>
       </c>
       <c r="C245" s="147" t="s">
         <v>415</v>
@@ -33159,12 +33977,12 @@
       </c>
       <c r="E245" s="144"/>
     </row>
-    <row r="246" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="97" t="s">
-        <v>2889</v>
+        <v>2877</v>
       </c>
       <c r="B246" s="108" t="s">
-        <v>2890</v>
+        <v>2878</v>
       </c>
       <c r="C246" s="147" t="s">
         <v>415</v>
@@ -33173,6 +33991,96 @@
         <v>415</v>
       </c>
       <c r="E246" s="144"/>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A247" s="97" t="s">
+        <v>2879</v>
+      </c>
+      <c r="B247" s="108" t="s">
+        <v>2880</v>
+      </c>
+      <c r="C247" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="D247" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="E247" s="144"/>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A248" s="97" t="s">
+        <v>2881</v>
+      </c>
+      <c r="B248" s="108" t="s">
+        <v>2882</v>
+      </c>
+      <c r="C248" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="D248" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="E248" s="144"/>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A249" s="97" t="s">
+        <v>2883</v>
+      </c>
+      <c r="B249" s="108" t="s">
+        <v>2884</v>
+      </c>
+      <c r="C249" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="D249" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="E249" s="144"/>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A250" s="97" t="s">
+        <v>2885</v>
+      </c>
+      <c r="B250" s="108" t="s">
+        <v>2886</v>
+      </c>
+      <c r="C250" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="D250" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="E250" s="144"/>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A251" s="97" t="s">
+        <v>2887</v>
+      </c>
+      <c r="B251" s="108" t="s">
+        <v>2888</v>
+      </c>
+      <c r="C251" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="D251" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="E251" s="144"/>
+    </row>
+    <row r="252" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A252" s="97" t="s">
+        <v>2889</v>
+      </c>
+      <c r="B252" s="108" t="s">
+        <v>2890</v>
+      </c>
+      <c r="C252" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="D252" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="E252" s="144"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -33353,26 +34261,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="6c854b04-c9c6-4391-adbe-2e73191270e7" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="059b9c67-646b-4b4e-9ab1-2b1c805d0390">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AD6200282E8E804DB7E47654D11346C2" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="334b3f607926cb22599f187b4c015ce1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="059b9c67-646b-4b4e-9ab1-2b1c805d0390" xmlns:ns3="c05e7bd6-26a7-41a1-805c-893279a3732f" xmlns:ns4="6c854b04-c9c6-4391-adbe-2e73191270e7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0fe548b9ff7492f3109b4e0b4a8efc8f" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="059b9c67-646b-4b4e-9ab1-2b1c805d0390"/>
@@ -33632,26 +34520,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCA6965B-A23A-4F60-9CAE-00FD555BD4D8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="6c854b04-c9c6-4391-adbe-2e73191270e7" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="059b9c67-646b-4b4e-9ab1-2b1c805d0390">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A2EA77E-CA9B-4563-9A5E-2F50B3C8BA13}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6c854b04-c9c6-4391-adbe-2e73191270e7"/>
-    <ds:schemaRef ds:uri="059b9c67-646b-4b4e-9ab1-2b1c805d0390"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FE51207-01AF-400E-9D05-58F426138751}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -33669,4 +34558,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A2EA77E-CA9B-4563-9A5E-2F50B3C8BA13}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6c854b04-c9c6-4391-adbe-2e73191270e7"/>
+    <ds:schemaRef ds:uri="059b9c67-646b-4b4e-9ab1-2b1c805d0390"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCA6965B-A23A-4F60-9CAE-00FD555BD4D8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>